--- a/Schiphollijn/Hfdo_plan.xlsx
+++ b/Schiphollijn/Hfdo_plan.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="11355" windowHeight="4875"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="11355" windowHeight="4875" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="140-240" sheetId="1" r:id="rId1"/>
+    <sheet name="600-9200" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Shl</t>
   </si>
@@ -103,6 +103,27 @@
   </si>
   <si>
     <t>1. (~11:14) Trein 410242 rijdt naar Hoofddorp Opstel</t>
+  </si>
+  <si>
+    <t>DH HS</t>
+  </si>
+  <si>
+    <t>Asdc</t>
+  </si>
+  <si>
+    <t>tijdsverschil</t>
+  </si>
+  <si>
+    <t>trein 620</t>
+  </si>
+  <si>
+    <t>trein 9201</t>
+  </si>
+  <si>
+    <t>trein 633</t>
+  </si>
+  <si>
+    <t>trein 9224</t>
   </si>
 </sst>
 </file>
@@ -440,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -940,12 +961,187 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F6" si="0">B3-D3</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4-B3</f>
+        <v>1.9444444444444431E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D4-D3</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <f>B4-D4</f>
+        <v>2.3611111111111083E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="1">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3611111111111194E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="C6" s="1">
+        <f>B6-B5</f>
+        <v>9.7222222222221877E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="E6" s="1">
+        <f>D6-D5</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2916666666666696E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="F9" s="1">
+        <f>D9-B9</f>
+        <v>2.2916666666666696E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="C10" s="1">
+        <f>B10-B9</f>
+        <v>9.0277777777778012E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="E10" s="1">
+        <f>D10-D9</f>
+        <v>9.0277777777776902E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" ref="F10:F12" si="1">D10-B10</f>
+        <v>2.2916666666666585E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="1">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3611111111111194E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C12" s="1">
+        <f>B12-B11</f>
+        <v>1.9444444444444431E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E12" s="1">
+        <f>D12-D11</f>
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Schiphollijn/Hfdo_plan.xlsx
+++ b/Schiphollijn/Hfdo_plan.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="11355" windowHeight="4875" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="11355" windowHeight="4875" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="140-240" sheetId="1" r:id="rId1"/>
-    <sheet name="600-9200" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
+    <sheet name="Globaal" sheetId="6" r:id="rId1"/>
+    <sheet name="140-240" sheetId="1" r:id="rId2"/>
+    <sheet name="3700" sheetId="2" r:id="rId3"/>
+    <sheet name="3100-3500" sheetId="3" r:id="rId4"/>
+    <sheet name="3300-5700-3200" sheetId="4" r:id="rId5"/>
+    <sheet name="700-1600" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="109">
   <si>
     <t>Shl</t>
   </si>
@@ -87,12 +90,6 @@
     <t>(Leiden-)Hfd-Ut</t>
   </si>
   <si>
-    <t>Rond het hele en halve uur is 6 minuten beschikbaar</t>
-  </si>
-  <si>
-    <t>Kan dus voor rangeerbewegingen worden gebruikt.</t>
-  </si>
-  <si>
     <t>3. (~12:30) Locomotief (treinnr. 400147) komt van spoor 211 naar de trein toe en koppelt aan en keert</t>
   </si>
   <si>
@@ -105,25 +102,250 @@
     <t>1. (~11:14) Trein 410242 rijdt naar Hoofddorp Opstel</t>
   </si>
   <si>
-    <t>DH HS</t>
-  </si>
-  <si>
     <t>Asdc</t>
   </si>
   <si>
-    <t>tijdsverschil</t>
-  </si>
-  <si>
-    <t>trein 620</t>
-  </si>
-  <si>
-    <t>trein 9201</t>
-  </si>
-  <si>
-    <t>trein 633</t>
-  </si>
-  <si>
-    <t>trein 9224</t>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>Ehv</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| </t>
+  </si>
+  <si>
+    <t>~13:20</t>
+  </si>
+  <si>
+    <t>-----|----&gt;</t>
+  </si>
+  <si>
+    <t>----------&gt;</t>
+  </si>
+  <si>
+    <t>~13:35</t>
+  </si>
+  <si>
+    <t>~13:39</t>
+  </si>
+  <si>
+    <t>~13:50</t>
+  </si>
+  <si>
+    <t>~13:54</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Standaardpatroon</t>
+  </si>
+  <si>
+    <t>Opstarten</t>
+  </si>
+  <si>
+    <t>Ut</t>
+  </si>
+  <si>
+    <t>Ht</t>
+  </si>
+  <si>
+    <t>~6:09</t>
+  </si>
+  <si>
+    <t>~6:35</t>
+  </si>
+  <si>
+    <t>~6:54</t>
+  </si>
+  <si>
+    <t>~7:20</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t>~7:05</t>
+  </si>
+  <si>
+    <t>~6:39</t>
+  </si>
+  <si>
+    <t>~7:24</t>
+  </si>
+  <si>
+    <t>(over-</t>
+  </si>
+  <si>
+    <t>nachting)</t>
+  </si>
+  <si>
+    <t>~7:09</t>
+  </si>
+  <si>
+    <t>~7:35</t>
+  </si>
+  <si>
+    <t>~7:50</t>
+  </si>
+  <si>
+    <t>Afbouwen</t>
+  </si>
+  <si>
+    <t>~20:05</t>
+  </si>
+  <si>
+    <t>~20:09</t>
+  </si>
+  <si>
+    <t>~20:20</t>
+  </si>
+  <si>
+    <t>~19:54</t>
+  </si>
+  <si>
+    <t>~20:24</t>
+  </si>
+  <si>
+    <t>~20:35</t>
+  </si>
+  <si>
+    <t>~21:05</t>
+  </si>
+  <si>
+    <t>~20:39</t>
+  </si>
+  <si>
+    <t>~20:50</t>
+  </si>
+  <si>
+    <t>~20:54</t>
+  </si>
+  <si>
+    <t>~21:09</t>
+  </si>
+  <si>
+    <t>~21:20</t>
+  </si>
+  <si>
+    <t>~21:39</t>
+  </si>
+  <si>
+    <t>~21:50</t>
+  </si>
+  <si>
+    <t>~23:20</t>
+  </si>
+  <si>
+    <t>~23:09</t>
+  </si>
+  <si>
+    <t>~23:50</t>
+  </si>
+  <si>
+    <t>~23:39</t>
+  </si>
+  <si>
+    <t>~0:20</t>
+  </si>
+  <si>
+    <t>~13:24</t>
+  </si>
+  <si>
+    <t>Enkh</t>
+  </si>
+  <si>
+    <t>Hoorn</t>
+  </si>
+  <si>
+    <t>~6:21</t>
+  </si>
+  <si>
+    <t>~6:51</t>
+  </si>
+  <si>
+    <t>~6:38</t>
+  </si>
+  <si>
+    <t>~7:08</t>
+  </si>
+  <si>
+    <t>~23:38</t>
+  </si>
+  <si>
+    <t>~0:21</t>
+  </si>
+  <si>
+    <t>~23:51</t>
+  </si>
+  <si>
+    <t>~23:21</t>
+  </si>
+  <si>
+    <t>(eind)</t>
+  </si>
+  <si>
+    <t>Ledn</t>
+  </si>
+  <si>
+    <t>(begin)</t>
+  </si>
+  <si>
+    <t>(+1 nacht)</t>
+  </si>
+  <si>
+    <t>(+234)</t>
+  </si>
+  <si>
+    <t>(uit 3400</t>
+  </si>
+  <si>
+    <t>Hlm-Hn)</t>
+  </si>
+  <si>
+    <t>Amf</t>
+  </si>
+  <si>
+    <t>&lt;80568&gt;</t>
+  </si>
+  <si>
+    <t>80108 (ma-vr): Shl (08.10)-Gv (08.52) uit 1618, wordt 83705.</t>
+  </si>
+  <si>
+    <t>DDAR</t>
+  </si>
+  <si>
+    <t>mDDM</t>
+  </si>
+  <si>
+    <t>(7)3723</t>
+  </si>
+  <si>
+    <t>over op:</t>
+  </si>
+  <si>
+    <t>Asdz</t>
+  </si>
+  <si>
+    <t>~7:02</t>
+  </si>
+  <si>
+    <t>van:</t>
+  </si>
+  <si>
+    <t>(7)3317</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Wgm?</t>
   </si>
 </sst>
 </file>
@@ -139,12 +361,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,12 +417,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -459,10 +733,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="B2">
+        <v>222</v>
+      </c>
+      <c r="D2">
+        <v>212</v>
+      </c>
+      <c r="F2">
+        <v>216</v>
+      </c>
+      <c r="H2">
+        <v>223</v>
+      </c>
+      <c r="J2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>700</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="H4" s="10">
+        <v>3300</v>
+      </c>
+      <c r="J4" s="11">
+        <v>5700</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1600</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="R4" s="10">
+        <v>3300</v>
+      </c>
+      <c r="T4" s="11">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="D5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5">
+        <v>31</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="N5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="R5" s="10"/>
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6">
+        <v>32</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="N6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="R6" s="10"/>
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="D7" s="12"/>
+      <c r="F7" s="9">
+        <v>3200</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7">
+        <v>33</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="N7" s="12"/>
+      <c r="P7" s="9">
+        <v>3200</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="F8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8">
+        <v>34</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="P8" s="9"/>
+      <c r="R8" s="10"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="D9" s="8">
+        <v>3100</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="K9">
+        <v>35</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="N9" s="8">
+        <v>3100</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="D10" s="8">
+        <v>3500</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="K10">
+        <v>36</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="N10" s="8">
+        <v>3500</v>
+      </c>
+      <c r="P10" s="9"/>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="K11">
+        <v>37</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="N11" s="8"/>
+      <c r="P11" s="9"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="K12">
+        <v>38</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="N12" s="8"/>
+      <c r="P12" s="9"/>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="K13">
+        <v>39</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="N13" s="8"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="K14">
+        <v>40</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="K15">
+        <v>41</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="F16" s="9"/>
+      <c r="K16">
+        <v>42</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="F17" s="9"/>
+      <c r="K17">
+        <v>43</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="K18">
+        <v>44</v>
+      </c>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1600</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="K19">
+        <v>45</v>
+      </c>
+      <c r="L19" s="7">
+        <v>700</v>
+      </c>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="F20" s="9"/>
+      <c r="K20">
+        <v>46</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="F21" s="9"/>
+      <c r="K21">
+        <v>47</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="F22" s="9"/>
+      <c r="K22">
+        <v>48</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="F23" s="9"/>
+      <c r="K23">
+        <v>49</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="D24" s="8">
+        <v>3100</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="K24">
+        <v>50</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="N24" s="8">
+        <v>3100</v>
+      </c>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="D25" s="8">
+        <v>3500</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="H25" s="10">
+        <v>3300</v>
+      </c>
+      <c r="K25">
+        <v>51</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="N25" s="8">
+        <v>3500</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="R25" s="10">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="D26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="K26">
+        <v>52</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="N26" s="8"/>
+      <c r="P26" s="9"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="K27">
+        <v>53</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="N27" s="8"/>
+      <c r="P27" s="9"/>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="K28">
+        <v>54</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="N28" s="8"/>
+      <c r="P28" s="9"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="F29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="J29" s="11">
+        <v>5700</v>
+      </c>
+      <c r="K29">
+        <v>55</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="P29" s="9"/>
+      <c r="R29" s="10"/>
+      <c r="T29" s="11">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="F30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30">
+        <v>56</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="N30" s="12"/>
+      <c r="P30" s="9"/>
+      <c r="R30" s="10"/>
+      <c r="T30" s="11"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="D31" s="12"/>
+      <c r="F31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="J31" s="11"/>
+      <c r="K31">
+        <v>57</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="N31" s="12"/>
+      <c r="P31" s="9"/>
+      <c r="R31" s="10"/>
+      <c r="T31" s="11"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="D32" s="12"/>
+      <c r="H32" s="10"/>
+      <c r="J32" s="11"/>
+      <c r="K32">
+        <v>58</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="N32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="R32" s="10"/>
+      <c r="T32" s="11"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="D33" s="12"/>
+      <c r="H33" s="10"/>
+      <c r="J33" s="11"/>
+      <c r="K33">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="N33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="R33" s="10"/>
+      <c r="T33" s="11"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="N34" s="12"/>
+      <c r="P34" s="12"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="P35" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -679,7 +1500,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -689,17 +1510,17 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -833,16 +1654,16 @@
         <v>3200</v>
       </c>
       <c r="D24">
+        <v>33</v>
+      </c>
+      <c r="E24">
         <v>57</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>3</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>27</v>
-      </c>
-      <c r="G24">
-        <v>33</v>
       </c>
       <c r="I24">
         <v>9</v>
@@ -939,16 +1760,6 @@
       </c>
       <c r="K27">
         <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="I29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="I30" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -959,186 +1770,362 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="2" max="27" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.35694444444444445</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F6" si="0">B3-D3</f>
-        <v>2.0833333333333315E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="1" spans="1:10">
+      <c r="B1" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="3">
+        <v>3723</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3725</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3773</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3775</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3777</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3779</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3781</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.80694444444444446</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.86944444444444402</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.89027777777777795</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.91111111111111198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.3972222222222222</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4-B3</f>
-        <v>1.9444444444444431E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.37361111111111112</v>
-      </c>
-      <c r="E4" s="1">
-        <f>D4-D3</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <f>B4-D4</f>
-        <v>2.3611111111111083E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="1">
-        <v>0.3979166666666667</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.3743055555555555</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>2.3611111111111194E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="C6" s="1">
-        <f>B6-B5</f>
-        <v>9.7222222222221877E-3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.38472222222222219</v>
-      </c>
-      <c r="E6" s="1">
-        <f>D6-D5</f>
-        <v>1.0416666666666685E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2916666666666696E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.34236111111111112</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.36527777777777781</v>
-      </c>
-      <c r="F9" s="1">
-        <f>D9-B9</f>
-        <v>2.2916666666666696E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="B9" s="4">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.85902777777777783</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.87986111111111098</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.90069444444444502</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.92152777777777894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.32361111111111113</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.82361111111111107</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
+        <v>0.28125</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.84375</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.35138888888888892</v>
-      </c>
-      <c r="C10" s="1">
-        <f>B10-B9</f>
-        <v>9.0277777777778012E-3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.3743055555555555</v>
-      </c>
-      <c r="E10" s="1">
-        <f>D10-D9</f>
-        <v>9.0277777777776902E-3</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" ref="F10:F12" si="1">D10-B10</f>
-        <v>2.2916666666666585E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="1">
-        <v>0.3520833333333333</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.3756944444444445</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3611111111111194E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.37152777777777773</v>
-      </c>
-      <c r="C12" s="1">
-        <f>B12-B11</f>
-        <v>1.9444444444444431E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.3923611111111111</v>
-      </c>
-      <c r="E12" s="1">
-        <f>D12-D11</f>
-        <v>1.6666666666666607E-2</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>2.083333333333337E-2</v>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <v>0.28611111111111115</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.89027777777777783</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.91111111111111098</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.93194444444444502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.85972222222222217</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.88055555555555554</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.92222222222222205</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.94305555555555598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="C19" s="3">
+        <v>3714</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3768</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3770</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3772</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3774</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3776</v>
       </c>
     </row>
   </sheetData>
@@ -1146,14 +2133,3121 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="16" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="3">
+        <v>3540</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3547</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3140</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3149</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3542</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3549</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3142</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.6479166666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" s="3">
+        <v>3519</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3112</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3521</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3114</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3123</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3516</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3523</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3116</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3125</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.37708333333333338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.26180555555555557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.27013888888888887</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.28125</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.31180555555555556</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.32222222222222224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="C24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="C25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="G26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="C27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="C28" s="4">
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="3">
+        <v>73523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="B33" s="3">
+        <v>3166</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3175</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3568</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3575</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3168</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3177</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3570</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3577</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3170</v>
+      </c>
+      <c r="K33" s="3">
+        <v>3179</v>
+      </c>
+      <c r="L33" s="3">
+        <v>3572</v>
+      </c>
+      <c r="M33" s="3">
+        <v>3579</v>
+      </c>
+      <c r="N33" s="3">
+        <v>3574</v>
+      </c>
+      <c r="O33" s="3">
+        <v>3581</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>3580</v>
+      </c>
+      <c r="R33" s="3">
+        <v>3587</v>
+      </c>
+      <c r="S33" s="3">
+        <v>3582</v>
+      </c>
+      <c r="T33" s="3">
+        <v>3589</v>
+      </c>
+      <c r="U33" s="3">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.8979166666666667</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.91875000000000007</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.78263888888888899</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.80347222222222225</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0.82430555555555562</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.84305555555555556</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.84375</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0.8847222222222223</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0.90625</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>0.96805555555555556</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0.96875</v>
+      </c>
+      <c r="S37" s="4">
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="T37" s="4">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="U37" s="4">
+        <v>9.7222222222222224E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="B38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="B39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="B41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="B42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="S43" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="S44" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:AL45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="13" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:27">
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="B3" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="B4" s="3">
+        <v>3317</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3319</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3316</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3321</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3318</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3387</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3384</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3389</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.22430555555555556</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.24513888888888888</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.93263888888888891</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.95347222222222217</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.97430555555555554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.26319444444444445</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.99236111111111114</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.3194444444444444E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="B12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="B13" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="D15" s="3">
+        <v>5712</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5714</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5716</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5718</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5720</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5722</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5724</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5726</v>
+      </c>
+      <c r="L15" s="3">
+        <v>5728</v>
+      </c>
+      <c r="N15" s="3">
+        <v>5748</v>
+      </c>
+      <c r="O15" s="3">
+        <v>5750</v>
+      </c>
+      <c r="P15" s="3">
+        <v>5752</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>5754</v>
+      </c>
+      <c r="R15" s="3">
+        <v>5756</v>
+      </c>
+      <c r="S15" s="3">
+        <v>5758</v>
+      </c>
+      <c r="T15" s="3">
+        <v>5760</v>
+      </c>
+      <c r="U15" s="3">
+        <v>5762</v>
+      </c>
+      <c r="V15" s="3">
+        <v>5764</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3">
+        <v>5780</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>5782</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>5784</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.26319444444444445</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.34652777777777799</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.36736111111111103</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.38819444444444401</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.42986111111111203</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
+        <v>0.63819444444444895</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.65902777777778299</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.67986111111111702</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0.72152777777777199</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0.74236111111109904</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0.76319444444444595</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0.78402777777777899</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0.80486111111111203</v>
+      </c>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4">
+        <v>0.97152777777777599</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0.99236111111110903</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>1.0131944444444401</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>1.03402777777777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.35208333333333303</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.37291666666666701</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.43263888888888902</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
+        <v>0.64097222222222205</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.66180555555555498</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0.70624999999999993</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0.72708333333333297</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0.74791666666666601</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0.76597222222221895</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0.78680555555555198</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0.80763888888888502</v>
+      </c>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4">
+        <v>0.97430555555554899</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0.99513888888888202</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>1.0159722222222101</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>1.03680555555555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.36388888888888898</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.38472222222222202</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0.6972222222222223</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0.71805555555555556</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0.73888888888888904</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0.75972222222222197</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.27013888888888887</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
+        <v>0.39513888888888898</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.41597222222222302</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.436805555555556</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
+        <v>0.64513888888889004</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.66597222222222296</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4">
+        <v>0.77013888888889004</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0.79097222222222296</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0.811805555555557</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0.97847222222222396</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0.999305555555557</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>1.02013888888889</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>1.04097222222222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.27361111111111108</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.64861111111111003</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.66944444444444495</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0.69027777777777699</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4">
+        <v>0.98194444444444395</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>1.00277777777778</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38">
+      <c r="C23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:38">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.32361111111111113</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.344444444444444</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.36527777777777798</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.38611111111111202</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0.74027777777777803</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0.76111111111111096</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:38">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.23402777777777781</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.25416666666666665</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.295833333333333</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.358333333333333</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.37916666666666698</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.40000000000000102</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.420833333333335</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.44166666666666898</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4">
+        <v>0.65000000000000902</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.67083333333334305</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0.69166666666667698</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.71250000000001101</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0.73333333333334505</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0.75416666666667898</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0.77500000000001301</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0.79583333333334705</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4">
+        <v>0.98333333333322404</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>1.0041666666665401</v>
+      </c>
+      <c r="Z25" s="4"/>
+    </row>
+    <row r="26" spans="1:38">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.23680555555555557</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.29861111111111099</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.36111111111111099</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.38194444444444497</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.40277777777777801</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.42361111111111199</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.44444444444444497</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4">
+        <v>0.65277777777778001</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.67361111111111405</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0.69444444444444697</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.71527777777778101</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0.73611111111111405</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0.75694444444444797</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0.77777777777778101</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0.79861111111111505</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0.81944444444444797</v>
+      </c>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4">
+        <v>0.98611111111111105</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>1.00694444444444</v>
+      </c>
+      <c r="Z26" s="4"/>
+    </row>
+    <row r="27" spans="1:38">
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:38">
+      <c r="B28" s="3">
+        <v>5715</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5717</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5719</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5721</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5723</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5725</v>
+      </c>
+      <c r="H28" s="3">
+        <v>5727</v>
+      </c>
+      <c r="I28" s="3">
+        <v>5729</v>
+      </c>
+      <c r="J28" s="3">
+        <v>5731</v>
+      </c>
+      <c r="K28" s="3">
+        <v>5733</v>
+      </c>
+      <c r="L28" s="3">
+        <v>5735</v>
+      </c>
+      <c r="N28" s="3">
+        <v>5755</v>
+      </c>
+      <c r="O28" s="3">
+        <v>5757</v>
+      </c>
+      <c r="P28" s="3">
+        <v>5759</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>5761</v>
+      </c>
+      <c r="R28" s="3">
+        <v>5763</v>
+      </c>
+      <c r="S28" s="3">
+        <v>5765</v>
+      </c>
+      <c r="T28" s="3">
+        <v>5767</v>
+      </c>
+      <c r="U28" s="3">
+        <v>5769</v>
+      </c>
+      <c r="V28" s="3">
+        <v>5771</v>
+      </c>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3">
+        <v>5787</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>5789</v>
+      </c>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="32" spans="1:38">
+      <c r="D32" s="3">
+        <v>3206</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3208</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3210</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3212</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3276</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3278</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3280</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+    </row>
+    <row r="33" spans="1:38">
+      <c r="D33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+    </row>
+    <row r="34" spans="1:38">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.23194444444444443</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.25277777777777799</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.27361111111111203</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4">
+        <v>0.94027777777778498</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0.96111111111111902</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.98194444444445195</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+    </row>
+    <row r="35" spans="1:38">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.26736111111111099</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.28819444444444398</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4">
+        <v>0.95486111111110705</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.97569444444443998</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.99652777777777302</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+    </row>
+    <row r="36" spans="1:38">
+      <c r="D36" s="4">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4">
+        <v>0.95833333333333404</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+    </row>
+    <row r="37" spans="1:38">
+      <c r="D37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+    </row>
+    <row r="38" spans="1:38">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.23124999999999998</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0.9604166666666667</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0.98125000000000007</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1.0006944444444501</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+    </row>
+    <row r="39" spans="1:38">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.22638888888888889</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4">
+        <v>0.97708333333333197</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0.99791666666666601</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+    </row>
+    <row r="40" spans="1:38">
+      <c r="C40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+    </row>
+    <row r="41" spans="1:38">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4">
+        <v>0.97916666666666596</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+    </row>
+    <row r="42" spans="1:38">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.27430555555555602</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.29513888888888901</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.31597222222222199</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4">
+        <v>0.98263888888887796</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1.0034722222222101</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+    </row>
+    <row r="43" spans="1:38">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.28888888888888897</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.30972222222222201</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.33055555555555599</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4">
+        <v>0.99722222222221102</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1.0180555555555399</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+    </row>
+    <row r="44" spans="1:38">
+      <c r="C44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+    </row>
+    <row r="45" spans="1:38">
+      <c r="C45" s="3">
+        <v>3217</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3219</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3221</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3223</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3225</v>
+      </c>
+      <c r="I45" s="3">
+        <v>3289</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3291</v>
+      </c>
+      <c r="K45"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Schiphollijn/Hfdo_plan.xlsx
+++ b/Schiphollijn/Hfdo_plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="11355" windowHeight="4875" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="11355" windowHeight="4875" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Globaal" sheetId="6" r:id="rId1"/>
@@ -736,7 +736,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1774,7 +1774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2137,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Schiphollijn/Hfdo_plan.xlsx
+++ b/Schiphollijn/Hfdo_plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="11355" windowHeight="4875" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="11355" windowHeight="4875"/>
   </bookViews>
   <sheets>
     <sheet name="Globaal" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="75">
   <si>
     <t>Shl</t>
   </si>
@@ -117,36 +117,9 @@
     <t>|</t>
   </si>
   <si>
-    <t xml:space="preserve">| </t>
-  </si>
-  <si>
-    <t>~13:20</t>
-  </si>
-  <si>
-    <t>-----|----&gt;</t>
-  </si>
-  <si>
-    <t>----------&gt;</t>
-  </si>
-  <si>
-    <t>~13:35</t>
-  </si>
-  <si>
-    <t>~13:39</t>
-  </si>
-  <si>
-    <t>~13:50</t>
-  </si>
-  <si>
-    <t>~13:54</t>
-  </si>
-  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Standaardpatroon</t>
-  </si>
-  <si>
     <t>Opstarten</t>
   </si>
   <si>
@@ -156,108 +129,18 @@
     <t>Ht</t>
   </si>
   <si>
-    <t>~6:09</t>
-  </si>
-  <si>
-    <t>~6:35</t>
-  </si>
-  <si>
-    <t>~6:54</t>
-  </si>
-  <si>
-    <t>~7:20</t>
-  </si>
-  <si>
     <t>Ah</t>
   </si>
   <si>
-    <t>~7:05</t>
-  </si>
-  <si>
-    <t>~6:39</t>
-  </si>
-  <si>
-    <t>~7:24</t>
-  </si>
-  <si>
     <t>(over-</t>
   </si>
   <si>
     <t>nachting)</t>
   </si>
   <si>
-    <t>~7:09</t>
-  </si>
-  <si>
-    <t>~7:35</t>
-  </si>
-  <si>
-    <t>~7:50</t>
-  </si>
-  <si>
     <t>Afbouwen</t>
   </si>
   <si>
-    <t>~20:05</t>
-  </si>
-  <si>
-    <t>~20:09</t>
-  </si>
-  <si>
-    <t>~20:20</t>
-  </si>
-  <si>
-    <t>~19:54</t>
-  </si>
-  <si>
-    <t>~20:24</t>
-  </si>
-  <si>
-    <t>~20:35</t>
-  </si>
-  <si>
-    <t>~21:05</t>
-  </si>
-  <si>
-    <t>~20:39</t>
-  </si>
-  <si>
-    <t>~20:50</t>
-  </si>
-  <si>
-    <t>~20:54</t>
-  </si>
-  <si>
-    <t>~21:09</t>
-  </si>
-  <si>
-    <t>~21:20</t>
-  </si>
-  <si>
-    <t>~21:39</t>
-  </si>
-  <si>
-    <t>~21:50</t>
-  </si>
-  <si>
-    <t>~23:20</t>
-  </si>
-  <si>
-    <t>~23:09</t>
-  </si>
-  <si>
-    <t>~23:50</t>
-  </si>
-  <si>
-    <t>~23:39</t>
-  </si>
-  <si>
-    <t>~0:20</t>
-  </si>
-  <si>
-    <t>~13:24</t>
-  </si>
-  <si>
     <t>Enkh</t>
   </si>
   <si>
@@ -297,12 +180,6 @@
     <t>(begin)</t>
   </si>
   <si>
-    <t>(+1 nacht)</t>
-  </si>
-  <si>
-    <t>(+234)</t>
-  </si>
-  <si>
     <t>(uit 3400</t>
   </si>
   <si>
@@ -346,13 +223,34 @@
   </si>
   <si>
     <t>Wgm?</t>
+  </si>
+  <si>
+    <t>HiSpeed</t>
+  </si>
+  <si>
+    <t>213-215</t>
+  </si>
+  <si>
+    <t>233+234</t>
+  </si>
+  <si>
+    <t>overdag:</t>
+  </si>
+  <si>
+    <t>'s ochtends</t>
+  </si>
+  <si>
+    <t>s avonds</t>
+  </si>
+  <si>
+    <t>3x 140</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,8 +258,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +311,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -417,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -432,13 +357,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -733,548 +685,734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A2:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="2.85546875" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" customWidth="1"/>
-    <col min="15" max="15" width="2.85546875" style="12" customWidth="1"/>
-    <col min="17" max="17" width="2.85546875" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="3"/>
+    <col min="10" max="16" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="H1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="B2">
+    <row r="2" spans="1:16">
+      <c r="B2" s="3">
+        <v>212</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="3">
+        <v>216</v>
+      </c>
+      <c r="E2" s="3">
+        <v>221</v>
+      </c>
+      <c r="F2" s="3">
         <v>222</v>
       </c>
-      <c r="D2">
+      <c r="G2" s="3">
+        <v>223</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3500</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="G4" s="17">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3500</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J6" s="3">
         <v>212</v>
       </c>
-      <c r="F2">
+      <c r="K6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="3">
         <v>216</v>
       </c>
-      <c r="H2">
+      <c r="M6" s="3">
+        <v>221</v>
+      </c>
+      <c r="N6" s="3">
+        <v>222</v>
+      </c>
+      <c r="O6" s="3">
         <v>223</v>
       </c>
-      <c r="J2">
+      <c r="P6" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>0</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B8" s="7">
+        <v>3500</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="6">
         <v>700</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="H4" s="10">
+      <c r="G8" s="9">
         <v>3300</v>
       </c>
-      <c r="J4" s="11">
+      <c r="H8" s="10">
         <v>5700</v>
       </c>
-      <c r="K4">
+      <c r="I8">
         <v>30</v>
       </c>
-      <c r="L4" s="6">
+      <c r="J8" s="15">
+        <v>3500</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="N8" s="14">
         <v>1600</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="R4" s="10">
+      <c r="O8" s="9">
         <v>3300</v>
       </c>
-      <c r="T4" s="11">
+      <c r="P8" s="10">
         <v>5700</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5">
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>1</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="D5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="H5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5">
-        <v>31</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="N5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="R5" s="10"/>
-      <c r="T5" s="11"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="11"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9">
+        <v>31</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="11"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="D6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="H6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="11"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10">
         <v>32</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="N6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="R6" s="10"/>
-      <c r="T6" s="11"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7">
+      <c r="J10" s="15"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="11"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="D7" s="12"/>
-      <c r="F7" s="9">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="12">
         <v>3200</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7">
+      <c r="F11" s="6"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11">
         <v>33</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="N7" s="12"/>
-      <c r="P7" s="9">
+      <c r="J11" s="15"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="12">
         <v>3200</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
+      <c r="N11" s="14"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="F8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="12"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12">
         <v>34</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="P8" s="9"/>
-      <c r="R8" s="10"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9">
+      <c r="J12" s="15"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="12"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="D9" s="8">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="12"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="9"/>
+      <c r="I13">
+        <v>35</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="12"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="12"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
+      <c r="I14">
+        <v>36</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="12"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="12"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="13">
         <v>3100</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="K9">
-        <v>35</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="N9" s="8">
+      <c r="I15">
+        <v>37</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="12"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="13">
         <v>3100</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="R9" s="10"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="D10" s="8">
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="12"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="13"/>
+      <c r="I16">
+        <v>38</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="12"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="12"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="13"/>
+      <c r="I17">
+        <v>39</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="12"/>
+      <c r="N17" s="14"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="12"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="13"/>
+      <c r="I18">
+        <v>40</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="12"/>
+      <c r="N18" s="14"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="12"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="13"/>
+      <c r="I19">
+        <v>41</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="12"/>
+      <c r="N19" s="14"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="12"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="13"/>
+      <c r="I20">
+        <v>42</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="12"/>
+      <c r="N20" s="14"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="12"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="13"/>
+      <c r="I21">
+        <v>43</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="12"/>
+      <c r="N21" s="14"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="12"/>
+      <c r="H22" s="13"/>
+      <c r="I22">
+        <v>44</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="12"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="12"/>
+      <c r="F23" s="14">
+        <v>1600</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23">
+        <v>45</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="12"/>
+      <c r="N23" s="6">
+        <v>700</v>
+      </c>
+      <c r="P23" s="13"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="12"/>
+      <c r="F24" s="14"/>
+      <c r="H24" s="13"/>
+      <c r="I24">
+        <v>46</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="12"/>
+      <c r="N24" s="6"/>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="12"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="13"/>
+      <c r="I25">
+        <v>47</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="12"/>
+      <c r="N25" s="6"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="12"/>
+      <c r="F26" s="14"/>
+      <c r="H26" s="13"/>
+      <c r="I26">
+        <v>48</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="12"/>
+      <c r="N26" s="6"/>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="12"/>
+      <c r="F27" s="14"/>
+      <c r="H27" s="13"/>
+      <c r="I27">
+        <v>49</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="12"/>
+      <c r="N27" s="6"/>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="12"/>
+      <c r="F28" s="14"/>
+      <c r="H28" s="13"/>
+      <c r="I28">
+        <v>50</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="12"/>
+      <c r="N28" s="6"/>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="12"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="9">
+        <v>3300</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29">
+        <v>51</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="12"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="9">
+        <v>3300</v>
+      </c>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" s="15">
         <v>3500</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="K10">
-        <v>36</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="N10" s="8">
+      <c r="C30" s="8"/>
+      <c r="D30" s="12"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="13"/>
+      <c r="I30">
+        <v>52</v>
+      </c>
+      <c r="J30" s="15">
         <v>3500</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="R10" s="10"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="K11">
-        <v>37</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="N11" s="8"/>
-      <c r="P11" s="9"/>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="K12">
-        <v>38</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="N12" s="8"/>
-      <c r="P12" s="9"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="K13">
-        <v>39</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="N13" s="8"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="K14">
-        <v>40</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="F15" s="9"/>
-      <c r="K15">
-        <v>41</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="F16" s="9"/>
-      <c r="K16">
-        <v>42</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="F17" s="9"/>
-      <c r="K17">
-        <v>43</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="K18">
-        <v>44</v>
-      </c>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1600</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="K19">
-        <v>45</v>
-      </c>
-      <c r="L19" s="7">
-        <v>700</v>
-      </c>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="F20" s="9"/>
-      <c r="K20">
-        <v>46</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="F21" s="9"/>
-      <c r="K21">
-        <v>47</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="F22" s="9"/>
-      <c r="K22">
-        <v>48</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="F23" s="9"/>
-      <c r="K23">
-        <v>49</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="D24" s="8">
-        <v>3100</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="K24">
-        <v>50</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="N24" s="8">
-        <v>3100</v>
-      </c>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="D25" s="8">
-        <v>3500</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="H25" s="10">
-        <v>3300</v>
-      </c>
-      <c r="K25">
-        <v>51</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="N25" s="8">
-        <v>3500</v>
-      </c>
-      <c r="P25" s="9"/>
-      <c r="R25" s="10">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="K26">
-        <v>52</v>
-      </c>
-      <c r="L26" s="7"/>
-      <c r="N26" s="8"/>
-      <c r="P26" s="9"/>
-      <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27">
+      <c r="K30" s="8"/>
+      <c r="L30" s="12"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>23</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="K27">
+      <c r="B31" s="15"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="12"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="9"/>
+      <c r="I31">
         <v>53</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="N27" s="8"/>
-      <c r="P27" s="9"/>
-      <c r="R27" s="10"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28">
+      <c r="J31" s="15"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="12"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>24</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="K28">
+      <c r="B32" s="15"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="12"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="9"/>
+      <c r="I32">
         <v>54</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="N28" s="8"/>
-      <c r="P28" s="9"/>
-      <c r="R28" s="10"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29">
+      <c r="J32" s="15"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="12"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>25</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="F29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="J29" s="11">
+      <c r="B33" s="15"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="12"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10">
         <v>5700</v>
       </c>
-      <c r="K29">
+      <c r="I33">
         <v>55</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="P29" s="9"/>
-      <c r="R29" s="10"/>
-      <c r="T29" s="11">
+      <c r="J33" s="7"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="12"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="10">
         <v>5700</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30">
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>26</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="F30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="J30" s="11"/>
-      <c r="K30">
+      <c r="B34" s="15"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="12"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+      <c r="I34">
         <v>56</v>
       </c>
-      <c r="L30" s="7"/>
-      <c r="N30" s="12"/>
-      <c r="P30" s="9"/>
-      <c r="R30" s="10"/>
-      <c r="T30" s="11"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31">
+      <c r="J34" s="7"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="12"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="10"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>27</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="D31" s="12"/>
-      <c r="F31" s="9"/>
-      <c r="H31" s="10"/>
-      <c r="J31" s="11"/>
-      <c r="K31">
+      <c r="B35" s="15"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="12"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+      <c r="I35">
         <v>57</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="N31" s="12"/>
-      <c r="P31" s="9"/>
-      <c r="R31" s="10"/>
-      <c r="T31" s="11"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32">
-        <v>28</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="D32" s="12"/>
-      <c r="H32" s="10"/>
-      <c r="J32" s="11"/>
-      <c r="K32">
+      <c r="J35" s="7"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="12"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="10"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="8"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36">
         <v>58</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="N32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="R32" s="10"/>
-      <c r="T32" s="11"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33">
+      <c r="J36" s="7"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="11"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="10"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>29</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="D33" s="12"/>
-      <c r="H33" s="10"/>
-      <c r="J33" s="11"/>
-      <c r="K33">
+      <c r="B37" s="15"/>
+      <c r="C37" s="8"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+      <c r="I37">
         <v>59</v>
       </c>
-      <c r="L33" s="7"/>
-      <c r="N33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="R33" s="10"/>
-      <c r="T33" s="11"/>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="N34" s="12"/>
-      <c r="P34" s="12"/>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="P35" s="12"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="11"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="10"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="J38" s="11"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="L39" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1785,17 +1923,17 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1862,7 +2000,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4">
         <v>0.30694444444444441</v>
@@ -1917,7 +2055,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B10" s="4">
         <v>0.30277777777777776</v>
@@ -1963,42 +2101,42 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2017,7 +2155,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -2066,7 +2204,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4">
         <v>0.29722222222222222</v>
@@ -2135,10 +2273,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2146,46 +2284,52 @@
     <col min="2" max="16" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="3">
-        <v>3540</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="C3" s="3">
-        <v>3547</v>
+        <v>3519</v>
       </c>
       <c r="D3" s="3">
-        <v>3140</v>
+        <v>3521</v>
       </c>
       <c r="E3" s="3">
-        <v>3149</v>
+        <v>3523</v>
       </c>
       <c r="F3" s="3">
-        <v>3542</v>
+        <v>3516</v>
       </c>
       <c r="G3" s="3">
-        <v>3549</v>
+        <v>3525</v>
       </c>
       <c r="H3" s="3">
-        <v>3142</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>3518</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3112</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3123</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3114</v>
+      </c>
+      <c r="M3" s="3">
+        <v>3125</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -2199,91 +2343,129 @@
       <c r="H4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.49791666666666662</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.62708333333333333</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.51874999999999993</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.6479166666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.4909722222222222</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="4">
-        <v>0.61388888888888882</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.51180555555555551</v>
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="G6" s="4">
-        <v>0.63472222222222219</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.26180555555555557</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.55138888888888882</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="4">
-        <v>0.55208333333333337</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D7" s="4">
-        <v>0.56180555555555556</v>
+        <v>0.28125</v>
       </c>
       <c r="E7" s="4">
-        <v>0.5625</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="F7" s="4">
-        <v>0.57222222222222219</v>
+        <v>0.30138888888888887</v>
       </c>
       <c r="G7" s="4">
-        <v>0.57291666666666663</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="H7" s="4">
-        <v>0.58263888888888882</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.27013888888888887</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.31180555555555556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -2294,13 +2476,28 @@
       <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="3" t="s">
-        <v>28</v>
+      <c r="L8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="C9" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>31</v>
@@ -2314,980 +2511,639 @@
       <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="H9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="C10" s="4">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.28611111111111115</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.31736111111111115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="C15" s="4">
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="C16" s="3">
-        <v>3519</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3112</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3521</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3114</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3123</v>
-      </c>
-      <c r="H16" s="3">
-        <v>3516</v>
-      </c>
-      <c r="I16" s="3">
-        <v>3523</v>
-      </c>
-      <c r="J16" s="3">
-        <v>3116</v>
-      </c>
-      <c r="K16" s="3">
-        <v>3125</v>
-      </c>
-      <c r="L16" s="3">
-        <v>3518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="C17" s="3" t="s">
+    <row r="20" spans="1:22">
+      <c r="B20" s="3">
+        <v>3175</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3166</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3177</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3168</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3179</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3170</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3575</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3568</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3577</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3570</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3579</v>
+      </c>
+      <c r="N20" s="3">
+        <v>3572</v>
+      </c>
+      <c r="O20" s="3">
+        <v>3581</v>
+      </c>
+      <c r="P20" s="3">
+        <v>3574</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3">
+        <v>3587</v>
+      </c>
+      <c r="S20" s="3">
+        <v>3580</v>
+      </c>
+      <c r="T20" s="3">
+        <v>3589</v>
+      </c>
+      <c r="U20" s="3">
+        <v>3582</v>
+      </c>
+      <c r="V20" s="3">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.35625000000000001</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.37708333333333338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4">
-        <v>0.32222222222222224</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.3430555555555555</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.36388888888888887</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0.26180555555555557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.27013888888888887</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.28125</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.29097222222222224</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.30138888888888887</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.31180555555555556</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.3125</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0.32222222222222224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="C22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.8979166666666667</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.91875000000000007</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.81041666666666667</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>34</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.78263888888888899</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.80347222222222225</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.82430555555555562</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.84375</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.84305555555555556</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0.8847222222222223</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.90625</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0.96875</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0.96805555555555556</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="V24" s="4">
+        <v>9.7222222222222224E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="C24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="C25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="G26" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="C27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="C28" s="4">
-        <v>0.24166666666666667</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.28263888888888888</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="3">
-        <v>73523</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="B33" s="3">
-        <v>3166</v>
-      </c>
-      <c r="C33" s="3">
-        <v>3175</v>
-      </c>
-      <c r="D33" s="3">
-        <v>3568</v>
-      </c>
-      <c r="E33" s="3">
-        <v>3575</v>
-      </c>
-      <c r="F33" s="3">
-        <v>3168</v>
-      </c>
-      <c r="G33" s="3">
-        <v>3177</v>
-      </c>
-      <c r="H33" s="3">
-        <v>3570</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3577</v>
-      </c>
-      <c r="J33" s="3">
-        <v>3170</v>
-      </c>
-      <c r="K33" s="3">
-        <v>3179</v>
-      </c>
-      <c r="L33" s="3">
-        <v>3572</v>
-      </c>
-      <c r="M33" s="3">
-        <v>3579</v>
-      </c>
-      <c r="N33" s="3">
-        <v>3574</v>
-      </c>
-      <c r="O33" s="3">
-        <v>3581</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>3580</v>
-      </c>
-      <c r="R33" s="3">
-        <v>3587</v>
-      </c>
-      <c r="S33" s="3">
-        <v>3582</v>
-      </c>
-      <c r="T33" s="3">
-        <v>3589</v>
-      </c>
-      <c r="U33" s="3">
-        <v>3584</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="B34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U34" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0.76874999999999993</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0.8979166666666667</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0.7895833333333333</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0.91875000000000007</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0.81041666666666667</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0.93958333333333333</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0.78263888888888899</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0.80347222222222225</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="4">
-        <v>0.82430555555555562</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U36" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0.83263888888888893</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0.84305555555555556</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.84375</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.8534722222222223</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0.86388888888888893</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="J37" s="4">
-        <v>0.87430555555555556</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="L37" s="4">
-        <v>0.8847222222222223</v>
-      </c>
-      <c r="M37" s="4">
-        <v>0.88541666666666663</v>
-      </c>
-      <c r="N37" s="4">
-        <v>0.90555555555555556</v>
-      </c>
-      <c r="O37" s="4">
-        <v>0.90625</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>0.96805555555555556</v>
-      </c>
-      <c r="R37" s="4">
-        <v>0.96875</v>
-      </c>
-      <c r="S37" s="4">
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="T37" s="4">
-        <v>0.98958333333333337</v>
-      </c>
-      <c r="U37" s="4">
-        <v>9.7222222222222224E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="B38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="B39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U39" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U40" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="B41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="B42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="S43" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="S44" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B27" s="4">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.85902777777777783</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.87986111111111109</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.85902777777777783</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.87986111111111109</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.89027777777777783</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.90069444444444446</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="4">
+        <v>0.96319444444444446</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0.97361111111111109</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0.99444444444444446</v>
+      </c>
+      <c r="V27" s="4">
+        <v>1.5277777777777777E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="G28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="3"/>
+      <c r="U28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="B29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="Q29" s="3"/>
+      <c r="S29" s="5"/>
+      <c r="U29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="Q31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3299,7 +3155,7 @@
   <dimension ref="A2:AL45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3309,12 +3165,12 @@
   <sheetData>
     <row r="2" spans="1:27">
       <c r="B2" s="3" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -3377,7 +3233,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4">
         <v>0.19583333333333333</v>
@@ -3386,7 +3242,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>31</v>
@@ -3404,7 +3260,7 @@
         <v>0.33819444444444446</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H7" s="4">
         <v>0.93263888888888891</v>
@@ -3517,44 +3373,44 @@
         <v>0.25277777777777777</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="B13" s="3" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -3843,7 +3699,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>31</v>
@@ -3967,7 +3823,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4">
         <v>0.27013888888888887</v>
@@ -3996,7 +3852,7 @@
         <v>0.66597222222222296</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -4011,7 +3867,7 @@
         <v>0.811805555555557</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="X21" s="4">
         <v>0.97847222222222396</v>
@@ -4040,19 +3896,19 @@
         <v>0.29444444444444445</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="K22" s="4">
         <v>0.41944444444444445</v>
@@ -4061,7 +3917,7 @@
         <v>0.44027777777777777</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N22" s="4">
         <v>0.64861111111111003</v>
@@ -4073,7 +3929,7 @@
         <v>0.69027777777777699</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="U22" s="4">
         <v>0.7944444444444444</v>
@@ -4089,10 +3945,10 @@
         <v>1.00277777777778</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:38">
@@ -4137,7 +3993,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B24" s="4">
         <v>0.22222222222222221</v>
@@ -4804,7 +4660,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D38" s="4">
         <v>0.23124999999999998</v>
@@ -4819,7 +4675,7 @@
         <v>0.29375000000000001</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I38" s="4">
         <v>0.9604166666666667</v>
@@ -4885,7 +4741,7 @@
         <v>0.99791666666666601</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -5244,7 +5100,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Schiphollijn/Hfdo_plan.xlsx
+++ b/Schiphollijn/Hfdo_plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="97">
   <si>
     <t>Shl</t>
   </si>
@@ -195,24 +195,12 @@
     <t>80108 (ma-vr): Shl (08.10)-Gv (08.52) uit 1618, wordt 83705.</t>
   </si>
   <si>
-    <t>DDAR</t>
-  </si>
-  <si>
-    <t>mDDM</t>
-  </si>
-  <si>
-    <t>(7)3723</t>
-  </si>
-  <si>
     <t>over op:</t>
   </si>
   <si>
     <t>Asdz</t>
   </si>
   <si>
-    <t>~7:02</t>
-  </si>
-  <si>
     <t>van:</t>
   </si>
   <si>
@@ -244,6 +232,84 @@
   </si>
   <si>
     <t>3x 140</t>
+  </si>
+  <si>
+    <t>(naar</t>
+  </si>
+  <si>
+    <t>83705)</t>
+  </si>
+  <si>
+    <t>(van</t>
+  </si>
+  <si>
+    <t>(wordt met</t>
+  </si>
+  <si>
+    <t>gekoppeld,</t>
+  </si>
+  <si>
+    <t>over op</t>
+  </si>
+  <si>
+    <t>70739)</t>
+  </si>
+  <si>
+    <t>(later wordt</t>
+  </si>
+  <si>
+    <t>hieraan</t>
+  </si>
+  <si>
+    <t>gekoppeld)</t>
+  </si>
+  <si>
+    <t>(deel wordt</t>
+  </si>
+  <si>
+    <t>afgekoppeld</t>
+  </si>
+  <si>
+    <t>als</t>
+  </si>
+  <si>
+    <t>71681)</t>
+  </si>
+  <si>
+    <t>70768)</t>
+  </si>
+  <si>
+    <t>71689)</t>
+  </si>
+  <si>
+    <t>70776)</t>
+  </si>
+  <si>
+    <t>2x 700</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Nee, deze moet naar Aswplm als trein 80472</t>
+  </si>
+  <si>
+    <t>(dat is bij Asdta)</t>
+  </si>
+  <si>
+    <t>(7:11)</t>
+  </si>
+  <si>
+    <t>(leeg naar</t>
+  </si>
+  <si>
+    <t>Leiden)</t>
+  </si>
+  <si>
+    <t>3x 5700</t>
+  </si>
+  <si>
+    <t>(7)5719</t>
   </si>
 </sst>
 </file>
@@ -307,12 +373,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,6 +389,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -342,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -360,16 +426,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -378,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -389,6 +452,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -685,25 +755,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:P39"/>
+  <dimension ref="A2:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="8" width="9.140625" style="3"/>
-    <col min="10" max="16" width="9.140625" style="3"/>
+    <col min="9" max="9" width="9.140625" style="10"/>
+    <col min="11" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="B2" s="3">
         <v>212</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3">
         <v>216</v>
@@ -718,697 +790,762 @@
         <v>223</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="I2" s="10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="3">
         <v>3500</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3">
         <v>3200</v>
       </c>
-      <c r="E3" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H3" s="3">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="G4" s="17">
+      <c r="E3" s="16">
+        <v>74317</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="E4" s="16">
+        <v>75717</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G4" s="16">
         <v>3500</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3500</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H5" s="3">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    <row r="5" spans="1:18">
+      <c r="E5" s="16">
+        <v>73723</v>
+      </c>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="B6" s="3">
         <v>3500</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3200</v>
+      </c>
       <c r="G6" s="3">
         <v>3300</v>
       </c>
       <c r="H6" s="3">
-        <v>5700</v>
-      </c>
-      <c r="J6" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="B7" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="I8" s="3"/>
+      <c r="K8" s="3">
         <v>212</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="L8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="3">
         <v>216</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N8" s="3">
         <v>221</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O8" s="3">
         <v>222</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P8" s="3">
         <v>223</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q8" s="3">
         <v>233</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8">
+      <c r="R8" s="10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
         <v>0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B10" s="7">
         <v>3500</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="C10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="6">
         <v>700</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G10" s="9">
         <v>3300</v>
       </c>
-      <c r="H8" s="10">
-        <v>5700</v>
-      </c>
-      <c r="I8">
+      <c r="H10" s="10"/>
+      <c r="J10">
         <v>30</v>
       </c>
-      <c r="J8" s="15">
+      <c r="K10" s="14">
         <v>3500</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="N8" s="14">
+      <c r="L10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="O10" s="13">
         <v>1600</v>
       </c>
-      <c r="O8" s="9">
+      <c r="P10" s="9">
         <v>3300</v>
       </c>
-      <c r="P8" s="10">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9">
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
         <v>1</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="11"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9">
-        <v>31</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="11"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10">
-        <v>32</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="11"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11">
-        <v>3</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="12">
-        <v>3200</v>
-      </c>
+      <c r="D11" s="10"/>
       <c r="F11" s="6"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11">
-        <v>33</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="12">
-        <v>3200</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="J11">
+        <v>31</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="10"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="10"/>
       <c r="F12" s="6"/>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12">
-        <v>34</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="12"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="J12">
+        <v>32</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="10"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11">
+        <v>3200</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="9"/>
-      <c r="I13">
-        <v>35</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="12"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="H13" s="10"/>
+      <c r="J13">
+        <v>33</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="11">
+        <v>3200</v>
+      </c>
+      <c r="O13" s="13"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="F14" s="6"/>
       <c r="G14" s="9"/>
-      <c r="I14">
-        <v>36</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="12"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="H14" s="10"/>
+      <c r="I14" s="17">
+        <v>5700</v>
+      </c>
+      <c r="J14">
+        <v>34</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="11"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="17">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="13">
-        <v>3100</v>
-      </c>
-      <c r="I15">
-        <v>37</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="12"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="13">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="I15" s="17"/>
+      <c r="J15">
+        <v>35</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="11"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="9"/>
+      <c r="R15" s="17"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="13"/>
-      <c r="I16">
+      <c r="I16" s="17"/>
+      <c r="J16">
+        <v>36</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="11"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="9"/>
+      <c r="R16" s="17"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="11"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="12">
+        <v>3100</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17">
+        <v>37</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="11"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="12">
+        <v>3100</v>
+      </c>
+      <c r="R17" s="17"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="11"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="17"/>
+      <c r="J18">
         <v>38</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="12"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17">
+      <c r="K18" s="10"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="11"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="17"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
         <v>9</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="12"/>
-      <c r="F17" s="6"/>
-      <c r="H17" s="13"/>
-      <c r="I17">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="11"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="17"/>
+      <c r="J19">
         <v>39</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="12"/>
-      <c r="N17" s="14"/>
-      <c r="P17" s="13"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18">
+      <c r="K19" s="10"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="11"/>
+      <c r="O19" s="13"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="17"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
         <v>10</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="12"/>
-      <c r="F18" s="6"/>
-      <c r="H18" s="13"/>
-      <c r="I18">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="11"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="17"/>
+      <c r="J20">
         <v>40</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="12"/>
-      <c r="N18" s="14"/>
-      <c r="P18" s="13"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19">
+      <c r="L20" s="8"/>
+      <c r="M20" s="11"/>
+      <c r="O20" s="13"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="17"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
         <v>11</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="12"/>
-      <c r="F19" s="6"/>
-      <c r="H19" s="13"/>
-      <c r="I19">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="11"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="17"/>
+      <c r="J21">
         <v>41</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="12"/>
-      <c r="N19" s="14"/>
-      <c r="P19" s="13"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20">
+      <c r="L21" s="8"/>
+      <c r="M21" s="11"/>
+      <c r="O21" s="13"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="17"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
         <v>12</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="12"/>
-      <c r="F20" s="6"/>
-      <c r="H20" s="13"/>
-      <c r="I20">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="11"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="17"/>
+      <c r="J22">
         <v>42</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="12"/>
-      <c r="N20" s="14"/>
-      <c r="P20" s="13"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21">
+      <c r="L22" s="8"/>
+      <c r="M22" s="11"/>
+      <c r="O22" s="13"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="17"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
         <v>13</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="12"/>
-      <c r="F21" s="6"/>
-      <c r="H21" s="13"/>
-      <c r="I21">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="17"/>
+      <c r="J23">
         <v>43</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="12"/>
-      <c r="N21" s="14"/>
-      <c r="P21" s="13"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22">
+      <c r="L23" s="8"/>
+      <c r="M23" s="11"/>
+      <c r="O23" s="10"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="17"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
         <v>14</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="17"/>
+      <c r="J24">
         <v>44</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="12"/>
-      <c r="P22" s="13"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23">
+      <c r="L24" s="8"/>
+      <c r="M24" s="11"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="17"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
         <v>15</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="12"/>
-      <c r="F23" s="14">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="17"/>
+      <c r="J25">
+        <v>45</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="11"/>
+      <c r="O25" s="10"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="17"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="17"/>
+      <c r="J26">
+        <v>46</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="11"/>
+      <c r="O26" s="10"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="17"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="17"/>
+      <c r="J27">
+        <v>47</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="11"/>
+      <c r="O27" s="10"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="17"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="11"/>
+      <c r="F28" s="13">
         <v>1600</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23">
-        <v>45</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="12"/>
-      <c r="N23" s="6">
+      <c r="H28" s="12"/>
+      <c r="I28" s="17"/>
+      <c r="J28">
+        <v>48</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="11"/>
+      <c r="O28" s="6">
         <v>700</v>
       </c>
-      <c r="P23" s="13"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24">
-        <v>16</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="12"/>
-      <c r="F24" s="14"/>
-      <c r="H24" s="13"/>
-      <c r="I24">
-        <v>46</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="12"/>
-      <c r="N24" s="6"/>
-      <c r="P24" s="13"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25">
-        <v>17</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="12"/>
-      <c r="F25" s="14"/>
-      <c r="H25" s="13"/>
-      <c r="I25">
-        <v>47</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="12"/>
-      <c r="N25" s="6"/>
-      <c r="P25" s="13"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26">
-        <v>18</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="12"/>
-      <c r="F26" s="14"/>
-      <c r="H26" s="13"/>
-      <c r="I26">
-        <v>48</v>
-      </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="12"/>
-      <c r="N26" s="6"/>
-      <c r="P26" s="13"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27">
+      <c r="Q28" s="12"/>
+      <c r="R28" s="17"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
         <v>19</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="12"/>
-      <c r="F27" s="14"/>
-      <c r="H27" s="13"/>
-      <c r="I27">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="11"/>
+      <c r="F29" s="13"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="17"/>
+      <c r="J29">
         <v>49</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="12"/>
-      <c r="N27" s="6"/>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28">
+      <c r="L29" s="8"/>
+      <c r="M29" s="11"/>
+      <c r="O29" s="6"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="17"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
         <v>20</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="12"/>
-      <c r="F28" s="14"/>
-      <c r="H28" s="13"/>
-      <c r="I28">
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="11"/>
+      <c r="F30" s="13"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="17"/>
+      <c r="J30">
         <v>50</v>
       </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="12"/>
-      <c r="N28" s="6"/>
-      <c r="P28" s="13"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29">
+      <c r="K30" s="10"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="11"/>
+      <c r="O30" s="6"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="17"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
         <v>21</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="12"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="9">
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="11"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="9">
         <v>3300</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29">
+      <c r="H31" s="12"/>
+      <c r="I31" s="17"/>
+      <c r="J31">
         <v>51</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="12"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="9">
+      <c r="K31" s="10"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="11"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="9">
         <v>3300</v>
       </c>
-      <c r="P29" s="13"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30">
+      <c r="Q31" s="12"/>
+      <c r="R31" s="17"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
         <v>22</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B32" s="14">
         <v>3500</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="12"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="13"/>
-      <c r="I30">
+      <c r="C32" s="8"/>
+      <c r="D32" s="11"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="17"/>
+      <c r="J32">
         <v>52</v>
       </c>
-      <c r="J30" s="15">
+      <c r="K32" s="14">
         <v>3500</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="12"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="13"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31">
+      <c r="L32" s="8"/>
+      <c r="M32" s="11"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="17"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
         <v>23</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="12"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="9"/>
-      <c r="I31">
+      <c r="B33" s="14"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="11"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="9"/>
+      <c r="I33" s="17"/>
+      <c r="J33">
         <v>53</v>
       </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="12"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="9"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32">
+      <c r="K33" s="14"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="11"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="9"/>
+      <c r="R33" s="17"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
         <v>24</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="12"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="9"/>
-      <c r="I32">
+      <c r="B34" s="14"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="11"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="9"/>
+      <c r="I34" s="17"/>
+      <c r="J34">
         <v>54</v>
       </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="12"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="9"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33">
+      <c r="K34" s="14"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="11"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="9"/>
+      <c r="R34" s="17"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
         <v>25</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="12"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10">
-        <v>5700</v>
-      </c>
-      <c r="I33">
-        <v>55</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="12"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="10">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34">
-        <v>26</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="12"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
-      <c r="I34">
-        <v>56</v>
-      </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="12"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35">
-        <v>27</v>
-      </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="12"/>
-      <c r="F35" s="14"/>
+      <c r="D35" s="11"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="9"/>
       <c r="H35" s="10"/>
-      <c r="I35">
-        <v>57</v>
-      </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="12"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="I35" s="17"/>
+      <c r="J35">
+        <v>55</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="11"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="17"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
-        <v>28</v>
-      </c>
-      <c r="B36" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="B36" s="14"/>
       <c r="C36" s="8"/>
-      <c r="F36" s="14"/>
+      <c r="D36" s="11"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="9"/>
       <c r="H36" s="10"/>
-      <c r="I36">
-        <v>58</v>
-      </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="11"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="I36" s="17"/>
+      <c r="J36">
+        <v>56</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="11"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="17"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
-        <v>29</v>
-      </c>
-      <c r="B37" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="B37" s="14"/>
       <c r="C37" s="8"/>
-      <c r="F37" s="14"/>
+      <c r="D37" s="11"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="9"/>
       <c r="H37" s="10"/>
-      <c r="I37">
+      <c r="I37" s="17"/>
+      <c r="J37">
+        <v>57</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="11"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="17"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>28</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="8"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
+      <c r="J38">
+        <v>58</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="10"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>29</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="8"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="10"/>
+      <c r="J39">
         <v>59</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="11"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="10"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="J38" s="11"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="L39" s="11"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="10"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="K40" s="10"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="M41" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1910,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A4:AA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1921,29 +2058,14 @@
     <col min="2" max="27" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="B2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="4" spans="1:10">
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2055,7 +2177,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="4">
         <v>0.30277777777777776</v>
@@ -2101,42 +2223,42 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2155,7 +2277,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -2273,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2618,12 +2740,12 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:17">
       <c r="B20" s="3">
         <v>3175</v>
       </c>
@@ -2643,47 +2765,23 @@
         <v>3170</v>
       </c>
       <c r="I20" s="3">
-        <v>3575</v>
+        <v>3587</v>
       </c>
       <c r="J20" s="3">
-        <v>3568</v>
+        <v>3580</v>
       </c>
       <c r="K20" s="3">
-        <v>3577</v>
+        <v>3589</v>
       </c>
       <c r="L20" s="3">
-        <v>3570</v>
+        <v>3582</v>
       </c>
       <c r="M20" s="3">
-        <v>3579</v>
-      </c>
-      <c r="N20" s="3">
-        <v>3572</v>
-      </c>
-      <c r="O20" s="3">
-        <v>3581</v>
-      </c>
-      <c r="P20" s="3">
-        <v>3574</v>
+        <v>3584</v>
       </c>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3">
-        <v>3587</v>
-      </c>
-      <c r="S20" s="3">
-        <v>3580</v>
-      </c>
-      <c r="T20" s="3">
-        <v>3589</v>
-      </c>
-      <c r="U20" s="3">
-        <v>3582</v>
-      </c>
-      <c r="V20" s="3">
-        <v>3584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+    </row>
+    <row r="21" spans="1:17">
       <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
@@ -2715,35 +2813,11 @@
         <v>28</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2768,36 +2842,21 @@
       <c r="I22" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="J22" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="K22" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="L22" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="M22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2822,45 +2881,22 @@
       <c r="I23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="4">
-        <v>0.78263888888888899</v>
+      <c r="J23" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="4">
-        <v>0.80347222222222225</v>
+      <c r="L23" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N23" s="4">
-        <v>0.82430555555555562</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="N23" s="4"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2883,49 +2919,26 @@
         <v>0.87430555555555556</v>
       </c>
       <c r="I24" s="4">
-        <v>0.84375</v>
+        <v>0.96875</v>
       </c>
       <c r="J24" s="4">
-        <v>0.84305555555555556</v>
+        <v>0.96805555555555556</v>
       </c>
       <c r="K24" s="4">
-        <v>0.86458333333333337</v>
+        <v>0.98958333333333337</v>
       </c>
       <c r="L24" s="4">
-        <v>0.86388888888888893</v>
+        <v>0.98888888888888893</v>
       </c>
       <c r="M24" s="4">
-        <v>0.88541666666666663</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0.8847222222222223</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0.90625</v>
-      </c>
-      <c r="P24" s="4">
-        <v>0.90555555555555556</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24" s="4">
-        <v>0.96875</v>
-      </c>
-      <c r="S24" s="4">
-        <v>0.96805555555555556</v>
-      </c>
-      <c r="T24" s="4">
-        <v>0.98958333333333337</v>
-      </c>
-      <c r="U24" s="4">
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="V24" s="4">
         <v>9.7222222222222224E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
@@ -2957,35 +2970,11 @@
         <v>31</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+    </row>
+    <row r="26" spans="1:17">
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -3017,35 +3006,11 @@
         <v>28</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3068,82 +3033,74 @@
         <v>0.87986111111111109</v>
       </c>
       <c r="I27" s="4">
-        <v>0.83819444444444446</v>
+        <v>0.96319444444444446</v>
       </c>
       <c r="J27" s="4">
-        <v>0.84861111111111109</v>
+        <v>0.97361111111111109</v>
       </c>
       <c r="K27" s="4">
-        <v>0.85902777777777783</v>
+        <v>0.98402777777777783</v>
       </c>
       <c r="L27" s="4">
-        <v>0.86944444444444446</v>
+        <v>0.99444444444444446</v>
       </c>
       <c r="M27" s="4">
-        <v>0.87986111111111109</v>
-      </c>
-      <c r="N27" s="4">
-        <v>0.89027777777777783</v>
-      </c>
-      <c r="O27" s="4">
-        <v>0.90069444444444446</v>
-      </c>
-      <c r="P27" s="4">
-        <v>0.91111111111111109</v>
-      </c>
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="4">
-        <v>0.96319444444444446</v>
-      </c>
-      <c r="S27" s="4">
-        <v>0.97361111111111109</v>
-      </c>
-      <c r="T27" s="4">
-        <v>0.98402777777777783</v>
-      </c>
-      <c r="U27" s="4">
-        <v>0.99444444444444446</v>
-      </c>
-      <c r="V27" s="4">
-        <v>1.5277777777777777E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+    </row>
+    <row r="28" spans="1:17">
       <c r="G28" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="Q28" s="3"/>
-      <c r="U28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+    </row>
+    <row r="29" spans="1:17">
       <c r="B29" s="5"/>
       <c r="D29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="I29"/>
+      <c r="J29" s="5"/>
+      <c r="K29"/>
+      <c r="L29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="Q29" s="3"/>
-      <c r="S29" s="5"/>
-      <c r="U29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+    </row>
+    <row r="30" spans="1:17">
+      <c r="G30" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:17">
+      <c r="G31" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="G32" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3154,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AL45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3163,17 +3120,17 @@
     <col min="2" max="13" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="B3" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="B4" s="3">
         <v>3317</v>
       </c>
@@ -3202,7 +3159,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
@@ -3231,7 +3188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3240,7 +3197,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3275,7 +3232,7 @@
         <v>0.97430555555555554</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -3307,7 +3264,7 @@
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
@@ -3336,7 +3293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
@@ -3365,7 +3322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -3397,9 +3354,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:28">
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>50</v>
@@ -3408,133 +3365,140 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="B13" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="D15" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="18"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
         <v>5712</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="10">
         <v>5714</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="10">
         <v>5716</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="10">
         <v>5718</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="10">
         <v>5720</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="10">
         <v>5722</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="10">
         <v>5724</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="10">
         <v>5726</v>
       </c>
-      <c r="L15" s="3">
-        <v>5728</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="M15" s="10"/>
+      <c r="N15" s="10">
+        <v>5746</v>
+      </c>
+      <c r="O15" s="10">
         <v>5748</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="10">
         <v>5750</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="10">
         <v>5752</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="10">
         <v>5754</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="10">
         <v>5756</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="10">
         <v>5758</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="10">
         <v>5760</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="10">
         <v>5762</v>
-      </c>
-      <c r="V15" s="3">
-        <v>5764</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3">
+        <v>5778</v>
+      </c>
+      <c r="Y15" s="3">
         <v>5780</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>5782</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>5784</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>5786</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V16" s="3" t="s">
+    <row r="16" spans="1:28">
+      <c r="A16" s="18"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="10" t="s">
         <v>28</v>
       </c>
       <c r="W16" s="3"/>
@@ -3550,209 +3514,219 @@
       <c r="AA16" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="AB16" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" t="s">
+      <c r="A17" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="4">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="19">
         <v>0.26319444444444445</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="19">
         <v>0.28402777777777777</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="19">
         <v>0.30486111111111108</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="19">
         <v>0.32569444444444445</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="19">
         <v>0.34652777777777799</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="19">
         <v>0.36736111111111103</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="19">
         <v>0.38819444444444401</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="19">
         <v>0.40902777777777777</v>
       </c>
-      <c r="L17" s="4">
-        <v>0.42986111111111203</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4">
+      <c r="M17" s="19"/>
+      <c r="N17" s="19">
+        <v>0.61736111111111502</v>
+      </c>
+      <c r="O17" s="19">
         <v>0.63819444444444895</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="19">
         <v>0.65902777777778299</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="19">
         <v>0.67986111111111702</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="19">
         <v>0.7006944444444444</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="19">
         <v>0.72152777777777199</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="19">
         <v>0.74236111111109904</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="19">
         <v>0.76319444444444595</v>
       </c>
-      <c r="U17" s="4">
+      <c r="V17" s="19">
         <v>0.78402777777777899</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0.80486111111111203</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4">
+        <v>0.95069444444444295</v>
+      </c>
+      <c r="Y17" s="4">
         <v>0.97152777777777599</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Z17" s="4">
         <v>0.99236111111110903</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AA17" s="4">
         <v>1.0131944444444401</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AB17" s="4">
         <v>1.03402777777777</v>
       </c>
     </row>
     <row r="18" spans="1:38">
-      <c r="A18" t="s">
+      <c r="A18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="4">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.28958333333333336</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="19">
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="G18" s="19">
         <v>0.31041666666666667</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="19">
         <v>0.33124999999999999</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="19">
         <v>0.35208333333333303</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="19">
         <v>0.37291666666666701</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="19">
         <v>0.39097222222222222</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="19">
         <v>0.41180555555555554</v>
       </c>
-      <c r="L18" s="4">
-        <v>0.43263888888888902</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4">
+      <c r="M18" s="19"/>
+      <c r="N18" s="19">
+        <v>0.62013888888888902</v>
+      </c>
+      <c r="O18" s="19">
         <v>0.64097222222222205</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="19">
         <v>0.66180555555555498</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="19">
         <v>0.68541666666666667</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="19">
         <v>0.70624999999999993</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="19">
         <v>0.72708333333333297</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="19">
         <v>0.74791666666666601</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="19">
         <v>0.76597222222221895</v>
       </c>
-      <c r="U18" s="4">
+      <c r="V18" s="19">
         <v>0.78680555555555198</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0.80763888888888502</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4">
+        <v>0.95347222222221595</v>
+      </c>
+      <c r="Y18" s="4">
         <v>0.97430555555554899</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Z18" s="4">
         <v>0.99513888888888202</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="AA18" s="4">
         <v>1.0159722222222101</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AB18" s="4">
         <v>1.03680555555555</v>
       </c>
     </row>
     <row r="19" spans="1:38">
-      <c r="A19" t="s">
+      <c r="A19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="19">
         <v>0.32222222222222224</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="19">
         <v>0.3430555555555555</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="19">
         <v>0.36388888888888898</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="19">
         <v>0.38472222222222202</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="4">
+      <c r="K19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="19">
         <v>0.6972222222222223</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="19">
         <v>0.71805555555555556</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="19">
         <v>0.73888888888888904</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="19">
         <v>0.75972222222222197</v>
       </c>
-      <c r="T19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V19" s="3" t="s">
+      <c r="U19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="10" t="s">
         <v>31</v>
       </c>
       <c r="W19" s="3"/>
@@ -3768,40 +3742,51 @@
       <c r="AA19" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="AB19" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:38">
-      <c r="D20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" s="3" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" s="10" t="s">
         <v>28</v>
       </c>
       <c r="W20" s="3"/>
@@ -3817,132 +3802,129 @@
       <c r="AA20" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="AB20" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" t="s">
+      <c r="A21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="4">
-        <v>0.27013888888888887</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.29097222222222224</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4">
-        <v>0.39513888888888898</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.41597222222222302</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0.436805555555556</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4">
-        <v>0.64513888888889004</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0.66597222222222296</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4">
-        <v>0.77013888888889004</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0.79097222222222296</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0.811805555555557</v>
+      <c r="D21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0.27361111111111108</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19">
+        <v>0.62777777777777799</v>
+      </c>
+      <c r="O21" s="19">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="P21" s="19">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19">
+        <v>0.77361111111111114</v>
+      </c>
+      <c r="V21" s="19">
+        <v>0.7944444444444444</v>
       </c>
       <c r="W21" s="4" t="s">
         <v>32</v>
       </c>
       <c r="X21" s="4">
-        <v>0.97847222222222396</v>
+        <v>1.9611111111111099</v>
       </c>
       <c r="Y21" s="4">
-        <v>0.999305555555557</v>
+        <v>0.9819444444444444</v>
       </c>
       <c r="Z21" s="4">
-        <v>1.02013888888889</v>
+        <v>0.99861111111111101</v>
       </c>
       <c r="AA21" s="4">
-        <v>1.04097222222222</v>
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>4.027777777777778E-2</v>
       </c>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" t="s">
+      <c r="A22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4">
+      <c r="B22" s="10"/>
+      <c r="C22" s="19">
         <v>0.24652777777777779</v>
       </c>
-      <c r="D22" s="4">
-        <v>0.27361111111111108</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.29444444444444445</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.41944444444444445</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0.44027777777777777</v>
-      </c>
-      <c r="M22" s="4" t="s">
+      <c r="D22" s="19">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="19">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="L22" s="19">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="M22" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="4">
-        <v>0.64861111111111003</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0.66944444444444495</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0.69027777777777699</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="U22" s="4">
-        <v>0.7944444444444444</v>
-      </c>
-      <c r="V22" s="4">
-        <v>0.81527777777777777</v>
+      <c r="N22" s="19">
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="O22" s="19">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="P22" s="19">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="V22" s="19">
+        <v>0.81041666666666667</v>
       </c>
       <c r="W22" s="4"/>
       <c r="X22" s="4">
-        <v>0.98194444444444395</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="Y22" s="4">
-        <v>1.00277777777778</v>
+        <v>0.99791666666666667</v>
       </c>
       <c r="Z22" s="4" t="s">
         <v>50</v>
@@ -3950,36 +3932,51 @@
       <c r="AA22" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="AB22" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:38">
-      <c r="C23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V23" s="3" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" s="10" t="s">
         <v>31</v>
       </c>
       <c r="W23" s="3"/>
@@ -3992,67 +3989,68 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" t="s">
+      <c r="A24" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="19">
         <v>0.22222222222222221</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="C24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="19">
         <v>0.30277777777777776</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="19">
         <v>0.32361111111111113</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="19">
         <v>0.344444444444444</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="19">
         <v>0.36527777777777798</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="19">
         <v>0.38611111111111202</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="4">
+      <c r="K24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="19">
         <v>0.69861111111111107</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="19">
         <v>0.71944444444444444</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="19">
         <v>0.74027777777777803</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="19">
         <v>0.76111111111111096</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V24" s="3" t="s">
+      <c r="U24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V24" s="10" t="s">
         <v>28</v>
       </c>
       <c r="W24" s="3"/>
@@ -4065,68 +4063,68 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" t="s">
+      <c r="A25" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="19">
         <v>0.23402777777777781</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="19">
         <v>0.25416666666666665</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="19">
         <v>0.27499999999999997</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="19">
         <v>0.295833333333333</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="19">
         <v>0.31666666666666665</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="19">
         <v>0.33749999999999997</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="19">
         <v>0.358333333333333</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="19">
         <v>0.37916666666666698</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="19">
         <v>0.40000000000000102</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="19">
         <v>0.420833333333335</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="19">
         <v>0.44166666666666898</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4">
+      <c r="M25" s="19"/>
+      <c r="N25" s="19">
         <v>0.65000000000000902</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="19">
         <v>0.67083333333334305</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="19">
         <v>0.69166666666667698</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="19">
         <v>0.71250000000001101</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="19">
         <v>0.73333333333334505</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="19">
         <v>0.75416666666667898</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="19">
         <v>0.77500000000001301</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="19">
         <v>0.79583333333334705</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25" s="19">
         <v>0.81666666666666676</v>
       </c>
       <c r="W25" s="4"/>
@@ -4139,68 +4137,68 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" t="s">
+      <c r="A26" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="19">
         <v>0.23680555555555557</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="19">
         <v>0.25694444444444448</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="19">
         <v>0.27777777777777779</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="19">
         <v>0.29861111111111099</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="19">
         <v>0.31944444444444448</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="19">
         <v>0.34027777777777801</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="19">
         <v>0.36111111111111099</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="19">
         <v>0.38194444444444497</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="19">
         <v>0.40277777777777801</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="19">
         <v>0.42361111111111199</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="19">
         <v>0.44444444444444497</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4">
+      <c r="M26" s="19"/>
+      <c r="N26" s="19">
         <v>0.65277777777778001</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="19">
         <v>0.67361111111111405</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="19">
         <v>0.69444444444444697</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="19">
         <v>0.71527777777778101</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="19">
         <v>0.73611111111111405</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="19">
         <v>0.75694444444444797</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="19">
         <v>0.77777777777778101</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26" s="19">
         <v>0.79861111111111505</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V26" s="19">
         <v>0.81944444444444797</v>
       </c>
       <c r="W26" s="4"/>
@@ -4213,64 +4211,66 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="1:38">
-      <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V27" s="3" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V27" s="10" t="s">
         <v>28</v>
       </c>
       <c r="W27" s="3"/>
@@ -4283,64 +4283,66 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:38">
-      <c r="B28" s="3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="10">
         <v>5715</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="10">
         <v>5717</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="10">
         <v>5719</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="10">
         <v>5721</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="10">
         <v>5723</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="10">
         <v>5725</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="10">
         <v>5727</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="10">
         <v>5729</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="10">
         <v>5731</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="10">
         <v>5733</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="10">
         <v>5735</v>
       </c>
-      <c r="N28" s="3">
+      <c r="M28" s="10"/>
+      <c r="N28" s="10">
         <v>5755</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="10">
         <v>5757</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="10">
         <v>5759</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="10">
         <v>5761</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="10">
         <v>5763</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="10">
         <v>5765</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="10">
         <v>5767</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28" s="10">
         <v>5769</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V28" s="10">
         <v>5771</v>
       </c>
       <c r="W28" s="3"/>
@@ -4351,6 +4353,78 @@
         <v>5789</v>
       </c>
       <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:38">
+      <c r="A29" s="18"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+    </row>
+    <row r="30" spans="1:38">
+      <c r="A30" s="18"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+    </row>
+    <row r="31" spans="1:38">
+      <c r="A31" s="18"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
     </row>
     <row r="32" spans="1:38">
       <c r="D32" s="3">
@@ -5090,18 +5164,1908 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AK33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="36" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="B3" s="3">
+        <v>719</v>
+      </c>
+      <c r="C3" s="3">
+        <v>723</v>
+      </c>
+      <c r="D3" s="3">
+        <v>716</v>
+      </c>
+      <c r="E3" s="3">
+        <v>727</v>
+      </c>
+      <c r="F3" s="3">
+        <v>720</v>
+      </c>
+      <c r="G3" s="3">
+        <f>E3+4</f>
+        <v>731</v>
+      </c>
+      <c r="H3" s="3">
+        <f>F3+4</f>
+        <v>724</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:L3" si="0">G3+4</f>
+        <v>735</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>728</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>739</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>732</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3" si="1">K3+4</f>
+        <v>743</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3" si="2">L3+4</f>
+        <v>736</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3" si="3">M3+4</f>
+        <v>747</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3" si="4">N3+4</f>
+        <v>740</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3" si="5">O3+4</f>
+        <v>751</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" ref="R3" si="6">P3+4</f>
+        <v>744</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" ref="S3" si="7">Q3+4</f>
+        <v>755</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3" si="8">R3+4</f>
+        <v>748</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3" si="9">S3+4</f>
+        <v>759</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" ref="V3" si="10">T3+4</f>
+        <v>752</v>
+      </c>
+      <c r="W3" s="3">
+        <f t="shared" ref="W3" si="11">U3+4</f>
+        <v>763</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" ref="X3" si="12">V3+4</f>
+        <v>756</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" ref="Y3" si="13">W3+4</f>
+        <v>767</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3" si="14">X3+4</f>
+        <v>760</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" ref="AA3" si="15">Y3+4</f>
+        <v>771</v>
+      </c>
+      <c r="AB3" s="3">
+        <f t="shared" ref="AB3" si="16">Z3+4</f>
+        <v>764</v>
+      </c>
+      <c r="AC3" s="3">
+        <f t="shared" ref="AC3" si="17">AA3+4</f>
+        <v>775</v>
+      </c>
+      <c r="AD3" s="3">
+        <f t="shared" ref="AD3" si="18">AB3+4</f>
+        <v>768</v>
+      </c>
+      <c r="AE3" s="3">
+        <f t="shared" ref="AE3" si="19">AC3+4</f>
+        <v>779</v>
+      </c>
+      <c r="AF3" s="3">
+        <f t="shared" ref="AF3:AG3" si="20">AD3+4</f>
+        <v>772</v>
+      </c>
+      <c r="AG3" s="3">
+        <f t="shared" si="20"/>
+        <v>783</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>776</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>787</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>780</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f>C4</f>
+        <v>^</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f>D4</f>
+        <v>v</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ref="I4:L4" si="21">E4</f>
+        <v>^</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>v</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>^</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>v</v>
+      </c>
+      <c r="M4" s="3" t="str">
+        <f t="shared" ref="M4" si="22">I4</f>
+        <v>^</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <f t="shared" ref="N4" si="23">J4</f>
+        <v>v</v>
+      </c>
+      <c r="O4" s="3" t="str">
+        <f t="shared" ref="O4" si="24">K4</f>
+        <v>^</v>
+      </c>
+      <c r="P4" s="3" t="str">
+        <f t="shared" ref="P4" si="25">L4</f>
+        <v>v</v>
+      </c>
+      <c r="Q4" s="3" t="str">
+        <f t="shared" ref="Q4" si="26">M4</f>
+        <v>^</v>
+      </c>
+      <c r="R4" s="3" t="str">
+        <f t="shared" ref="R4" si="27">N4</f>
+        <v>v</v>
+      </c>
+      <c r="S4" s="3" t="str">
+        <f t="shared" ref="S4" si="28">O4</f>
+        <v>^</v>
+      </c>
+      <c r="T4" s="3" t="str">
+        <f t="shared" ref="T4" si="29">P4</f>
+        <v>v</v>
+      </c>
+      <c r="U4" s="3" t="str">
+        <f t="shared" ref="U4" si="30">Q4</f>
+        <v>^</v>
+      </c>
+      <c r="V4" s="3" t="str">
+        <f t="shared" ref="V4" si="31">R4</f>
+        <v>v</v>
+      </c>
+      <c r="W4" s="3" t="str">
+        <f t="shared" ref="W4" si="32">S4</f>
+        <v>^</v>
+      </c>
+      <c r="X4" s="3" t="str">
+        <f t="shared" ref="X4" si="33">T4</f>
+        <v>v</v>
+      </c>
+      <c r="Y4" s="3" t="str">
+        <f t="shared" ref="Y4" si="34">U4</f>
+        <v>^</v>
+      </c>
+      <c r="Z4" s="3" t="str">
+        <f t="shared" ref="Z4" si="35">V4</f>
+        <v>v</v>
+      </c>
+      <c r="AA4" s="3" t="str">
+        <f t="shared" ref="AA4" si="36">W4</f>
+        <v>^</v>
+      </c>
+      <c r="AB4" s="3" t="str">
+        <f t="shared" ref="AB4" si="37">X4</f>
+        <v>v</v>
+      </c>
+      <c r="AC4" s="3" t="str">
+        <f t="shared" ref="AC4" si="38">Y4</f>
+        <v>^</v>
+      </c>
+      <c r="AD4" s="3" t="str">
+        <f t="shared" ref="AD4" si="39">Z4</f>
+        <v>v</v>
+      </c>
+      <c r="AE4" s="3" t="str">
+        <f t="shared" ref="AE4" si="40">AA4</f>
+        <v>^</v>
+      </c>
+      <c r="AF4" s="3" t="str">
+        <f t="shared" ref="AF4:AG4" si="41">AB4</f>
+        <v>v</v>
+      </c>
+      <c r="AG4" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>^</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:H8" si="42">E5+TIME(1,0,0)</f>
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="42"/>
+        <v>0.39861111111111114</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:L8" si="43">G5+TIME(1,0,0)</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="43"/>
+        <v>0.44027777777777782</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="43"/>
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="43"/>
+        <v>0.48194444444444451</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" ref="M5:M8" si="44">K5+TIME(1,0,0)</f>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" ref="N5:N8" si="45">L5+TIME(1,0,0)</f>
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" ref="O5:O8" si="46">M5+TIME(1,0,0)</f>
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" ref="P5:P8" si="47">N5+TIME(1,0,0)</f>
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" ref="Q5:Q8" si="48">O5+TIME(1,0,0)</f>
+        <v>0.6</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" ref="R5:R8" si="49">P5+TIME(1,0,0)</f>
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" ref="S5:S8" si="50">Q5+TIME(1,0,0)</f>
+        <v>0.64166666666666661</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" ref="T5:T8" si="51">R5+TIME(1,0,0)</f>
+        <v>0.64861111111111103</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" ref="U5:U8" si="52">S5+TIME(1,0,0)</f>
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" ref="V5:V8" si="53">T5+TIME(1,0,0)</f>
+        <v>0.69027777777777766</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" ref="W5:W8" si="54">U5+TIME(1,0,0)</f>
+        <v>0.72499999999999987</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" ref="X5:X8" si="55">V5+TIME(1,0,0)</f>
+        <v>0.73194444444444429</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" ref="Y5:Y8" si="56">W5+TIME(1,0,0)</f>
+        <v>0.7666666666666665</v>
+      </c>
+      <c r="Z5" s="4">
+        <f t="shared" ref="Z5:Z8" si="57">X5+TIME(1,0,0)</f>
+        <v>0.77361111111111092</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" ref="AA5:AA8" si="58">Y5+TIME(1,0,0)</f>
+        <v>0.80833333333333313</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" ref="AB5:AB8" si="59">Z5+TIME(1,0,0)</f>
+        <v>0.81527777777777755</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" ref="AC5:AC8" si="60">AA5+TIME(1,0,0)</f>
+        <v>0.84999999999999976</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" ref="AD5:AD8" si="61">AB5+TIME(1,0,0)</f>
+        <v>0.85694444444444418</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" ref="AE5:AE8" si="62">AC5+TIME(1,0,0)</f>
+        <v>0.89166666666666639</v>
+      </c>
+      <c r="AF5" s="4">
+        <f t="shared" ref="AF5:AG8" si="63">AD5+TIME(1,0,0)</f>
+        <v>0.89861111111111081</v>
+      </c>
+      <c r="AG5" s="4">
+        <f t="shared" si="63"/>
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>1.9395833333333301</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>0.9819444444444444</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>2.4305555555555556E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="42"/>
+        <v>0.38888888888888895</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="42"/>
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="43"/>
+        <v>0.43055555555555564</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="43"/>
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="43"/>
+        <v>0.47222222222222232</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="43"/>
+        <v>0.48541666666666672</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="44"/>
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="45"/>
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="46"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="47"/>
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" si="48"/>
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="49"/>
+        <v>0.61041666666666661</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="50"/>
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="51"/>
+        <v>0.65208333333333324</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="52"/>
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="53"/>
+        <v>0.69374999999999987</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="54"/>
+        <v>0.7222222222222221</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="55"/>
+        <v>0.7354166666666665</v>
+      </c>
+      <c r="Y6" s="4">
+        <f t="shared" si="56"/>
+        <v>0.76388888888888873</v>
+      </c>
+      <c r="Z6" s="4">
+        <f t="shared" si="57"/>
+        <v>0.77708333333333313</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" si="58"/>
+        <v>0.80555555555555536</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" si="59"/>
+        <v>0.81874999999999976</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" si="60"/>
+        <v>0.84722222222222199</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" si="61"/>
+        <v>0.86041666666666639</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" si="62"/>
+        <v>0.88888888888888862</v>
+      </c>
+      <c r="AF6" s="4">
+        <f t="shared" si="63"/>
+        <v>0.90208333333333302</v>
+      </c>
+      <c r="AG6" s="4">
+        <f t="shared" si="63"/>
+        <v>0.93055555555555525</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>1.9437500000000001</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>0.98541666666666661</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>2.7083333333333334E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.26319444444444445</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.34652777777777799</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="42"/>
+        <v>0.38819444444444468</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="42"/>
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="43"/>
+        <v>0.42986111111111136</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="43"/>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="43"/>
+        <v>0.47152777777777805</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="43"/>
+        <v>0.48611111111111116</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="44"/>
+        <v>0.51319444444444473</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="45"/>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="46"/>
+        <v>0.55486111111111136</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="47"/>
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="48"/>
+        <v>0.59652777777777799</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="49"/>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="50"/>
+        <v>0.63819444444444462</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="51"/>
+        <v>0.65277777777777768</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="52"/>
+        <v>0.67986111111111125</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="53"/>
+        <v>0.69444444444444431</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="54"/>
+        <v>0.72152777777777788</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="55"/>
+        <v>0.73611111111111094</v>
+      </c>
+      <c r="Y7" s="4">
+        <f t="shared" si="56"/>
+        <v>0.76319444444444451</v>
+      </c>
+      <c r="Z7" s="4">
+        <f t="shared" si="57"/>
+        <v>0.77777777777777757</v>
+      </c>
+      <c r="AA7" s="4">
+        <f t="shared" si="58"/>
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="shared" si="59"/>
+        <v>0.8194444444444442</v>
+      </c>
+      <c r="AC7" s="4">
+        <f t="shared" si="60"/>
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" si="61"/>
+        <v>0.86111111111111083</v>
+      </c>
+      <c r="AE7" s="4">
+        <f t="shared" si="62"/>
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="AF7" s="4">
+        <f t="shared" si="63"/>
+        <v>0.90277777777777746</v>
+      </c>
+      <c r="AG7" s="4">
+        <f t="shared" si="63"/>
+        <v>0.92986111111111103</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>1.9451388888888901</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>0.9868055555555556</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>2.8472222222222222E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.34166666666666701</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="42"/>
+        <v>0.38333333333333369</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="42"/>
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="43"/>
+        <v>0.42500000000000038</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="43"/>
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="43"/>
+        <v>0.46666666666666706</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="43"/>
+        <v>0.49166666666666675</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="44"/>
+        <v>0.50833333333333375</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="45"/>
+        <v>0.53333333333333344</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="46"/>
+        <v>0.55000000000000038</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="47"/>
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="Q8" s="4">
+        <f t="shared" si="48"/>
+        <v>0.59166666666666701</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="49"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="50"/>
+        <v>0.63333333333333364</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="51"/>
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="52"/>
+        <v>0.67500000000000027</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="53"/>
+        <v>0.7</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="54"/>
+        <v>0.7166666666666669</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="55"/>
+        <v>0.74166666666666659</v>
+      </c>
+      <c r="Y8" s="4">
+        <f t="shared" si="56"/>
+        <v>0.75833333333333353</v>
+      </c>
+      <c r="Z8" s="4">
+        <f t="shared" si="57"/>
+        <v>0.78333333333333321</v>
+      </c>
+      <c r="AA8" s="4">
+        <f t="shared" si="58"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="AB8" s="4">
+        <f t="shared" si="59"/>
+        <v>0.82499999999999984</v>
+      </c>
+      <c r="AC8" s="4">
+        <f t="shared" si="60"/>
+        <v>0.84166666666666679</v>
+      </c>
+      <c r="AD8" s="4">
+        <f t="shared" si="61"/>
+        <v>0.86666666666666647</v>
+      </c>
+      <c r="AE8" s="4">
+        <f t="shared" si="62"/>
+        <v>0.88333333333333341</v>
+      </c>
+      <c r="AF8" s="4">
+        <f t="shared" si="63"/>
+        <v>0.9083333333333331</v>
+      </c>
+      <c r="AG8" s="4">
+        <f t="shared" si="63"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f>C9</f>
+        <v>^</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f>D9</f>
+        <v>v</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" ref="I9:L9" si="64">E9</f>
+        <v>^</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="64"/>
+        <v>v</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f t="shared" si="64"/>
+        <v>^</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <f t="shared" si="64"/>
+        <v>v</v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <f t="shared" ref="M9" si="65">I9</f>
+        <v>^</v>
+      </c>
+      <c r="N9" s="3" t="str">
+        <f t="shared" ref="N9" si="66">J9</f>
+        <v>v</v>
+      </c>
+      <c r="O9" s="3" t="str">
+        <f t="shared" ref="O9" si="67">K9</f>
+        <v>^</v>
+      </c>
+      <c r="P9" s="3" t="str">
+        <f t="shared" ref="P9" si="68">L9</f>
+        <v>v</v>
+      </c>
+      <c r="Q9" s="3" t="str">
+        <f t="shared" ref="Q9" si="69">M9</f>
+        <v>^</v>
+      </c>
+      <c r="R9" s="3" t="str">
+        <f t="shared" ref="R9" si="70">N9</f>
+        <v>v</v>
+      </c>
+      <c r="S9" s="3" t="str">
+        <f t="shared" ref="S9" si="71">O9</f>
+        <v>^</v>
+      </c>
+      <c r="T9" s="3" t="str">
+        <f t="shared" ref="T9" si="72">P9</f>
+        <v>v</v>
+      </c>
+      <c r="U9" s="3" t="str">
+        <f t="shared" ref="U9" si="73">Q9</f>
+        <v>^</v>
+      </c>
+      <c r="V9" s="3" t="str">
+        <f t="shared" ref="V9" si="74">R9</f>
+        <v>v</v>
+      </c>
+      <c r="W9" s="3" t="str">
+        <f t="shared" ref="W9" si="75">S9</f>
+        <v>^</v>
+      </c>
+      <c r="X9" s="3" t="str">
+        <f t="shared" ref="X9" si="76">T9</f>
+        <v>v</v>
+      </c>
+      <c r="Y9" s="3" t="str">
+        <f t="shared" ref="Y9" si="77">U9</f>
+        <v>^</v>
+      </c>
+      <c r="Z9" s="3" t="str">
+        <f t="shared" ref="Z9" si="78">V9</f>
+        <v>v</v>
+      </c>
+      <c r="AA9" s="3" t="str">
+        <f t="shared" ref="AA9" si="79">W9</f>
+        <v>^</v>
+      </c>
+      <c r="AB9" s="3" t="str">
+        <f t="shared" ref="AB9" si="80">X9</f>
+        <v>v</v>
+      </c>
+      <c r="AC9" s="3" t="str">
+        <f t="shared" ref="AC9" si="81">Y9</f>
+        <v>^</v>
+      </c>
+      <c r="AD9" s="3" t="str">
+        <f t="shared" ref="AD9" si="82">Z9</f>
+        <v>v</v>
+      </c>
+      <c r="AE9" s="3" t="str">
+        <f t="shared" ref="AE9" si="83">AA9</f>
+        <v>^</v>
+      </c>
+      <c r="AF9" s="3" t="str">
+        <f t="shared" ref="AF9:AG9" si="84">AB9</f>
+        <v>v</v>
+      </c>
+      <c r="AG9" s="3" t="str">
+        <f t="shared" si="84"/>
+        <v>^</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="B10" s="3">
+        <v>70719</v>
+      </c>
+      <c r="C10" s="3">
+        <v>70723</v>
+      </c>
+      <c r="D10" s="3">
+        <v>70716</v>
+      </c>
+      <c r="E10" s="3">
+        <v>70727</v>
+      </c>
+      <c r="F10" s="3">
+        <v>70720</v>
+      </c>
+      <c r="G10" s="3">
+        <f>E10+4</f>
+        <v>70731</v>
+      </c>
+      <c r="H10" s="3">
+        <f>F10+4</f>
+        <v>70724</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" ref="I10:L10" si="85">G10+4</f>
+        <v>70735</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="85"/>
+        <v>70728</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="85"/>
+        <v>70739</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="85"/>
+        <v>70732</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" ref="M10" si="86">K10+4</f>
+        <v>70743</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" ref="N10" si="87">L10+4</f>
+        <v>70736</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" ref="O10" si="88">M10+4</f>
+        <v>70747</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" ref="P10" si="89">N10+4</f>
+        <v>70740</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" ref="Q10" si="90">O10+4</f>
+        <v>70751</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" ref="R10" si="91">P10+4</f>
+        <v>70744</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" ref="S10" si="92">Q10+4</f>
+        <v>70755</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" ref="T10" si="93">R10+4</f>
+        <v>70748</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" ref="U10" si="94">S10+4</f>
+        <v>70759</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" ref="V10" si="95">T10+4</f>
+        <v>70752</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" ref="W10" si="96">U10+4</f>
+        <v>70763</v>
+      </c>
+      <c r="X10" s="3">
+        <f t="shared" ref="X10" si="97">V10+4</f>
+        <v>70756</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" ref="Y10" si="98">W10+4</f>
+        <v>70767</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" ref="Z10" si="99">X10+4</f>
+        <v>70760</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" ref="AA10" si="100">Y10+4</f>
+        <v>70771</v>
+      </c>
+      <c r="AB10" s="3">
+        <f t="shared" ref="AB10" si="101">Z10+4</f>
+        <v>70764</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" ref="AC10" si="102">AA10+4</f>
+        <v>70775</v>
+      </c>
+      <c r="AD10" s="3">
+        <f t="shared" ref="AD10" si="103">AB10+4</f>
+        <v>70768</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" ref="AE10" si="104">AC10+4</f>
+        <v>70779</v>
+      </c>
+      <c r="AF10" s="3">
+        <f t="shared" ref="AF10:AG10" si="105">AD10+4</f>
+        <v>70772</v>
+      </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="105"/>
+        <v>70783</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>70776</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>70787</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>70780</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>70784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="3">
+        <v>71626</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="J13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="J14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="B16" s="3">
+        <v>1617</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1614</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1625</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1618</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1622</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1633</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1626</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1630</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1641</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1634</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1649</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1642</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1657</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1650</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1665</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1658</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1673</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1666</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1677</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1681</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1674</v>
+      </c>
+      <c r="W16" s="3">
+        <v>1685</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1689</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.24583333333333335</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.37916666666666698</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.41180555555555598</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.420833333333333</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.49513888888888902</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.50416666666666599</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.57847222222222305</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.58749999999999902</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.66180555555555698</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.67083333333333295</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0.74513888888889102</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0.75416666666666599</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0.82847222222222505</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0.83749999999999902</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0.87013888888889201</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0.91180555555555898</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0.92083333333333195</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0.95347222222222605</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0.99513888888888891</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>1.00416666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.40972222222222199</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.422916666666667</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.46458333333333401</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.49305555555555503</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.58958333333333401</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.65972222222222299</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.67291666666666705</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0.74305555555555702</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0.75625000000000098</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0.82638888888889095</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0.83958333333333401</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0.86805555555555802</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0.90972222222222499</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0.92291666666666705</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0.95138888888889195</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>1.0062500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.24236111111111111</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.38194444444444398</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.40902777777777799</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.42361111111111099</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.46527777777777801</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.49236111111111103</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.50694444444444398</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.57569444444444495</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.59027777777777701</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.65902777777777899</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0.74236111111111303</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0.82569444444444695</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0.84027777777777701</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0.86736111111111402</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0.90902777777778099</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0.92361111111111005</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0.95069444444444795</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0.99236111111111114</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>1.00694444444444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.40416666666666701</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.42916666666666697</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.47083333333333399</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.51250000000000095</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.57083333333333397</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.59583333333333399</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.65416666666666801</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.67916666666666803</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0.73750000000000204</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0.76250000000000095</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0.82083333333333597</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0.84583333333333499</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0.86250000000000304</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0.90416666666667</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0.92916666666666803</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0.94583333333333697</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0.98749999999999993</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>1.0125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="B23" s="3">
+        <v>71617</v>
+      </c>
+      <c r="C23" s="3">
+        <v>71614</v>
+      </c>
+      <c r="D23" s="3">
+        <v>71625</v>
+      </c>
+      <c r="E23" s="3">
+        <v>80108</v>
+      </c>
+      <c r="F23" s="3">
+        <f>F16+70000</f>
+        <v>71622</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" ref="G23:Y23" si="106">G16+70000</f>
+        <v>71633</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="106"/>
+        <v>71626</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="106"/>
+        <v>71630</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="106"/>
+        <v>71641</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="106"/>
+        <v>71634</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="106"/>
+        <v>71649</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="106"/>
+        <v>71642</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="106"/>
+        <v>71657</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="106"/>
+        <v>71650</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="106"/>
+        <v>71665</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="106"/>
+        <v>71658</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="106"/>
+        <v>71673</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="106"/>
+        <v>71666</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="106"/>
+        <v>71677</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="106"/>
+        <v>71681</v>
+      </c>
+      <c r="V23" s="3">
+        <f t="shared" si="106"/>
+        <v>71674</v>
+      </c>
+      <c r="W23" s="3">
+        <f t="shared" si="106"/>
+        <v>71685</v>
+      </c>
+      <c r="X23" s="3">
+        <f t="shared" si="106"/>
+        <v>71689</v>
+      </c>
+      <c r="Y23" s="3">
+        <f t="shared" si="106"/>
+        <v>71682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="3">
+        <v>70728</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="H26" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="H27" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="H28" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="I30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="I31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="I32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="9:19">
+      <c r="I33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="S33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schiphollijn/Hfdo_plan.xlsx
+++ b/Schiphollijn/Hfdo_plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="109">
   <si>
     <t>Shl</t>
   </si>
@@ -219,9 +219,6 @@
     <t>213-215</t>
   </si>
   <si>
-    <t>233+234</t>
-  </si>
-  <si>
     <t>overdag:</t>
   </si>
   <si>
@@ -255,12 +252,6 @@
     <t>70739)</t>
   </si>
   <si>
-    <t>(later wordt</t>
-  </si>
-  <si>
-    <t>hieraan</t>
-  </si>
-  <si>
     <t>gekoppeld)</t>
   </si>
   <si>
@@ -270,18 +261,12 @@
     <t>afgekoppeld</t>
   </si>
   <si>
-    <t>als</t>
-  </si>
-  <si>
     <t>71681)</t>
   </si>
   <si>
     <t>70768)</t>
   </si>
   <si>
-    <t>71689)</t>
-  </si>
-  <si>
     <t>70776)</t>
   </si>
   <si>
@@ -310,6 +295,57 @@
   </si>
   <si>
     <t>(7)5719</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>spoor</t>
+  </si>
+  <si>
+    <t>als 71677)</t>
+  </si>
+  <si>
+    <t>(over op</t>
+  </si>
+  <si>
+    <t>Globaal spoor: 222</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>of nee</t>
+  </si>
+  <si>
+    <t>(70)731</t>
+  </si>
+  <si>
+    <t>spoor 221</t>
+  </si>
+  <si>
+    <t>spoor 222</t>
+  </si>
+  <si>
+    <t>als 71689)</t>
+  </si>
+  <si>
+    <t>(wordt aan</t>
+  </si>
+  <si>
+    <t>71617 vertrekt van 222, 70719 (en 70723) blijft over</t>
+  </si>
+  <si>
+    <t>70719 vertrekt van 222, 70723 blijft over</t>
+  </si>
+  <si>
+    <t>74317 vertrekt van 221, 75717 (en 73723) blijft over</t>
+  </si>
+  <si>
+    <t>75717 vertrekt van 221, 73723 blijft over</t>
   </si>
 </sst>
 </file>
@@ -408,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -460,6 +496,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R41"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -770,6 +809,14 @@
     <col min="18" max="18" width="9.140625" style="10"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:18">
+      <c r="J1" s="4">
+        <v>0.23680555555555557</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="2" spans="1:18">
       <c r="B2" s="3">
         <v>212</v>
@@ -789,22 +836,28 @@
       <c r="G2" s="3">
         <v>223</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>66</v>
+      <c r="H2" s="3">
+        <v>233</v>
       </c>
       <c r="I2" s="10">
         <v>234</v>
       </c>
+      <c r="J2" s="4">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3">
         <v>3500</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3">
         <v>3200</v>
@@ -812,8 +865,14 @@
       <c r="E3" s="16">
         <v>74317</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>88</v>
+      <c r="F3" s="3">
+        <v>71617</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -821,31 +880,43 @@
         <v>75717</v>
       </c>
       <c r="F4" s="3">
-        <v>1600</v>
+        <v>70719</v>
       </c>
       <c r="G4" s="16">
         <v>3500</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="E5" s="16">
         <v>73723</v>
       </c>
+      <c r="F5" s="3">
+        <v>70723</v>
+      </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3">
         <v>3500</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3">
         <v>3200</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G6" s="3">
         <v>3300</v>
       </c>
@@ -853,12 +924,15 @@
         <v>3100</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="3">
         <v>3500</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1600</v>
       </c>
       <c r="G7" s="3">
         <v>3300</v>
@@ -896,7 +970,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1557,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -3087,19 +3161,19 @@
     </row>
     <row r="30" spans="1:17">
       <c r="G30" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17">
       <c r="G31" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17">
       <c r="G32" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3367,7 +3441,7 @@
     </row>
     <row r="13" spans="1:28">
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -3681,7 +3755,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G19" s="19">
         <v>0.32222222222222224</v>
@@ -3757,7 +3831,7 @@
         <v>28</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -3821,7 +3895,7 @@
         <v>0.27361111111111108</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -5164,1908 +5238,3217 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK33"/>
+  <dimension ref="A1:BI33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="36" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="49" width="9.140625" style="10"/>
+    <col min="50" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
-      <c r="A1" t="s">
+    <row r="1" spans="1:61" s="18" customFormat="1">
+      <c r="A1" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="B3" s="3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+    </row>
+    <row r="2" spans="1:61" s="18" customFormat="1">
+      <c r="A2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+    </row>
+    <row r="3" spans="1:61" s="18" customFormat="1">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10">
         <v>719</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="10">
         <v>723</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
         <v>716</v>
       </c>
-      <c r="E3" s="3">
+      <c r="H3" s="10">
         <v>727</v>
       </c>
-      <c r="F3" s="3">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10">
         <v>720</v>
       </c>
-      <c r="G3" s="3">
-        <f>E3+4</f>
+      <c r="K3" s="10">
+        <f>H3+4</f>
         <v>731</v>
       </c>
-      <c r="H3" s="3">
-        <f>F3+4</f>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10">
+        <f>J3+4</f>
         <v>724</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:L3" si="0">G3+4</f>
+      <c r="O3" s="10">
+        <f>K3+4</f>
         <v>735</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" si="0"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10">
+        <f>N3+4</f>
         <v>728</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" si="0"/>
+      <c r="R3" s="10">
+        <f>O3+4</f>
         <v>739</v>
       </c>
-      <c r="L3" s="3">
-        <f t="shared" si="0"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10">
+        <f>Q3+4</f>
         <v>732</v>
       </c>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3" si="1">K3+4</f>
+      <c r="V3" s="10">
+        <f t="shared" ref="V3" si="0">R3+4</f>
         <v>743</v>
       </c>
-      <c r="N3" s="3">
-        <f t="shared" ref="N3" si="2">L3+4</f>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10">
+        <f>U3+4</f>
         <v>736</v>
       </c>
-      <c r="O3" s="3">
-        <f t="shared" ref="O3" si="3">M3+4</f>
+      <c r="Y3" s="10">
+        <f>V3+4</f>
         <v>747</v>
       </c>
-      <c r="P3" s="3">
-        <f t="shared" ref="P3" si="4">N3+4</f>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10">
+        <f>X3+4</f>
         <v>740</v>
       </c>
-      <c r="Q3" s="3">
-        <f t="shared" ref="Q3" si="5">O3+4</f>
+      <c r="AB3" s="10">
+        <f>Y3+4</f>
         <v>751</v>
       </c>
-      <c r="R3" s="3">
-        <f t="shared" ref="R3" si="6">P3+4</f>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10">
+        <f t="shared" ref="AD3" si="1">AA3+4</f>
         <v>744</v>
       </c>
-      <c r="S3" s="3">
-        <f t="shared" ref="S3" si="7">Q3+4</f>
+      <c r="AE3" s="10">
+        <f t="shared" ref="AE3" si="2">AB3+4</f>
         <v>755</v>
       </c>
-      <c r="T3" s="3">
-        <f t="shared" ref="T3" si="8">R3+4</f>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10">
+        <f t="shared" ref="AG3" si="3">AD3+4</f>
         <v>748</v>
       </c>
-      <c r="U3" s="3">
-        <f t="shared" ref="U3" si="9">S3+4</f>
+      <c r="AH3" s="10">
+        <f t="shared" ref="AH3" si="4">AE3+4</f>
         <v>759</v>
       </c>
-      <c r="V3" s="3">
-        <f t="shared" ref="V3" si="10">T3+4</f>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10">
+        <f t="shared" ref="AJ3" si="5">AG3+4</f>
         <v>752</v>
       </c>
-      <c r="W3" s="3">
-        <f t="shared" ref="W3" si="11">U3+4</f>
+      <c r="AK3" s="10">
+        <f t="shared" ref="AK3" si="6">AH3+4</f>
         <v>763</v>
       </c>
-      <c r="X3" s="3">
-        <f t="shared" ref="X3" si="12">V3+4</f>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10">
+        <f t="shared" ref="AM3" si="7">AJ3+4</f>
         <v>756</v>
       </c>
-      <c r="Y3" s="3">
-        <f t="shared" ref="Y3" si="13">W3+4</f>
+      <c r="AN3" s="10">
+        <f t="shared" ref="AN3" si="8">AK3+4</f>
         <v>767</v>
       </c>
-      <c r="Z3" s="3">
-        <f t="shared" ref="Z3" si="14">X3+4</f>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10">
+        <f t="shared" ref="AP3" si="9">AM3+4</f>
         <v>760</v>
       </c>
-      <c r="AA3" s="3">
-        <f t="shared" ref="AA3" si="15">Y3+4</f>
+      <c r="AQ3" s="10">
+        <f t="shared" ref="AQ3" si="10">AN3+4</f>
         <v>771</v>
       </c>
-      <c r="AB3" s="3">
-        <f t="shared" ref="AB3" si="16">Z3+4</f>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10">
+        <f t="shared" ref="AS3" si="11">AP3+4</f>
         <v>764</v>
       </c>
-      <c r="AC3" s="3">
-        <f t="shared" ref="AC3" si="17">AA3+4</f>
+      <c r="AT3" s="10">
+        <f t="shared" ref="AT3" si="12">AQ3+4</f>
         <v>775</v>
       </c>
-      <c r="AD3" s="3">
-        <f t="shared" ref="AD3" si="18">AB3+4</f>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10">
+        <f>AS3+4</f>
         <v>768</v>
       </c>
-      <c r="AE3" s="3">
-        <f t="shared" ref="AE3" si="19">AC3+4</f>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10">
+        <f t="shared" ref="AX3" si="13">AT3+4</f>
         <v>779</v>
       </c>
-      <c r="AF3" s="3">
-        <f t="shared" ref="AF3:AG3" si="20">AD3+4</f>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10">
+        <f>AV3+4</f>
         <v>772</v>
       </c>
-      <c r="AG3" s="3">
-        <f t="shared" si="20"/>
+      <c r="BA3" s="10">
+        <f t="shared" ref="BA3" si="14">AX3+4</f>
         <v>783</v>
       </c>
-      <c r="AH3" s="3">
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10">
         <v>776</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="BE3" s="10">
         <v>787</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10">
         <v>780</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10">
         <v>784</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:61" s="18" customFormat="1">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f>C4</f>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="10" t="str">
+        <f>D4</f>
         <v>^</v>
       </c>
-      <c r="H4" s="3" t="str">
-        <f>D4</f>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="str">
+        <f>G4</f>
         <v>v</v>
       </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:L4" si="21">E4</f>
+      <c r="O4" s="10" t="str">
+        <f>H4</f>
         <v>^</v>
       </c>
-      <c r="J4" s="3" t="str">
-        <f t="shared" si="21"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10" t="str">
+        <f>J4</f>
         <v>v</v>
       </c>
-      <c r="K4" s="3" t="str">
-        <f t="shared" si="21"/>
+      <c r="R4" s="10" t="str">
+        <f>K4</f>
         <v>^</v>
       </c>
-      <c r="L4" s="3" t="str">
-        <f t="shared" si="21"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10" t="str">
+        <f>N4</f>
         <v>v</v>
       </c>
-      <c r="M4" s="3" t="str">
-        <f t="shared" ref="M4" si="22">I4</f>
+      <c r="V4" s="10" t="str">
+        <f t="shared" ref="V4" si="15">O4</f>
         <v>^</v>
       </c>
-      <c r="N4" s="3" t="str">
-        <f t="shared" ref="N4" si="23">J4</f>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10" t="str">
+        <f>Q4</f>
         <v>v</v>
       </c>
-      <c r="O4" s="3" t="str">
-        <f t="shared" ref="O4" si="24">K4</f>
+      <c r="Y4" s="10" t="str">
+        <f>R4</f>
         <v>^</v>
       </c>
-      <c r="P4" s="3" t="str">
-        <f t="shared" ref="P4" si="25">L4</f>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10" t="str">
+        <f t="shared" ref="AA4" si="16">U4</f>
         <v>v</v>
       </c>
-      <c r="Q4" s="3" t="str">
-        <f t="shared" ref="Q4" si="26">M4</f>
+      <c r="AB4" s="10" t="str">
+        <f t="shared" ref="AB4" si="17">V4</f>
         <v>^</v>
       </c>
-      <c r="R4" s="3" t="str">
-        <f t="shared" ref="R4" si="27">N4</f>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10" t="str">
+        <f>X4</f>
         <v>v</v>
       </c>
-      <c r="S4" s="3" t="str">
-        <f t="shared" ref="S4" si="28">O4</f>
+      <c r="AE4" s="10" t="str">
+        <f>Y4</f>
         <v>^</v>
       </c>
-      <c r="T4" s="3" t="str">
-        <f t="shared" ref="T4" si="29">P4</f>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10" t="str">
+        <f t="shared" ref="AG4" si="18">AA4</f>
         <v>v</v>
       </c>
-      <c r="U4" s="3" t="str">
-        <f t="shared" ref="U4" si="30">Q4</f>
+      <c r="AH4" s="10" t="str">
+        <f t="shared" ref="AH4" si="19">AB4</f>
         <v>^</v>
       </c>
-      <c r="V4" s="3" t="str">
-        <f t="shared" ref="V4" si="31">R4</f>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10" t="str">
+        <f t="shared" ref="AJ4" si="20">AD4</f>
         <v>v</v>
       </c>
-      <c r="W4" s="3" t="str">
-        <f t="shared" ref="W4" si="32">S4</f>
+      <c r="AK4" s="10" t="str">
+        <f t="shared" ref="AK4" si="21">AE4</f>
         <v>^</v>
       </c>
-      <c r="X4" s="3" t="str">
-        <f t="shared" ref="X4" si="33">T4</f>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10" t="str">
+        <f t="shared" ref="AM4" si="22">AG4</f>
         <v>v</v>
       </c>
-      <c r="Y4" s="3" t="str">
-        <f t="shared" ref="Y4" si="34">U4</f>
+      <c r="AN4" s="10" t="str">
+        <f t="shared" ref="AN4" si="23">AH4</f>
         <v>^</v>
       </c>
-      <c r="Z4" s="3" t="str">
-        <f t="shared" ref="Z4" si="35">V4</f>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10" t="str">
+        <f t="shared" ref="AP4" si="24">AJ4</f>
         <v>v</v>
       </c>
-      <c r="AA4" s="3" t="str">
-        <f t="shared" ref="AA4" si="36">W4</f>
+      <c r="AQ4" s="10" t="str">
+        <f t="shared" ref="AQ4" si="25">AK4</f>
         <v>^</v>
       </c>
-      <c r="AB4" s="3" t="str">
-        <f t="shared" ref="AB4" si="37">X4</f>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10" t="str">
+        <f t="shared" ref="AS4" si="26">AM4</f>
         <v>v</v>
       </c>
-      <c r="AC4" s="3" t="str">
-        <f t="shared" ref="AC4" si="38">Y4</f>
+      <c r="AT4" s="10" t="str">
+        <f t="shared" ref="AT4" si="27">AN4</f>
         <v>^</v>
       </c>
-      <c r="AD4" s="3" t="str">
-        <f t="shared" ref="AD4" si="39">Z4</f>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10" t="str">
+        <f t="shared" ref="AV4" si="28">AP4</f>
         <v>v</v>
       </c>
-      <c r="AE4" s="3" t="str">
-        <f t="shared" ref="AE4" si="40">AA4</f>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10" t="str">
+        <f t="shared" ref="AX4" si="29">AQ4</f>
         <v>^</v>
       </c>
-      <c r="AF4" s="3" t="str">
-        <f t="shared" ref="AF4:AG4" si="41">AB4</f>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10" t="str">
+        <f>AS4</f>
         <v>v</v>
       </c>
-      <c r="AG4" s="3" t="str">
+      <c r="BA4" s="10" t="str">
+        <f t="shared" ref="BA4" si="30">AT4</f>
+        <v>^</v>
+      </c>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" s="18" customFormat="1">
+      <c r="A5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="19">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="19">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.35</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="19">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="K5" s="19">
+        <f>H5+TIME(1,0,0)</f>
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="19">
+        <f>J5+TIME(1,0,0)</f>
+        <v>0.39861111111111114</v>
+      </c>
+      <c r="O5" s="19">
+        <f>K5+TIME(1,0,0)</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19">
+        <f>N5+TIME(1,0,0)</f>
+        <v>0.44027777777777782</v>
+      </c>
+      <c r="R5" s="19">
+        <f>O5+TIME(1,0,0)</f>
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19">
+        <f>Q5+TIME(1,0,0)</f>
+        <v>0.48194444444444451</v>
+      </c>
+      <c r="V5" s="19">
+        <f t="shared" ref="V5:V8" si="31">R5+TIME(1,0,0)</f>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19">
+        <f>U5+TIME(1,0,0)</f>
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="Y5" s="19">
+        <f>V5+TIME(1,0,0)</f>
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="19">
+        <f>X5+TIME(1,0,0)</f>
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="AB5" s="19">
+        <f>Y5+TIME(1,0,0)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19">
+        <f t="shared" ref="AD5:AD8" si="32">AA5+TIME(1,0,0)</f>
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="AE5" s="19">
+        <f t="shared" ref="AE5:AE8" si="33">AB5+TIME(1,0,0)</f>
+        <v>0.64166666666666661</v>
+      </c>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19">
+        <f t="shared" ref="AG5:AG8" si="34">AD5+TIME(1,0,0)</f>
+        <v>0.64861111111111103</v>
+      </c>
+      <c r="AH5" s="19">
+        <f t="shared" ref="AH5:AH8" si="35">AE5+TIME(1,0,0)</f>
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19">
+        <f t="shared" ref="AJ5:AJ8" si="36">AG5+TIME(1,0,0)</f>
+        <v>0.69027777777777766</v>
+      </c>
+      <c r="AK5" s="19">
+        <f t="shared" ref="AK5:AK8" si="37">AH5+TIME(1,0,0)</f>
+        <v>0.72499999999999987</v>
+      </c>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19">
+        <f t="shared" ref="AM5:AM8" si="38">AJ5+TIME(1,0,0)</f>
+        <v>0.73194444444444429</v>
+      </c>
+      <c r="AN5" s="19">
+        <f t="shared" ref="AN5:AN8" si="39">AK5+TIME(1,0,0)</f>
+        <v>0.7666666666666665</v>
+      </c>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19">
+        <f t="shared" ref="AP5:AP8" si="40">AM5+TIME(1,0,0)</f>
+        <v>0.77361111111111092</v>
+      </c>
+      <c r="AQ5" s="19">
+        <f t="shared" ref="AQ5:AQ8" si="41">AN5+TIME(1,0,0)</f>
+        <v>0.80833333333333313</v>
+      </c>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19">
+        <f t="shared" ref="AS5:AS8" si="42">AP5+TIME(1,0,0)</f>
+        <v>0.81527777777777755</v>
+      </c>
+      <c r="AT5" s="19">
+        <f t="shared" ref="AT5:AT8" si="43">AQ5+TIME(1,0,0)</f>
+        <v>0.84999999999999976</v>
+      </c>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19">
+        <f>AS5+TIME(1,0,0)</f>
+        <v>0.85694444444444418</v>
+      </c>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19">
+        <f t="shared" ref="AX5:AX8" si="44">AT5+TIME(1,0,0)</f>
+        <v>0.89166666666666639</v>
+      </c>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19">
+        <f>AV5+TIME(1,0,0)</f>
+        <v>0.89861111111111081</v>
+      </c>
+      <c r="BA5" s="19">
+        <f t="shared" ref="BA5:BA8" si="45">AX5+TIME(1,0,0)</f>
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19">
+        <v>1.9395833333333301</v>
+      </c>
+      <c r="BE5" s="19">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="19">
+        <v>0.9819444444444444</v>
+      </c>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="19">
+        <v>2.4305555555555556E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" s="18" customFormat="1">
+      <c r="A6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="19">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="19">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="19">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="K6" s="19">
+        <f>H6+TIME(1,0,0)</f>
+        <v>0.38888888888888895</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="19">
+        <f>J6+TIME(1,0,0)</f>
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="O6" s="19">
+        <f>K6+TIME(1,0,0)</f>
+        <v>0.43055555555555564</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19">
+        <f>N6+TIME(1,0,0)</f>
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="R6" s="19">
+        <f>O6+TIME(1,0,0)</f>
+        <v>0.47222222222222232</v>
+      </c>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19">
+        <f>Q6+TIME(1,0,0)</f>
+        <v>0.48541666666666672</v>
+      </c>
+      <c r="V6" s="19">
+        <f t="shared" si="31"/>
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19">
+        <f>U6+TIME(1,0,0)</f>
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="Y6" s="19">
+        <f>V6+TIME(1,0,0)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="19">
+        <f>X6+TIME(1,0,0)</f>
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="AB6" s="19">
+        <f>Y6+TIME(1,0,0)</f>
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19">
+        <f t="shared" si="32"/>
+        <v>0.61041666666666661</v>
+      </c>
+      <c r="AE6" s="19">
+        <f t="shared" si="33"/>
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19">
+        <f t="shared" si="34"/>
+        <v>0.65208333333333324</v>
+      </c>
+      <c r="AH6" s="19">
+        <f t="shared" si="35"/>
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19">
+        <f t="shared" si="36"/>
+        <v>0.69374999999999987</v>
+      </c>
+      <c r="AK6" s="19">
+        <f t="shared" si="37"/>
+        <v>0.7222222222222221</v>
+      </c>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19">
+        <f t="shared" si="38"/>
+        <v>0.7354166666666665</v>
+      </c>
+      <c r="AN6" s="19">
+        <f t="shared" si="39"/>
+        <v>0.76388888888888873</v>
+      </c>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19">
+        <f t="shared" si="40"/>
+        <v>0.77708333333333313</v>
+      </c>
+      <c r="AQ6" s="19">
         <f t="shared" si="41"/>
+        <v>0.80555555555555536</v>
+      </c>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19">
+        <f t="shared" si="42"/>
+        <v>0.81874999999999976</v>
+      </c>
+      <c r="AT6" s="19">
+        <f t="shared" si="43"/>
+        <v>0.84722222222222199</v>
+      </c>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19">
+        <f>AS6+TIME(1,0,0)</f>
+        <v>0.86041666666666639</v>
+      </c>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19">
+        <f t="shared" si="44"/>
+        <v>0.88888888888888862</v>
+      </c>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="19">
+        <f>AV6+TIME(1,0,0)</f>
+        <v>0.90208333333333302</v>
+      </c>
+      <c r="BA6" s="19">
+        <f t="shared" si="45"/>
+        <v>0.93055555555555525</v>
+      </c>
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19">
+        <v>1.9437500000000001</v>
+      </c>
+      <c r="BE6" s="19">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19">
+        <v>0.98541666666666661</v>
+      </c>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19">
+        <v>2.7083333333333334E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" s="18" customFormat="1">
+      <c r="A7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="19">
+        <v>0.26319444444444445</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="19">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.34652777777777799</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="19">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="K7" s="19">
+        <f>H7+TIME(1,0,0)</f>
+        <v>0.38819444444444468</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="19">
+        <f>J7+TIME(1,0,0)</f>
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="O7" s="19">
+        <f>K7+TIME(1,0,0)</f>
+        <v>0.42986111111111136</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19">
+        <f>N7+TIME(1,0,0)</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="R7" s="19">
+        <f>O7+TIME(1,0,0)</f>
+        <v>0.47152777777777805</v>
+      </c>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19">
+        <f>Q7+TIME(1,0,0)</f>
+        <v>0.48611111111111116</v>
+      </c>
+      <c r="V7" s="19">
+        <f t="shared" si="31"/>
+        <v>0.51319444444444473</v>
+      </c>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19">
+        <f>U7+TIME(1,0,0)</f>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="Y7" s="19">
+        <f>V7+TIME(1,0,0)</f>
+        <v>0.55486111111111136</v>
+      </c>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="19">
+        <f>X7+TIME(1,0,0)</f>
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="AB7" s="19">
+        <f>Y7+TIME(1,0,0)</f>
+        <v>0.59652777777777799</v>
+      </c>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19">
+        <f t="shared" si="32"/>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="AE7" s="19">
+        <f t="shared" si="33"/>
+        <v>0.63819444444444462</v>
+      </c>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19">
+        <f t="shared" si="34"/>
+        <v>0.65277777777777768</v>
+      </c>
+      <c r="AH7" s="19">
+        <f t="shared" si="35"/>
+        <v>0.67986111111111125</v>
+      </c>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19">
+        <f t="shared" si="36"/>
+        <v>0.69444444444444431</v>
+      </c>
+      <c r="AK7" s="19">
+        <f t="shared" si="37"/>
+        <v>0.72152777777777788</v>
+      </c>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19">
+        <f t="shared" si="38"/>
+        <v>0.73611111111111094</v>
+      </c>
+      <c r="AN7" s="19">
+        <f t="shared" si="39"/>
+        <v>0.76319444444444451</v>
+      </c>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19">
+        <f t="shared" si="40"/>
+        <v>0.77777777777777757</v>
+      </c>
+      <c r="AQ7" s="19">
+        <f t="shared" si="41"/>
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19">
+        <f t="shared" si="42"/>
+        <v>0.8194444444444442</v>
+      </c>
+      <c r="AT7" s="19">
+        <f t="shared" si="43"/>
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19">
+        <f>AS7+TIME(1,0,0)</f>
+        <v>0.86111111111111083</v>
+      </c>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19">
+        <f t="shared" si="44"/>
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="19">
+        <f>AV7+TIME(1,0,0)</f>
+        <v>0.90277777777777746</v>
+      </c>
+      <c r="BA7" s="19">
+        <f t="shared" si="45"/>
+        <v>0.92986111111111103</v>
+      </c>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="19">
+        <v>1.9451388888888901</v>
+      </c>
+      <c r="BE7" s="19">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="BF7" s="19"/>
+      <c r="BG7" s="19">
+        <v>0.9868055555555556</v>
+      </c>
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="19">
+        <v>2.8472222222222222E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" s="18" customFormat="1">
+      <c r="A8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="19">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="19">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.34166666666666701</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="19">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="K8" s="19">
+        <f>H8+TIME(1,0,0)</f>
+        <v>0.38333333333333369</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="19">
+        <f>J8+TIME(1,0,0)</f>
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="O8" s="19">
+        <f>K8+TIME(1,0,0)</f>
+        <v>0.42500000000000038</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19">
+        <f>N8+TIME(1,0,0)</f>
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="R8" s="19">
+        <f>O8+TIME(1,0,0)</f>
+        <v>0.46666666666666706</v>
+      </c>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19">
+        <f>Q8+TIME(1,0,0)</f>
+        <v>0.49166666666666675</v>
+      </c>
+      <c r="V8" s="19">
+        <f t="shared" si="31"/>
+        <v>0.50833333333333375</v>
+      </c>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19">
+        <f>U8+TIME(1,0,0)</f>
+        <v>0.53333333333333344</v>
+      </c>
+      <c r="Y8" s="19">
+        <f>V8+TIME(1,0,0)</f>
+        <v>0.55000000000000038</v>
+      </c>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="19">
+        <f>X8+TIME(1,0,0)</f>
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="AB8" s="19">
+        <f>Y8+TIME(1,0,0)</f>
+        <v>0.59166666666666701</v>
+      </c>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19">
+        <f t="shared" si="32"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="AE8" s="19">
+        <f t="shared" si="33"/>
+        <v>0.63333333333333364</v>
+      </c>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19">
+        <f t="shared" si="34"/>
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="AH8" s="19">
+        <f t="shared" si="35"/>
+        <v>0.67500000000000027</v>
+      </c>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19">
+        <f t="shared" si="36"/>
+        <v>0.7</v>
+      </c>
+      <c r="AK8" s="19">
+        <f t="shared" si="37"/>
+        <v>0.7166666666666669</v>
+      </c>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19">
+        <f t="shared" si="38"/>
+        <v>0.74166666666666659</v>
+      </c>
+      <c r="AN8" s="19">
+        <f t="shared" si="39"/>
+        <v>0.75833333333333353</v>
+      </c>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19">
+        <f t="shared" si="40"/>
+        <v>0.78333333333333321</v>
+      </c>
+      <c r="AQ8" s="19">
+        <f t="shared" si="41"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19">
+        <f t="shared" si="42"/>
+        <v>0.82499999999999984</v>
+      </c>
+      <c r="AT8" s="19">
+        <f t="shared" si="43"/>
+        <v>0.84166666666666679</v>
+      </c>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19">
+        <f>AS8+TIME(1,0,0)</f>
+        <v>0.86666666666666647</v>
+      </c>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19">
+        <f t="shared" si="44"/>
+        <v>0.88333333333333341</v>
+      </c>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="19">
+        <f>AV8+TIME(1,0,0)</f>
+        <v>0.9083333333333331</v>
+      </c>
+      <c r="BA8" s="19">
+        <f t="shared" si="45"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="BB8" s="19"/>
+      <c r="BC8" s="19"/>
+      <c r="BD8" s="19">
+        <v>1.95</v>
+      </c>
+      <c r="BE8" s="19">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="BF8" s="19"/>
+      <c r="BG8" s="19">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="BH8" s="19"/>
+      <c r="BI8" s="19">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" s="18" customFormat="1">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="10" t="str">
+        <f>D9</f>
         <v>^</v>
       </c>
-      <c r="AH4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI4" s="3" t="s">
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="str">
+        <f>G9</f>
+        <v>v</v>
+      </c>
+      <c r="O9" s="10" t="str">
+        <f>H9</f>
+        <v>^</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10" t="str">
+        <f>J9</f>
+        <v>v</v>
+      </c>
+      <c r="R9" s="10" t="str">
+        <f>K9</f>
+        <v>^</v>
+      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10" t="str">
+        <f>N9</f>
+        <v>v</v>
+      </c>
+      <c r="V9" s="10" t="str">
+        <f t="shared" ref="V9" si="46">O9</f>
+        <v>^</v>
+      </c>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10" t="str">
+        <f>Q9</f>
+        <v>v</v>
+      </c>
+      <c r="Y9" s="10" t="str">
+        <f>R9</f>
+        <v>^</v>
+      </c>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10" t="str">
+        <f t="shared" ref="AA9" si="47">U9</f>
+        <v>v</v>
+      </c>
+      <c r="AB9" s="10" t="str">
+        <f t="shared" ref="AB9" si="48">V9</f>
+        <v>^</v>
+      </c>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10" t="str">
+        <f>X9</f>
+        <v>v</v>
+      </c>
+      <c r="AE9" s="10" t="str">
+        <f>Y9</f>
+        <v>^</v>
+      </c>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10" t="str">
+        <f t="shared" ref="AG9" si="49">AA9</f>
+        <v>v</v>
+      </c>
+      <c r="AH9" s="10" t="str">
+        <f t="shared" ref="AH9" si="50">AB9</f>
+        <v>^</v>
+      </c>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10" t="str">
+        <f t="shared" ref="AJ9" si="51">AD9</f>
+        <v>v</v>
+      </c>
+      <c r="AK9" s="10" t="str">
+        <f t="shared" ref="AK9" si="52">AE9</f>
+        <v>^</v>
+      </c>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10" t="str">
+        <f t="shared" ref="AM9" si="53">AG9</f>
+        <v>v</v>
+      </c>
+      <c r="AN9" s="10" t="str">
+        <f t="shared" ref="AN9" si="54">AH9</f>
+        <v>^</v>
+      </c>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10" t="str">
+        <f t="shared" ref="AP9" si="55">AJ9</f>
+        <v>v</v>
+      </c>
+      <c r="AQ9" s="10" t="str">
+        <f t="shared" ref="AQ9" si="56">AK9</f>
+        <v>^</v>
+      </c>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10" t="str">
+        <f t="shared" ref="AS9" si="57">AM9</f>
+        <v>v</v>
+      </c>
+      <c r="AT9" s="10" t="str">
+        <f t="shared" ref="AT9" si="58">AN9</f>
+        <v>^</v>
+      </c>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10" t="str">
+        <f t="shared" ref="AV9" si="59">AP9</f>
+        <v>v</v>
+      </c>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10" t="str">
+        <f t="shared" ref="AX9" si="60">AQ9</f>
+        <v>^</v>
+      </c>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10" t="str">
+        <f>AS9</f>
+        <v>v</v>
+      </c>
+      <c r="BA9" s="10" t="str">
+        <f t="shared" ref="BA9" si="61">AT9</f>
+        <v>^</v>
+      </c>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AJ4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" t="s">
+      <c r="BF9" s="10"/>
+      <c r="BG9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH9" s="10"/>
+      <c r="BI9" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" s="18" customFormat="1">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10">
+        <v>70719</v>
+      </c>
+      <c r="D10" s="10">
+        <v>70723</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
+        <v>70716</v>
+      </c>
+      <c r="H10" s="10">
+        <v>70727</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10">
+        <v>70720</v>
+      </c>
+      <c r="K10" s="10">
+        <f>H10+4</f>
+        <v>70731</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10">
+        <f>J10+4</f>
+        <v>70724</v>
+      </c>
+      <c r="O10" s="10">
+        <f>K10+4</f>
+        <v>70735</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10">
+        <f>N10+4</f>
+        <v>70728</v>
+      </c>
+      <c r="R10" s="10">
+        <f>O10+4</f>
+        <v>70739</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10">
+        <f>Q10+4</f>
+        <v>70732</v>
+      </c>
+      <c r="V10" s="10">
+        <f t="shared" ref="V10" si="62">R10+4</f>
+        <v>70743</v>
+      </c>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10">
+        <f>U10+4</f>
+        <v>70736</v>
+      </c>
+      <c r="Y10" s="10">
+        <f>V10+4</f>
+        <v>70747</v>
+      </c>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10">
+        <f>X10+4</f>
+        <v>70740</v>
+      </c>
+      <c r="AB10" s="10">
+        <f>Y10+4</f>
+        <v>70751</v>
+      </c>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10">
+        <f t="shared" ref="AD10" si="63">AA10+4</f>
+        <v>70744</v>
+      </c>
+      <c r="AE10" s="10">
+        <f t="shared" ref="AE10" si="64">AB10+4</f>
+        <v>70755</v>
+      </c>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10">
+        <f t="shared" ref="AG10" si="65">AD10+4</f>
+        <v>70748</v>
+      </c>
+      <c r="AH10" s="10">
+        <f t="shared" ref="AH10" si="66">AE10+4</f>
+        <v>70759</v>
+      </c>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10">
+        <f t="shared" ref="AJ10" si="67">AG10+4</f>
+        <v>70752</v>
+      </c>
+      <c r="AK10" s="10">
+        <f t="shared" ref="AK10" si="68">AH10+4</f>
+        <v>70763</v>
+      </c>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10">
+        <f t="shared" ref="AM10" si="69">AJ10+4</f>
+        <v>70756</v>
+      </c>
+      <c r="AN10" s="10">
+        <f t="shared" ref="AN10" si="70">AK10+4</f>
+        <v>70767</v>
+      </c>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10">
+        <f t="shared" ref="AP10" si="71">AM10+4</f>
+        <v>70760</v>
+      </c>
+      <c r="AQ10" s="10">
+        <f t="shared" ref="AQ10" si="72">AN10+4</f>
+        <v>70771</v>
+      </c>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10">
+        <f t="shared" ref="AS10" si="73">AP10+4</f>
+        <v>70764</v>
+      </c>
+      <c r="AT10" s="10">
+        <f t="shared" ref="AT10" si="74">AQ10+4</f>
+        <v>70775</v>
+      </c>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10">
+        <f>AS10+4</f>
+        <v>70768</v>
+      </c>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10">
+        <f t="shared" ref="AX10" si="75">AT10+4</f>
+        <v>70779</v>
+      </c>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10">
+        <f>AV10+4</f>
+        <v>70772</v>
+      </c>
+      <c r="BA10" s="10">
+        <f t="shared" ref="BA10" si="76">AX10+4</f>
+        <v>70783</v>
+      </c>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="10">
+        <v>70776</v>
+      </c>
+      <c r="BE10" s="10">
+        <v>70787</v>
+      </c>
+      <c r="BF10" s="10"/>
+      <c r="BG10" s="10">
+        <v>70780</v>
+      </c>
+      <c r="BH10" s="10"/>
+      <c r="BI10" s="10">
+        <v>70784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" s="18" customFormat="1">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH11" s="10"/>
+      <c r="BI11" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" s="18" customFormat="1">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10">
+        <v>71626</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="10"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE12" s="10"/>
+      <c r="BF12" s="10"/>
+      <c r="BG12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH12" s="10"/>
+      <c r="BI12" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" s="18" customFormat="1">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="10"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE13" s="10"/>
+      <c r="BF13" s="10"/>
+      <c r="BG13" s="10"/>
+      <c r="BH13" s="10"/>
+    </row>
+    <row r="14" spans="1:61" s="18" customFormat="1">
+      <c r="B14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI14" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" s="18" customFormat="1">
+      <c r="B16" s="10">
+        <v>1617</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
+        <v>1614</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1625</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10">
+        <v>1618</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10">
+        <v>1622</v>
+      </c>
+      <c r="M16" s="10">
+        <v>1633</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10">
+        <v>1626</v>
+      </c>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10">
+        <v>1630</v>
+      </c>
+      <c r="T16" s="10">
+        <v>1641</v>
+      </c>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10">
+        <v>1634</v>
+      </c>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10">
+        <v>1649</v>
+      </c>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10">
+        <v>1642</v>
+      </c>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10">
+        <v>1657</v>
+      </c>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10">
+        <v>1650</v>
+      </c>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10">
+        <v>1665</v>
+      </c>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10">
+        <v>1658</v>
+      </c>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10">
+        <v>1673</v>
+      </c>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10">
+        <v>1666</v>
+      </c>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10">
+        <v>1677</v>
+      </c>
+      <c r="AY16" s="10">
+        <v>1681</v>
+      </c>
+      <c r="BB16" s="10">
+        <v>1674</v>
+      </c>
+      <c r="BC16" s="10">
+        <v>1685</v>
+      </c>
+      <c r="BF16" s="10">
+        <v>1689</v>
+      </c>
+      <c r="BH16" s="10">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" s="18" customFormat="1">
+      <c r="B17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH17" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" s="18" customFormat="1">
+      <c r="A18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.30833333333333335</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.31527777777777777</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.35694444444444445</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" ref="G5:H8" si="42">E5+TIME(1,0,0)</f>
-        <v>0.39166666666666666</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="42"/>
-        <v>0.39861111111111114</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" ref="I5:L8" si="43">G5+TIME(1,0,0)</f>
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="43"/>
-        <v>0.44027777777777782</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="43"/>
-        <v>0.47500000000000003</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="43"/>
-        <v>0.48194444444444451</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" ref="M5:M8" si="44">K5+TIME(1,0,0)</f>
-        <v>0.51666666666666672</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" ref="N5:N8" si="45">L5+TIME(1,0,0)</f>
-        <v>0.52361111111111114</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" ref="O5:O8" si="46">M5+TIME(1,0,0)</f>
-        <v>0.55833333333333335</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" ref="P5:P8" si="47">N5+TIME(1,0,0)</f>
-        <v>0.56527777777777777</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" ref="Q5:Q8" si="48">O5+TIME(1,0,0)</f>
-        <v>0.6</v>
-      </c>
-      <c r="R5" s="4">
-        <f t="shared" ref="R5:R8" si="49">P5+TIME(1,0,0)</f>
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" ref="S5:S8" si="50">Q5+TIME(1,0,0)</f>
-        <v>0.64166666666666661</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" ref="T5:T8" si="51">R5+TIME(1,0,0)</f>
-        <v>0.64861111111111103</v>
-      </c>
-      <c r="U5" s="4">
-        <f t="shared" ref="U5:U8" si="52">S5+TIME(1,0,0)</f>
-        <v>0.68333333333333324</v>
-      </c>
-      <c r="V5" s="4">
-        <f t="shared" ref="V5:V8" si="53">T5+TIME(1,0,0)</f>
-        <v>0.69027777777777766</v>
-      </c>
-      <c r="W5" s="4">
-        <f t="shared" ref="W5:W8" si="54">U5+TIME(1,0,0)</f>
-        <v>0.72499999999999987</v>
-      </c>
-      <c r="X5" s="4">
-        <f t="shared" ref="X5:X8" si="55">V5+TIME(1,0,0)</f>
-        <v>0.73194444444444429</v>
-      </c>
-      <c r="Y5" s="4">
-        <f t="shared" ref="Y5:Y8" si="56">W5+TIME(1,0,0)</f>
-        <v>0.7666666666666665</v>
-      </c>
-      <c r="Z5" s="4">
-        <f t="shared" ref="Z5:Z8" si="57">X5+TIME(1,0,0)</f>
-        <v>0.77361111111111092</v>
-      </c>
-      <c r="AA5" s="4">
-        <f t="shared" ref="AA5:AA8" si="58">Y5+TIME(1,0,0)</f>
-        <v>0.80833333333333313</v>
-      </c>
-      <c r="AB5" s="4">
-        <f t="shared" ref="AB5:AB8" si="59">Z5+TIME(1,0,0)</f>
-        <v>0.81527777777777755</v>
-      </c>
-      <c r="AC5" s="4">
-        <f t="shared" ref="AC5:AC8" si="60">AA5+TIME(1,0,0)</f>
-        <v>0.84999999999999976</v>
-      </c>
-      <c r="AD5" s="4">
-        <f t="shared" ref="AD5:AD8" si="61">AB5+TIME(1,0,0)</f>
-        <v>0.85694444444444418</v>
-      </c>
-      <c r="AE5" s="4">
-        <f t="shared" ref="AE5:AE8" si="62">AC5+TIME(1,0,0)</f>
-        <v>0.89166666666666639</v>
-      </c>
-      <c r="AF5" s="4">
-        <f t="shared" ref="AF5:AG8" si="63">AD5+TIME(1,0,0)</f>
-        <v>0.89861111111111081</v>
-      </c>
-      <c r="AG5" s="4">
-        <f t="shared" si="63"/>
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="AH5" s="4">
-        <v>1.9395833333333301</v>
-      </c>
-      <c r="AI5" s="4">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>0.9819444444444444</v>
-      </c>
-      <c r="AK5" s="4">
-        <v>2.4305555555555556E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" t="s">
+      <c r="B18" s="19">
+        <v>0.24583333333333335</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="19">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="19">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="19">
+        <v>0.37916666666666698</v>
+      </c>
+      <c r="M18" s="19">
+        <v>0.41180555555555598</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="19">
+        <v>0.420833333333333</v>
+      </c>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="19">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="T18" s="19">
+        <v>0.49513888888888902</v>
+      </c>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="19">
+        <v>0.50416666666666599</v>
+      </c>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="19">
+        <v>0.57847222222222305</v>
+      </c>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="19">
+        <v>0.58749999999999902</v>
+      </c>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="19">
+        <v>0.66180555555555698</v>
+      </c>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="19">
+        <v>0.67083333333333295</v>
+      </c>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="19">
+        <v>0.74513888888889102</v>
+      </c>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="19">
+        <v>0.75416666666666599</v>
+      </c>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="19">
+        <v>0.82847222222222505</v>
+      </c>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="19">
+        <v>0.83749999999999902</v>
+      </c>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="19">
+        <v>0.87013888888889201</v>
+      </c>
+      <c r="AY18" s="19">
+        <v>0.91180555555555898</v>
+      </c>
+      <c r="BB18" s="19">
+        <v>0.92083333333333195</v>
+      </c>
+      <c r="BC18" s="19">
+        <v>0.95347222222222605</v>
+      </c>
+      <c r="BF18" s="19">
+        <v>0.99513888888888891</v>
+      </c>
+      <c r="BH18" s="19">
+        <v>1.00416666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" s="18" customFormat="1">
+      <c r="A19" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.30555555555555552</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.31875000000000003</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.34722222222222227</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.36041666666666666</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="42"/>
-        <v>0.38888888888888895</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="42"/>
-        <v>0.40208333333333335</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="43"/>
-        <v>0.43055555555555564</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="43"/>
-        <v>0.44375000000000003</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="43"/>
-        <v>0.47222222222222232</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="43"/>
-        <v>0.48541666666666672</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" si="44"/>
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="45"/>
-        <v>0.52708333333333335</v>
-      </c>
-      <c r="O6" s="4">
-        <f t="shared" si="46"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" si="47"/>
-        <v>0.56874999999999998</v>
-      </c>
-      <c r="Q6" s="4">
-        <f t="shared" si="48"/>
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="R6" s="4">
-        <f t="shared" si="49"/>
-        <v>0.61041666666666661</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="50"/>
-        <v>0.63888888888888884</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="51"/>
-        <v>0.65208333333333324</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="52"/>
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="V6" s="4">
-        <f t="shared" si="53"/>
-        <v>0.69374999999999987</v>
-      </c>
-      <c r="W6" s="4">
-        <f t="shared" si="54"/>
-        <v>0.7222222222222221</v>
-      </c>
-      <c r="X6" s="4">
-        <f t="shared" si="55"/>
-        <v>0.7354166666666665</v>
-      </c>
-      <c r="Y6" s="4">
-        <f t="shared" si="56"/>
-        <v>0.76388888888888873</v>
-      </c>
-      <c r="Z6" s="4">
-        <f t="shared" si="57"/>
-        <v>0.77708333333333313</v>
-      </c>
-      <c r="AA6" s="4">
-        <f t="shared" si="58"/>
-        <v>0.80555555555555536</v>
-      </c>
-      <c r="AB6" s="4">
-        <f t="shared" si="59"/>
-        <v>0.81874999999999976</v>
-      </c>
-      <c r="AC6" s="4">
-        <f t="shared" si="60"/>
-        <v>0.84722222222222199</v>
-      </c>
-      <c r="AD6" s="4">
-        <f t="shared" si="61"/>
-        <v>0.86041666666666639</v>
-      </c>
-      <c r="AE6" s="4">
-        <f t="shared" si="62"/>
-        <v>0.88888888888888862</v>
-      </c>
-      <c r="AF6" s="4">
-        <f t="shared" si="63"/>
-        <v>0.90208333333333302</v>
-      </c>
-      <c r="AG6" s="4">
-        <f t="shared" si="63"/>
-        <v>0.93055555555555525</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>1.9437500000000001</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>0.97222222222222221</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>0.98541666666666661</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>2.7083333333333334E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
-      <c r="A7" t="s">
+      <c r="B19" s="19">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="19">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="19">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="19">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="M19" s="19">
+        <v>0.40972222222222199</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="19">
+        <v>0.422916666666667</v>
+      </c>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="19">
+        <v>0.46458333333333401</v>
+      </c>
+      <c r="T19" s="19">
+        <v>0.49305555555555503</v>
+      </c>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="19">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="19">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="19">
+        <v>0.58958333333333401</v>
+      </c>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="19">
+        <v>0.65972222222222299</v>
+      </c>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="19">
+        <v>0.67291666666666705</v>
+      </c>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="19">
+        <v>0.74305555555555702</v>
+      </c>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="19">
+        <v>0.75625000000000098</v>
+      </c>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="19">
+        <v>0.82638888888889095</v>
+      </c>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="19">
+        <v>0.83958333333333401</v>
+      </c>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="19">
+        <v>0.86805555555555802</v>
+      </c>
+      <c r="AY19" s="19">
+        <v>0.90972222222222499</v>
+      </c>
+      <c r="BB19" s="19">
+        <v>0.92291666666666705</v>
+      </c>
+      <c r="BC19" s="19">
+        <v>0.95138888888889195</v>
+      </c>
+      <c r="BF19" s="19">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="BH19" s="19">
+        <v>1.0062500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" s="18" customFormat="1">
+      <c r="A20" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.26319444444444445</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.30486111111111108</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.31944444444444448</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.34652777777777799</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="42"/>
-        <v>0.38819444444444468</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="42"/>
-        <v>0.40277777777777779</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="43"/>
-        <v>0.42986111111111136</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="43"/>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="43"/>
-        <v>0.47152777777777805</v>
-      </c>
-      <c r="L7" s="4">
-        <f t="shared" si="43"/>
-        <v>0.48611111111111116</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="44"/>
-        <v>0.51319444444444473</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="45"/>
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="O7" s="4">
-        <f t="shared" si="46"/>
-        <v>0.55486111111111136</v>
-      </c>
-      <c r="P7" s="4">
-        <f t="shared" si="47"/>
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="48"/>
-        <v>0.59652777777777799</v>
-      </c>
-      <c r="R7" s="4">
-        <f t="shared" si="49"/>
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="50"/>
-        <v>0.63819444444444462</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="51"/>
-        <v>0.65277777777777768</v>
-      </c>
-      <c r="U7" s="4">
-        <f t="shared" si="52"/>
-        <v>0.67986111111111125</v>
-      </c>
-      <c r="V7" s="4">
-        <f t="shared" si="53"/>
-        <v>0.69444444444444431</v>
-      </c>
-      <c r="W7" s="4">
-        <f t="shared" si="54"/>
-        <v>0.72152777777777788</v>
-      </c>
-      <c r="X7" s="4">
-        <f t="shared" si="55"/>
-        <v>0.73611111111111094</v>
-      </c>
-      <c r="Y7" s="4">
-        <f t="shared" si="56"/>
-        <v>0.76319444444444451</v>
-      </c>
-      <c r="Z7" s="4">
-        <f t="shared" si="57"/>
-        <v>0.77777777777777757</v>
-      </c>
-      <c r="AA7" s="4">
-        <f t="shared" si="58"/>
-        <v>0.80486111111111114</v>
-      </c>
-      <c r="AB7" s="4">
-        <f t="shared" si="59"/>
-        <v>0.8194444444444442</v>
-      </c>
-      <c r="AC7" s="4">
-        <f t="shared" si="60"/>
-        <v>0.84652777777777777</v>
-      </c>
-      <c r="AD7" s="4">
-        <f t="shared" si="61"/>
-        <v>0.86111111111111083</v>
-      </c>
-      <c r="AE7" s="4">
-        <f t="shared" si="62"/>
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="AF7" s="4">
-        <f t="shared" si="63"/>
-        <v>0.90277777777777746</v>
-      </c>
-      <c r="AG7" s="4">
-        <f t="shared" si="63"/>
-        <v>0.92986111111111103</v>
-      </c>
-      <c r="AH7" s="4">
-        <v>1.9451388888888901</v>
-      </c>
-      <c r="AI7" s="4">
-        <v>0.97152777777777777</v>
-      </c>
-      <c r="AJ7" s="4">
-        <v>0.9868055555555556</v>
-      </c>
-      <c r="AK7" s="4">
-        <v>2.8472222222222222E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
-      <c r="A8" t="s">
+      <c r="B20" s="19">
+        <v>0.24236111111111111</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="19">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="19">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="19">
+        <v>0.38194444444444398</v>
+      </c>
+      <c r="M20" s="19">
+        <v>0.40902777777777799</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="19">
+        <v>0.42361111111111099</v>
+      </c>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="19">
+        <v>0.46527777777777801</v>
+      </c>
+      <c r="T20" s="19">
+        <v>0.49236111111111103</v>
+      </c>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="19">
+        <v>0.50694444444444398</v>
+      </c>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="19">
+        <v>0.57569444444444495</v>
+      </c>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="19">
+        <v>0.59027777777777701</v>
+      </c>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="19">
+        <v>0.65902777777777899</v>
+      </c>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="19">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="19">
+        <v>0.74236111111111303</v>
+      </c>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="19">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="19">
+        <v>0.82569444444444695</v>
+      </c>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="19">
+        <v>0.84027777777777701</v>
+      </c>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="19">
+        <v>0.86736111111111402</v>
+      </c>
+      <c r="AY20" s="19">
+        <v>0.90902777777778099</v>
+      </c>
+      <c r="BB20" s="19">
+        <v>0.92361111111111005</v>
+      </c>
+      <c r="BC20" s="19">
+        <v>0.95069444444444795</v>
+      </c>
+      <c r="BF20" s="19">
+        <v>0.99236111111111114</v>
+      </c>
+      <c r="BH20" s="19">
+        <v>1.00694444444444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" s="18" customFormat="1">
+      <c r="A21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.25833333333333336</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.34166666666666701</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="42"/>
-        <v>0.38333333333333369</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="42"/>
-        <v>0.40833333333333338</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="43"/>
-        <v>0.42500000000000038</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="43"/>
-        <v>0.45000000000000007</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="43"/>
-        <v>0.46666666666666706</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="43"/>
-        <v>0.49166666666666675</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="44"/>
-        <v>0.50833333333333375</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="45"/>
-        <v>0.53333333333333344</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="46"/>
-        <v>0.55000000000000038</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" si="47"/>
-        <v>0.57500000000000007</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="48"/>
-        <v>0.59166666666666701</v>
-      </c>
-      <c r="R8" s="4">
-        <f t="shared" si="49"/>
-        <v>0.6166666666666667</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="50"/>
-        <v>0.63333333333333364</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="51"/>
-        <v>0.65833333333333333</v>
-      </c>
-      <c r="U8" s="4">
-        <f t="shared" si="52"/>
-        <v>0.67500000000000027</v>
-      </c>
-      <c r="V8" s="4">
-        <f t="shared" si="53"/>
-        <v>0.7</v>
-      </c>
-      <c r="W8" s="4">
-        <f t="shared" si="54"/>
-        <v>0.7166666666666669</v>
-      </c>
-      <c r="X8" s="4">
-        <f t="shared" si="55"/>
-        <v>0.74166666666666659</v>
-      </c>
-      <c r="Y8" s="4">
-        <f t="shared" si="56"/>
-        <v>0.75833333333333353</v>
-      </c>
-      <c r="Z8" s="4">
-        <f t="shared" si="57"/>
-        <v>0.78333333333333321</v>
-      </c>
-      <c r="AA8" s="4">
-        <f t="shared" si="58"/>
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="AB8" s="4">
-        <f t="shared" si="59"/>
-        <v>0.82499999999999984</v>
-      </c>
-      <c r="AC8" s="4">
-        <f t="shared" si="60"/>
-        <v>0.84166666666666679</v>
-      </c>
-      <c r="AD8" s="4">
-        <f t="shared" si="61"/>
-        <v>0.86666666666666647</v>
-      </c>
-      <c r="AE8" s="4">
-        <f t="shared" si="62"/>
-        <v>0.88333333333333341</v>
-      </c>
-      <c r="AF8" s="4">
-        <f t="shared" si="63"/>
-        <v>0.9083333333333331</v>
-      </c>
-      <c r="AG8" s="4">
-        <f t="shared" si="63"/>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="AH8" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="AI8" s="4">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>0.9916666666666667</v>
-      </c>
-      <c r="AK8" s="4">
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
-      <c r="B9" s="3" t="s">
+      <c r="B21" s="19">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="19">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="19">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="19">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0.40416666666666701</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="19">
+        <v>0.42916666666666697</v>
+      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="19">
+        <v>0.47083333333333399</v>
+      </c>
+      <c r="T21" s="19">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="19">
+        <v>0.51250000000000095</v>
+      </c>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="19">
+        <v>0.57083333333333397</v>
+      </c>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="19">
+        <v>0.59583333333333399</v>
+      </c>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="19">
+        <v>0.65416666666666801</v>
+      </c>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="19">
+        <v>0.67916666666666803</v>
+      </c>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="19">
+        <v>0.73750000000000204</v>
+      </c>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="19">
+        <v>0.76250000000000095</v>
+      </c>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="19">
+        <v>0.82083333333333597</v>
+      </c>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="19">
+        <v>0.84583333333333499</v>
+      </c>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="19">
+        <v>0.86250000000000304</v>
+      </c>
+      <c r="AY21" s="19">
+        <v>0.90416666666667</v>
+      </c>
+      <c r="BB21" s="19">
+        <v>0.92916666666666803</v>
+      </c>
+      <c r="BC21" s="19">
+        <v>0.94583333333333697</v>
+      </c>
+      <c r="BF21" s="19">
+        <v>0.98749999999999993</v>
+      </c>
+      <c r="BH21" s="19">
+        <v>1.0125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" s="18" customFormat="1">
+      <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f>C9</f>
-        <v>^</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f>D9</f>
-        <v>v</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" ref="I9:L9" si="64">E9</f>
-        <v>^</v>
-      </c>
-      <c r="J9" s="3" t="str">
-        <f t="shared" si="64"/>
-        <v>v</v>
-      </c>
-      <c r="K9" s="3" t="str">
-        <f t="shared" si="64"/>
-        <v>^</v>
-      </c>
-      <c r="L9" s="3" t="str">
-        <f t="shared" si="64"/>
-        <v>v</v>
-      </c>
-      <c r="M9" s="3" t="str">
-        <f t="shared" ref="M9" si="65">I9</f>
-        <v>^</v>
-      </c>
-      <c r="N9" s="3" t="str">
-        <f t="shared" ref="N9" si="66">J9</f>
-        <v>v</v>
-      </c>
-      <c r="O9" s="3" t="str">
-        <f t="shared" ref="O9" si="67">K9</f>
-        <v>^</v>
-      </c>
-      <c r="P9" s="3" t="str">
-        <f t="shared" ref="P9" si="68">L9</f>
-        <v>v</v>
-      </c>
-      <c r="Q9" s="3" t="str">
-        <f t="shared" ref="Q9" si="69">M9</f>
-        <v>^</v>
-      </c>
-      <c r="R9" s="3" t="str">
-        <f t="shared" ref="R9" si="70">N9</f>
-        <v>v</v>
-      </c>
-      <c r="S9" s="3" t="str">
-        <f t="shared" ref="S9" si="71">O9</f>
-        <v>^</v>
-      </c>
-      <c r="T9" s="3" t="str">
-        <f t="shared" ref="T9" si="72">P9</f>
-        <v>v</v>
-      </c>
-      <c r="U9" s="3" t="str">
-        <f t="shared" ref="U9" si="73">Q9</f>
-        <v>^</v>
-      </c>
-      <c r="V9" s="3" t="str">
-        <f t="shared" ref="V9" si="74">R9</f>
-        <v>v</v>
-      </c>
-      <c r="W9" s="3" t="str">
-        <f t="shared" ref="W9" si="75">S9</f>
-        <v>^</v>
-      </c>
-      <c r="X9" s="3" t="str">
-        <f t="shared" ref="X9" si="76">T9</f>
-        <v>v</v>
-      </c>
-      <c r="Y9" s="3" t="str">
-        <f t="shared" ref="Y9" si="77">U9</f>
-        <v>^</v>
-      </c>
-      <c r="Z9" s="3" t="str">
-        <f t="shared" ref="Z9" si="78">V9</f>
-        <v>v</v>
-      </c>
-      <c r="AA9" s="3" t="str">
-        <f t="shared" ref="AA9" si="79">W9</f>
-        <v>^</v>
-      </c>
-      <c r="AB9" s="3" t="str">
-        <f t="shared" ref="AB9" si="80">X9</f>
-        <v>v</v>
-      </c>
-      <c r="AC9" s="3" t="str">
-        <f t="shared" ref="AC9" si="81">Y9</f>
-        <v>^</v>
-      </c>
-      <c r="AD9" s="3" t="str">
-        <f t="shared" ref="AD9" si="82">Z9</f>
-        <v>v</v>
-      </c>
-      <c r="AE9" s="3" t="str">
-        <f t="shared" ref="AE9" si="83">AA9</f>
-        <v>^</v>
-      </c>
-      <c r="AF9" s="3" t="str">
-        <f t="shared" ref="AF9:AG9" si="84">AB9</f>
-        <v>v</v>
-      </c>
-      <c r="AG9" s="3" t="str">
-        <f t="shared" si="84"/>
-        <v>^</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI9" s="3" t="s">
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AJ9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="B10" s="3">
-        <v>70719</v>
-      </c>
-      <c r="C10" s="3">
-        <v>70723</v>
-      </c>
-      <c r="D10" s="3">
-        <v>70716</v>
-      </c>
-      <c r="E10" s="3">
-        <v>70727</v>
-      </c>
-      <c r="F10" s="3">
-        <v>70720</v>
-      </c>
-      <c r="G10" s="3">
-        <f>E10+4</f>
-        <v>70731</v>
-      </c>
-      <c r="H10" s="3">
-        <f>F10+4</f>
-        <v>70724</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" ref="I10:L10" si="85">G10+4</f>
-        <v>70735</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="85"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH22" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" s="18" customFormat="1">
+      <c r="B23" s="10">
+        <v>71617</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10">
+        <v>71614</v>
+      </c>
+      <c r="F23" s="10">
+        <v>71625</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10">
+        <v>80108</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10">
+        <f>L16+70000</f>
+        <v>71622</v>
+      </c>
+      <c r="M23" s="10">
+        <f>M16+70000</f>
+        <v>71633</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10">
+        <f>P16+70000</f>
+        <v>71626</v>
+      </c>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10">
+        <f>S16+70000</f>
+        <v>71630</v>
+      </c>
+      <c r="T23" s="10">
+        <f>T16+70000</f>
+        <v>71641</v>
+      </c>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10">
+        <f>W16+70000</f>
+        <v>71634</v>
+      </c>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10">
+        <f>Z16+70000</f>
+        <v>71649</v>
+      </c>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10">
+        <f>AC16+70000</f>
+        <v>71642</v>
+      </c>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10">
+        <f>AF16+70000</f>
+        <v>71657</v>
+      </c>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10">
+        <f>AI16+70000</f>
+        <v>71650</v>
+      </c>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10">
+        <f>AL16+70000</f>
+        <v>71665</v>
+      </c>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10">
+        <f>AO16+70000</f>
+        <v>71658</v>
+      </c>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10">
+        <f>AR16+70000</f>
+        <v>71673</v>
+      </c>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10">
+        <f>AU16+70000</f>
+        <v>71666</v>
+      </c>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10">
+        <f>AW16+70000</f>
+        <v>71677</v>
+      </c>
+      <c r="AY23" s="10">
+        <f>AY16+70000</f>
+        <v>71681</v>
+      </c>
+      <c r="BB23" s="10">
+        <f>BB16+70000</f>
+        <v>71674</v>
+      </c>
+      <c r="BC23" s="10">
+        <f>BC16+70000</f>
+        <v>71685</v>
+      </c>
+      <c r="BF23" s="10">
+        <f>BF16+70000</f>
+        <v>71689</v>
+      </c>
+      <c r="BH23" s="10">
+        <f>BH16+70000</f>
+        <v>71682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60" s="18" customFormat="1">
+      <c r="B24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX24" s="10"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+      <c r="BE24" s="10"/>
+      <c r="BF24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG24" s="10"/>
+      <c r="BH24" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" s="18" customFormat="1">
+      <c r="B25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10">
         <v>70728</v>
       </c>
-      <c r="K10" s="3">
-        <f t="shared" si="85"/>
-        <v>70739</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" si="85"/>
-        <v>70732</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" ref="M10" si="86">K10+4</f>
-        <v>70743</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" ref="N10" si="87">L10+4</f>
-        <v>70736</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" ref="O10" si="88">M10+4</f>
-        <v>70747</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" ref="P10" si="89">N10+4</f>
-        <v>70740</v>
-      </c>
-      <c r="Q10" s="3">
-        <f t="shared" ref="Q10" si="90">O10+4</f>
-        <v>70751</v>
-      </c>
-      <c r="R10" s="3">
-        <f t="shared" ref="R10" si="91">P10+4</f>
-        <v>70744</v>
-      </c>
-      <c r="S10" s="3">
-        <f t="shared" ref="S10" si="92">Q10+4</f>
-        <v>70755</v>
-      </c>
-      <c r="T10" s="3">
-        <f t="shared" ref="T10" si="93">R10+4</f>
-        <v>70748</v>
-      </c>
-      <c r="U10" s="3">
-        <f t="shared" ref="U10" si="94">S10+4</f>
-        <v>70759</v>
-      </c>
-      <c r="V10" s="3">
-        <f t="shared" ref="V10" si="95">T10+4</f>
-        <v>70752</v>
-      </c>
-      <c r="W10" s="3">
-        <f t="shared" ref="W10" si="96">U10+4</f>
-        <v>70763</v>
-      </c>
-      <c r="X10" s="3">
-        <f t="shared" ref="X10" si="97">V10+4</f>
-        <v>70756</v>
-      </c>
-      <c r="Y10" s="3">
-        <f t="shared" ref="Y10" si="98">W10+4</f>
-        <v>70767</v>
-      </c>
-      <c r="Z10" s="3">
-        <f t="shared" ref="Z10" si="99">X10+4</f>
-        <v>70760</v>
-      </c>
-      <c r="AA10" s="3">
-        <f t="shared" ref="AA10" si="100">Y10+4</f>
-        <v>70771</v>
-      </c>
-      <c r="AB10" s="3">
-        <f t="shared" ref="AB10" si="101">Z10+4</f>
-        <v>70764</v>
-      </c>
-      <c r="AC10" s="3">
-        <f t="shared" ref="AC10" si="102">AA10+4</f>
-        <v>70775</v>
-      </c>
-      <c r="AD10" s="3">
-        <f t="shared" ref="AD10" si="103">AB10+4</f>
-        <v>70768</v>
-      </c>
-      <c r="AE10" s="3">
-        <f t="shared" ref="AE10" si="104">AC10+4</f>
-        <v>70779</v>
-      </c>
-      <c r="AF10" s="3">
-        <f t="shared" ref="AF10:AG10" si="105">AD10+4</f>
-        <v>70772</v>
-      </c>
-      <c r="AG10" s="3">
-        <f t="shared" si="105"/>
-        <v>70783</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>70776</v>
-      </c>
-      <c r="AI10" s="3">
-        <v>70787</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>70780</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>70784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
-      <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD11" s="3" t="s">
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>221</v>
+      </c>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE25" s="10">
+        <v>221</v>
+      </c>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK25" s="10">
+        <v>221</v>
+      </c>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ25" s="10">
+        <v>221</v>
+      </c>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AH11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="B12" s="3" t="s">
+      <c r="AX25" s="10"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="10"/>
+      <c r="BE25" s="10"/>
+      <c r="BF25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG25" s="10"/>
+      <c r="BH25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="3">
-        <v>71626</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK12" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37">
-      <c r="J13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH13" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37">
-      <c r="J14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH14" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37">
-      <c r="B16" s="3">
-        <v>1617</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1614</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1625</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1618</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1622</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1633</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1626</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1630</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1641</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1634</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1649</v>
-      </c>
-      <c r="M16" s="3">
-        <v>1642</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1657</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1650</v>
-      </c>
-      <c r="P16" s="3">
-        <v>1665</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1658</v>
-      </c>
-      <c r="R16" s="3">
-        <v>1673</v>
-      </c>
-      <c r="S16" s="3">
-        <v>1666</v>
-      </c>
-      <c r="T16" s="3">
-        <v>1677</v>
-      </c>
-      <c r="U16" s="3">
-        <v>1681</v>
-      </c>
-      <c r="V16" s="3">
-        <v>1674</v>
-      </c>
-      <c r="W16" s="3">
-        <v>1685</v>
-      </c>
-      <c r="X16" s="3">
-        <v>1689</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.24583333333333335</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.29583333333333334</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.32847222222222222</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.33749999999999997</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.37916666666666698</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.41180555555555598</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0.420833333333333</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0.49513888888888902</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.50416666666666599</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0.57847222222222305</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0.58749999999999902</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0.66180555555555698</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.67083333333333295</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0.74513888888889102</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0.75416666666666599</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0.82847222222222505</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0.83749999999999902</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0.87013888888889201</v>
-      </c>
-      <c r="U18" s="4">
-        <v>0.91180555555555898</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0.92083333333333195</v>
-      </c>
-      <c r="W18" s="4">
-        <v>0.95347222222222605</v>
-      </c>
-      <c r="X18" s="4">
-        <v>0.99513888888888891</v>
-      </c>
-      <c r="Y18" s="4">
-        <v>1.00416666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.24305555555555555</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.29791666666666666</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.33958333333333335</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.38124999999999998</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.40972222222222199</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.422916666666667</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.46458333333333401</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.49305555555555503</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.50624999999999998</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0.58958333333333401</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0.65972222222222299</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0.67291666666666705</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0.74305555555555702</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0.75625000000000098</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0.82638888888889095</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0.83958333333333401</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0.86805555555555802</v>
-      </c>
-      <c r="U19" s="4">
-        <v>0.90972222222222499</v>
-      </c>
-      <c r="V19" s="4">
-        <v>0.92291666666666705</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0.95138888888889195</v>
-      </c>
-      <c r="X19" s="4">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>1.0062500000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.24236111111111111</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.32569444444444445</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.38194444444444398</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.40902777777777799</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.42361111111111099</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0.46527777777777801</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.49236111111111103</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.50694444444444398</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0.57569444444444495</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0.59027777777777701</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0.65902777777777899</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0.67361111111111105</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0.74236111111111303</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>0.75694444444444398</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0.82569444444444695</v>
-      </c>
-      <c r="S20" s="4">
-        <v>0.84027777777777701</v>
-      </c>
-      <c r="T20" s="4">
-        <v>0.86736111111111402</v>
-      </c>
-      <c r="U20" s="4">
-        <v>0.90902777777778099</v>
-      </c>
-      <c r="V20" s="4">
-        <v>0.92361111111111005</v>
-      </c>
-      <c r="W20" s="4">
-        <v>0.95069444444444795</v>
-      </c>
-      <c r="X20" s="4">
-        <v>0.99236111111111114</v>
-      </c>
-      <c r="Y20" s="4">
-        <v>1.00694444444444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.23750000000000002</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.30416666666666664</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.32083333333333336</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.34583333333333338</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.40416666666666701</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0.42916666666666697</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.47083333333333399</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.48749999999999999</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.51250000000000095</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0.57083333333333397</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0.59583333333333399</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0.65416666666666801</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0.67916666666666803</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0.73750000000000204</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0.76250000000000095</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0.82083333333333597</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0.84583333333333499</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0.86250000000000304</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0.90416666666667</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0.92916666666666803</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0.94583333333333697</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0.98749999999999993</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>1.0125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="B23" s="3">
-        <v>71617</v>
-      </c>
-      <c r="C23" s="3">
-        <v>71614</v>
-      </c>
-      <c r="D23" s="3">
-        <v>71625</v>
-      </c>
-      <c r="E23" s="3">
-        <v>80108</v>
-      </c>
-      <c r="F23" s="3">
-        <f>F16+70000</f>
-        <v>71622</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" ref="G23:Y23" si="106">G16+70000</f>
-        <v>71633</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="106"/>
-        <v>71626</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" si="106"/>
-        <v>71630</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="106"/>
-        <v>71641</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="106"/>
-        <v>71634</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="106"/>
-        <v>71649</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" si="106"/>
-        <v>71642</v>
-      </c>
-      <c r="N23" s="3">
-        <f t="shared" si="106"/>
-        <v>71657</v>
-      </c>
-      <c r="O23" s="3">
-        <f t="shared" si="106"/>
-        <v>71650</v>
-      </c>
-      <c r="P23" s="3">
-        <f t="shared" si="106"/>
-        <v>71665</v>
-      </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="106"/>
-        <v>71658</v>
-      </c>
-      <c r="R23" s="3">
-        <f t="shared" si="106"/>
-        <v>71673</v>
-      </c>
-      <c r="S23" s="3">
-        <f t="shared" si="106"/>
-        <v>71666</v>
-      </c>
-      <c r="T23" s="3">
-        <f t="shared" si="106"/>
-        <v>71677</v>
-      </c>
-      <c r="U23" s="3">
-        <f t="shared" si="106"/>
-        <v>71681</v>
-      </c>
-      <c r="V23" s="3">
-        <f t="shared" si="106"/>
-        <v>71674</v>
-      </c>
-      <c r="W23" s="3">
-        <f t="shared" si="106"/>
-        <v>71685</v>
-      </c>
-      <c r="X23" s="3">
-        <f t="shared" si="106"/>
-        <v>71689</v>
-      </c>
-      <c r="Y23" s="3">
-        <f t="shared" si="106"/>
-        <v>71682</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="B24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="3" t="s">
+    </row>
+    <row r="26" spans="1:60" s="18" customFormat="1">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="B25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="3">
-        <v>70728</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="H26" s="3" t="s">
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" s="18" customFormat="1">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="H27" s="3" t="s">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="10"/>
+    </row>
+    <row r="28" spans="1:60" s="18" customFormat="1">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="H28" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="I30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="I31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="1:25">
-      <c r="I32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="9:19">
-      <c r="I33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="S33" s="4"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="10"/>
+    </row>
+    <row r="30" spans="1:60" s="18" customFormat="1">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="10"/>
+    </row>
+    <row r="31" spans="1:60" s="18" customFormat="1">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="10"/>
+      <c r="AS31" s="10"/>
+      <c r="AT31" s="10"/>
+      <c r="AU31" s="10"/>
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="10"/>
+    </row>
+    <row r="32" spans="1:60" s="18" customFormat="1">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="10"/>
+      <c r="AQ32" s="10"/>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10"/>
+      <c r="AV32" s="10"/>
+      <c r="AW32" s="10"/>
+    </row>
+    <row r="33" spans="2:49" s="18" customFormat="1">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="10"/>
+      <c r="AU33" s="10"/>
+      <c r="AV33" s="10"/>
+      <c r="AW33" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schiphollijn/Hfdo_plan.xlsx
+++ b/Schiphollijn/Hfdo_plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="100">
   <si>
     <t>Shl</t>
   </si>
@@ -240,33 +240,15 @@
     <t>(van</t>
   </si>
   <si>
-    <t>(wordt met</t>
-  </si>
-  <si>
-    <t>gekoppeld,</t>
-  </si>
-  <si>
     <t>over op</t>
   </si>
   <si>
-    <t>70739)</t>
-  </si>
-  <si>
-    <t>gekoppeld)</t>
-  </si>
-  <si>
     <t>(deel wordt</t>
   </si>
   <si>
     <t>afgekoppeld</t>
   </si>
   <si>
-    <t>71681)</t>
-  </si>
-  <si>
-    <t>70768)</t>
-  </si>
-  <si>
     <t>70776)</t>
   </si>
   <si>
@@ -291,9 +273,6 @@
     <t>Leiden)</t>
   </si>
   <si>
-    <t>3x 5700</t>
-  </si>
-  <si>
     <t>(7)5719</t>
   </si>
   <si>
@@ -303,12 +282,6 @@
     <t>spoor</t>
   </si>
   <si>
-    <t>als 71677)</t>
-  </si>
-  <si>
-    <t>(over op</t>
-  </si>
-  <si>
     <t>Globaal spoor: 222</t>
   </si>
   <si>
@@ -324,18 +297,9 @@
     <t>(70)731</t>
   </si>
   <si>
-    <t>spoor 221</t>
-  </si>
-  <si>
-    <t>spoor 222</t>
-  </si>
-  <si>
     <t>als 71689)</t>
   </si>
   <si>
-    <t>(wordt aan</t>
-  </si>
-  <si>
     <t>71617 vertrekt van 222, 70719 (en 70723) blijft over</t>
   </si>
   <si>
@@ -346,13 +310,22 @@
   </si>
   <si>
     <t>75717 vertrekt van 221, 73723 blijft over</t>
+  </si>
+  <si>
+    <t>als 71681)</t>
+  </si>
+  <si>
+    <t>2x 5700</t>
+  </si>
+  <si>
+    <t>1x 5700</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +335,14 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -500,6 +481,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -797,7 +788,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -814,7 +805,7 @@
         <v>0.23680555555555557</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -846,7 +837,7 @@
         <v>0.23750000000000002</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -872,7 +863,7 @@
         <v>0.24652777777777779</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -889,7 +880,7 @@
         <v>0.25833333333333336</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -915,7 +906,7 @@
         <v>3200</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G6" s="3">
         <v>3300</v>
@@ -924,7 +915,7 @@
         <v>3100</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -937,9 +928,10 @@
       <c r="G7" s="3">
         <v>3300</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="H7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:18">
       <c r="I8" s="3"/>
@@ -3161,19 +3153,19 @@
     </row>
     <row r="30" spans="1:17">
       <c r="G30" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17">
       <c r="G31" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17">
       <c r="G32" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3441,7 +3433,7 @@
     </row>
     <row r="13" spans="1:28">
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -3755,7 +3747,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G19" s="19">
         <v>0.32222222222222224</v>
@@ -3831,7 +3823,7 @@
         <v>28</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -3895,7 +3887,7 @@
         <v>0.27361111111111108</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -5238,146 +5230,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI33"/>
+  <dimension ref="A1:BH34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AX16" sqref="AX16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="49" width="9.140625" style="10"/>
-    <col min="50" max="16384" width="9.140625" style="18"/>
+    <col min="2" max="48" width="9.140625" style="10"/>
+    <col min="49" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="18" customFormat="1">
+    <row r="1" spans="1:60">
       <c r="A1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
       <c r="AW1" s="10"/>
       <c r="AX1" s="10"/>
       <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-    </row>
-    <row r="2" spans="1:61" s="18" customFormat="1">
+    </row>
+    <row r="2" spans="1:60">
       <c r="A2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
+        <v>87</v>
+      </c>
       <c r="AW2" s="10"/>
       <c r="AX2" s="10"/>
       <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-    </row>
-    <row r="3" spans="1:61" s="18" customFormat="1">
-      <c r="B3" s="10"/>
+    </row>
+    <row r="3" spans="1:60">
       <c r="C3" s="10">
         <v>719</v>
       </c>
       <c r="D3" s="10">
         <v>723</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
       <c r="G3" s="10">
         <v>716</v>
       </c>
       <c r="H3" s="10">
         <v>727</v>
       </c>
-      <c r="I3" s="10"/>
       <c r="J3" s="10">
         <v>720</v>
       </c>
@@ -5385,8 +5279,6 @@
         <f>H3+4</f>
         <v>731</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
       <c r="N3" s="10">
         <f>J3+4</f>
         <v>724</v>
@@ -5395,7 +5287,6 @@
         <f>K3+4</f>
         <v>735</v>
       </c>
-      <c r="P3" s="10"/>
       <c r="Q3" s="10">
         <f>N3+4</f>
         <v>728</v>
@@ -5404,141 +5295,125 @@
         <f>O3+4</f>
         <v>739</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10">
+      <c r="T3" s="10">
         <f>Q3+4</f>
         <v>732</v>
       </c>
-      <c r="V3" s="10">
-        <f t="shared" ref="V3" si="0">R3+4</f>
+      <c r="U3" s="10">
+        <f t="shared" ref="U3" si="0">R3+4</f>
         <v>743</v>
       </c>
-      <c r="W3" s="10"/>
+      <c r="W3" s="10">
+        <f>T3+4</f>
+        <v>736</v>
+      </c>
       <c r="X3" s="10">
         <f>U3+4</f>
-        <v>736</v>
-      </c>
-      <c r="Y3" s="10">
-        <f>V3+4</f>
         <v>747</v>
       </c>
-      <c r="Z3" s="10"/>
+      <c r="Z3" s="10">
+        <f>W3+4</f>
+        <v>740</v>
+      </c>
       <c r="AA3" s="10">
         <f>X3+4</f>
-        <v>740</v>
-      </c>
-      <c r="AB3" s="10">
-        <f>Y3+4</f>
         <v>751</v>
       </c>
-      <c r="AC3" s="10"/>
+      <c r="AC3" s="10">
+        <f t="shared" ref="AC3" si="1">Z3+4</f>
+        <v>744</v>
+      </c>
       <c r="AD3" s="10">
-        <f t="shared" ref="AD3" si="1">AA3+4</f>
-        <v>744</v>
-      </c>
-      <c r="AE3" s="10">
-        <f t="shared" ref="AE3" si="2">AB3+4</f>
+        <f t="shared" ref="AD3" si="2">AA3+4</f>
         <v>755</v>
       </c>
-      <c r="AF3" s="10"/>
+      <c r="AF3" s="10">
+        <f t="shared" ref="AF3" si="3">AC3+4</f>
+        <v>748</v>
+      </c>
       <c r="AG3" s="10">
-        <f t="shared" ref="AG3" si="3">AD3+4</f>
-        <v>748</v>
-      </c>
-      <c r="AH3" s="10">
-        <f t="shared" ref="AH3" si="4">AE3+4</f>
+        <f t="shared" ref="AG3" si="4">AD3+4</f>
         <v>759</v>
       </c>
-      <c r="AI3" s="10"/>
+      <c r="AI3" s="10">
+        <f t="shared" ref="AI3" si="5">AF3+4</f>
+        <v>752</v>
+      </c>
       <c r="AJ3" s="10">
-        <f t="shared" ref="AJ3" si="5">AG3+4</f>
-        <v>752</v>
-      </c>
-      <c r="AK3" s="10">
-        <f t="shared" ref="AK3" si="6">AH3+4</f>
+        <f t="shared" ref="AJ3" si="6">AG3+4</f>
         <v>763</v>
       </c>
-      <c r="AL3" s="10"/>
+      <c r="AL3" s="10">
+        <f t="shared" ref="AL3" si="7">AI3+4</f>
+        <v>756</v>
+      </c>
       <c r="AM3" s="10">
-        <f t="shared" ref="AM3" si="7">AJ3+4</f>
-        <v>756</v>
-      </c>
-      <c r="AN3" s="10">
-        <f t="shared" ref="AN3" si="8">AK3+4</f>
+        <f t="shared" ref="AM3" si="8">AJ3+4</f>
         <v>767</v>
       </c>
-      <c r="AO3" s="10"/>
+      <c r="AO3" s="10">
+        <f t="shared" ref="AO3" si="9">AL3+4</f>
+        <v>760</v>
+      </c>
       <c r="AP3" s="10">
-        <f t="shared" ref="AP3" si="9">AM3+4</f>
-        <v>760</v>
-      </c>
-      <c r="AQ3" s="10">
-        <f t="shared" ref="AQ3" si="10">AN3+4</f>
+        <f t="shared" ref="AP3" si="10">AM3+4</f>
         <v>771</v>
       </c>
-      <c r="AR3" s="10"/>
+      <c r="AR3" s="10">
+        <f t="shared" ref="AR3" si="11">AO3+4</f>
+        <v>764</v>
+      </c>
       <c r="AS3" s="10">
-        <f t="shared" ref="AS3" si="11">AP3+4</f>
-        <v>764</v>
-      </c>
-      <c r="AT3" s="10">
-        <f t="shared" ref="AT3" si="12">AQ3+4</f>
+        <f t="shared" ref="AS3" si="12">AP3+4</f>
         <v>775</v>
       </c>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10">
-        <f>AS3+4</f>
+      <c r="AV3" s="22">
+        <f>AR3+4</f>
         <v>768</v>
       </c>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10">
-        <f t="shared" ref="AX3" si="13">AT3+4</f>
+      <c r="AW3" s="10">
+        <f t="shared" ref="AW3" si="13">AS3+4</f>
         <v>779</v>
       </c>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10">
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10">
         <f>AV3+4</f>
         <v>772</v>
       </c>
-      <c r="BA3" s="10">
-        <f t="shared" ref="BA3" si="14">AX3+4</f>
+      <c r="AZ3" s="10">
+        <f t="shared" ref="AZ3" si="14">AW3+4</f>
         <v>783</v>
       </c>
+      <c r="BA3" s="10"/>
       <c r="BB3" s="10"/>
-      <c r="BC3" s="10"/>
+      <c r="BC3" s="10">
+        <v>776</v>
+      </c>
       <c r="BD3" s="10">
-        <v>776</v>
-      </c>
-      <c r="BE3" s="10">
         <v>787</v>
       </c>
-      <c r="BF3" s="10"/>
-      <c r="BG3" s="10">
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10">
         <v>780</v>
       </c>
-      <c r="BH3" s="10"/>
-      <c r="BI3" s="10">
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10">
         <v>784</v>
       </c>
     </row>
-    <row r="4" spans="1:61" s="18" customFormat="1">
-      <c r="B4" s="10"/>
+    <row r="4" spans="1:60">
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="10"/>
       <c r="J4" s="10" t="s">
         <v>28</v>
       </c>
@@ -5546,8 +5421,6 @@
         <f>D4</f>
         <v>^</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
       <c r="N4" s="10" t="str">
         <f>G4</f>
         <v>v</v>
@@ -5556,7 +5429,6 @@
         <f>H4</f>
         <v>^</v>
       </c>
-      <c r="P4" s="10"/>
       <c r="Q4" s="10" t="str">
         <f>J4</f>
         <v>v</v>
@@ -5565,144 +5437,128 @@
         <f>K4</f>
         <v>^</v>
       </c>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10" t="str">
+      <c r="T4" s="10" t="str">
         <f>N4</f>
         <v>v</v>
       </c>
-      <c r="V4" s="10" t="str">
-        <f t="shared" ref="V4" si="15">O4</f>
+      <c r="U4" s="10" t="str">
+        <f t="shared" ref="U4" si="15">O4</f>
         <v>^</v>
       </c>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10" t="str">
+      <c r="W4" s="10" t="str">
         <f>Q4</f>
         <v>v</v>
       </c>
-      <c r="Y4" s="10" t="str">
+      <c r="X4" s="10" t="str">
         <f>R4</f>
         <v>^</v>
       </c>
-      <c r="Z4" s="10"/>
+      <c r="Z4" s="10" t="str">
+        <f t="shared" ref="Z4" si="16">T4</f>
+        <v>v</v>
+      </c>
       <c r="AA4" s="10" t="str">
-        <f t="shared" ref="AA4" si="16">U4</f>
+        <f t="shared" ref="AA4" si="17">U4</f>
+        <v>^</v>
+      </c>
+      <c r="AC4" s="10" t="str">
+        <f>W4</f>
         <v>v</v>
       </c>
-      <c r="AB4" s="10" t="str">
-        <f t="shared" ref="AB4" si="17">V4</f>
-        <v>^</v>
-      </c>
-      <c r="AC4" s="10"/>
       <c r="AD4" s="10" t="str">
         <f>X4</f>
+        <v>^</v>
+      </c>
+      <c r="AF4" s="10" t="str">
+        <f t="shared" ref="AF4" si="18">Z4</f>
         <v>v</v>
       </c>
-      <c r="AE4" s="10" t="str">
-        <f>Y4</f>
+      <c r="AG4" s="10" t="str">
+        <f t="shared" ref="AG4" si="19">AA4</f>
         <v>^</v>
       </c>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10" t="str">
-        <f t="shared" ref="AG4" si="18">AA4</f>
+      <c r="AI4" s="10" t="str">
+        <f t="shared" ref="AI4" si="20">AC4</f>
         <v>v</v>
       </c>
-      <c r="AH4" s="10" t="str">
-        <f t="shared" ref="AH4" si="19">AB4</f>
+      <c r="AJ4" s="10" t="str">
+        <f t="shared" ref="AJ4" si="21">AD4</f>
         <v>^</v>
       </c>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10" t="str">
-        <f t="shared" ref="AJ4" si="20">AD4</f>
+      <c r="AL4" s="10" t="str">
+        <f t="shared" ref="AL4" si="22">AF4</f>
         <v>v</v>
       </c>
-      <c r="AK4" s="10" t="str">
-        <f t="shared" ref="AK4" si="21">AE4</f>
+      <c r="AM4" s="10" t="str">
+        <f t="shared" ref="AM4" si="23">AG4</f>
         <v>^</v>
       </c>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10" t="str">
-        <f t="shared" ref="AM4" si="22">AG4</f>
+      <c r="AO4" s="10" t="str">
+        <f t="shared" ref="AO4" si="24">AI4</f>
         <v>v</v>
       </c>
-      <c r="AN4" s="10" t="str">
-        <f t="shared" ref="AN4" si="23">AH4</f>
+      <c r="AP4" s="10" t="str">
+        <f t="shared" ref="AP4" si="25">AJ4</f>
         <v>^</v>
       </c>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10" t="str">
-        <f t="shared" ref="AP4" si="24">AJ4</f>
+      <c r="AR4" s="10" t="str">
+        <f t="shared" ref="AR4" si="26">AL4</f>
         <v>v</v>
       </c>
-      <c r="AQ4" s="10" t="str">
-        <f t="shared" ref="AQ4" si="25">AK4</f>
+      <c r="AS4" s="10" t="str">
+        <f t="shared" ref="AS4" si="27">AM4</f>
         <v>^</v>
       </c>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10" t="str">
-        <f t="shared" ref="AS4" si="26">AM4</f>
+      <c r="AV4" s="22" t="str">
+        <f>AO4</f>
         <v>v</v>
       </c>
-      <c r="AT4" s="10" t="str">
-        <f t="shared" ref="AT4" si="27">AN4</f>
+      <c r="AW4" s="10" t="str">
+        <f t="shared" ref="AW4" si="28">AP4</f>
         <v>^</v>
       </c>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10" t="str">
-        <f t="shared" ref="AV4" si="28">AP4</f>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10" t="str">
+        <f>AR4</f>
         <v>v</v>
       </c>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10" t="str">
-        <f t="shared" ref="AX4" si="29">AQ4</f>
+      <c r="AZ4" s="10" t="str">
+        <f t="shared" ref="AZ4" si="29">AS4</f>
         <v>^</v>
       </c>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="10" t="str">
-        <f>AS4</f>
-        <v>v</v>
-      </c>
-      <c r="BA4" s="10" t="str">
-        <f t="shared" ref="BA4" si="30">AT4</f>
-        <v>^</v>
-      </c>
+      <c r="BA4" s="10"/>
       <c r="BB4" s="10"/>
-      <c r="BC4" s="10"/>
+      <c r="BC4" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="BD4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="BH4" s="10"/>
-      <c r="BI4" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:61" s="18" customFormat="1">
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
       <c r="C5" s="19">
         <v>0.26666666666666666</v>
       </c>
       <c r="D5" s="19">
         <v>0.30833333333333335</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
       <c r="G5" s="19">
         <v>0.31527777777777777</v>
       </c>
       <c r="H5" s="19">
         <v>0.35</v>
       </c>
-      <c r="I5" s="10"/>
       <c r="J5" s="19">
         <v>0.35694444444444445</v>
       </c>
@@ -5710,163 +5566,154 @@
         <f>H5+TIME(1,0,0)</f>
         <v>0.39166666666666666</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
       <c r="N5" s="19">
-        <f>J5+TIME(1,0,0)</f>
+        <f t="shared" ref="N5:O8" si="30">J5+TIME(1,0,0)</f>
         <v>0.39861111111111114</v>
       </c>
       <c r="O5" s="19">
-        <f>K5+TIME(1,0,0)</f>
+        <f t="shared" si="30"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19">
-        <f>N5+TIME(1,0,0)</f>
+        <f t="shared" ref="Q5:R8" si="31">N5+TIME(1,0,0)</f>
         <v>0.44027777777777782</v>
       </c>
       <c r="R5" s="19">
-        <f>O5+TIME(1,0,0)</f>
+        <f t="shared" si="31"/>
         <v>0.47500000000000003</v>
       </c>
       <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19">
+      <c r="T5" s="19">
         <f>Q5+TIME(1,0,0)</f>
         <v>0.48194444444444451</v>
       </c>
-      <c r="V5" s="19">
-        <f t="shared" ref="V5:V8" si="31">R5+TIME(1,0,0)</f>
+      <c r="U5" s="19">
+        <f t="shared" ref="U5:U8" si="32">R5+TIME(1,0,0)</f>
         <v>0.51666666666666672</v>
       </c>
-      <c r="W5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19">
+        <f t="shared" ref="W5:X8" si="33">T5+TIME(1,0,0)</f>
+        <v>0.52361111111111114</v>
+      </c>
       <c r="X5" s="19">
-        <f>U5+TIME(1,0,0)</f>
-        <v>0.52361111111111114</v>
-      </c>
-      <c r="Y5" s="19">
-        <f>V5+TIME(1,0,0)</f>
+        <f t="shared" si="33"/>
         <v>0.55833333333333335</v>
       </c>
-      <c r="Z5" s="10"/>
+      <c r="Z5" s="19">
+        <f t="shared" ref="Z5:AA8" si="34">W5+TIME(1,0,0)</f>
+        <v>0.56527777777777777</v>
+      </c>
       <c r="AA5" s="19">
-        <f>X5+TIME(1,0,0)</f>
-        <v>0.56527777777777777</v>
-      </c>
-      <c r="AB5" s="19">
-        <f>Y5+TIME(1,0,0)</f>
+        <f t="shared" si="34"/>
         <v>0.6</v>
       </c>
-      <c r="AC5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19">
+        <f t="shared" ref="AC5:AC8" si="35">Z5+TIME(1,0,0)</f>
+        <v>0.6069444444444444</v>
+      </c>
       <c r="AD5" s="19">
-        <f t="shared" ref="AD5:AD8" si="32">AA5+TIME(1,0,0)</f>
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="AE5" s="19">
-        <f t="shared" ref="AE5:AE8" si="33">AB5+TIME(1,0,0)</f>
+        <f t="shared" ref="AD5:AD8" si="36">AA5+TIME(1,0,0)</f>
         <v>0.64166666666666661</v>
       </c>
-      <c r="AF5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19">
+        <f t="shared" ref="AF5:AF8" si="37">AC5+TIME(1,0,0)</f>
+        <v>0.64861111111111103</v>
+      </c>
       <c r="AG5" s="19">
-        <f t="shared" ref="AG5:AG8" si="34">AD5+TIME(1,0,0)</f>
-        <v>0.64861111111111103</v>
-      </c>
-      <c r="AH5" s="19">
-        <f t="shared" ref="AH5:AH8" si="35">AE5+TIME(1,0,0)</f>
+        <f t="shared" ref="AG5:AG8" si="38">AD5+TIME(1,0,0)</f>
         <v>0.68333333333333324</v>
       </c>
-      <c r="AI5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19">
+        <f t="shared" ref="AI5:AI8" si="39">AF5+TIME(1,0,0)</f>
+        <v>0.69027777777777766</v>
+      </c>
       <c r="AJ5" s="19">
-        <f t="shared" ref="AJ5:AJ8" si="36">AG5+TIME(1,0,0)</f>
-        <v>0.69027777777777766</v>
-      </c>
-      <c r="AK5" s="19">
-        <f t="shared" ref="AK5:AK8" si="37">AH5+TIME(1,0,0)</f>
+        <f t="shared" ref="AJ5:AJ8" si="40">AG5+TIME(1,0,0)</f>
         <v>0.72499999999999987</v>
       </c>
-      <c r="AL5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19">
+        <f t="shared" ref="AL5:AL8" si="41">AI5+TIME(1,0,0)</f>
+        <v>0.73194444444444429</v>
+      </c>
       <c r="AM5" s="19">
-        <f t="shared" ref="AM5:AM8" si="38">AJ5+TIME(1,0,0)</f>
-        <v>0.73194444444444429</v>
-      </c>
-      <c r="AN5" s="19">
-        <f t="shared" ref="AN5:AN8" si="39">AK5+TIME(1,0,0)</f>
+        <f t="shared" ref="AM5:AM8" si="42">AJ5+TIME(1,0,0)</f>
         <v>0.7666666666666665</v>
       </c>
-      <c r="AO5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19">
+        <f t="shared" ref="AO5:AO8" si="43">AL5+TIME(1,0,0)</f>
+        <v>0.77361111111111092</v>
+      </c>
       <c r="AP5" s="19">
-        <f t="shared" ref="AP5:AP8" si="40">AM5+TIME(1,0,0)</f>
-        <v>0.77361111111111092</v>
-      </c>
-      <c r="AQ5" s="19">
-        <f t="shared" ref="AQ5:AQ8" si="41">AN5+TIME(1,0,0)</f>
+        <f t="shared" ref="AP5:AP8" si="44">AM5+TIME(1,0,0)</f>
         <v>0.80833333333333313</v>
       </c>
-      <c r="AR5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19">
+        <f t="shared" ref="AR5:AR8" si="45">AO5+TIME(1,0,0)</f>
+        <v>0.81527777777777755</v>
+      </c>
       <c r="AS5" s="19">
-        <f t="shared" ref="AS5:AS8" si="42">AP5+TIME(1,0,0)</f>
-        <v>0.81527777777777755</v>
-      </c>
-      <c r="AT5" s="19">
-        <f t="shared" ref="AT5:AT8" si="43">AQ5+TIME(1,0,0)</f>
+        <f t="shared" ref="AS5:AS8" si="46">AP5+TIME(1,0,0)</f>
         <v>0.84999999999999976</v>
       </c>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19">
-        <f>AS5+TIME(1,0,0)</f>
+      <c r="AT5" s="19"/>
+      <c r="AV5" s="23">
+        <f>AR5+TIME(1,0,0)</f>
         <v>0.85694444444444418</v>
       </c>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19">
-        <f t="shared" ref="AX5:AX8" si="44">AT5+TIME(1,0,0)</f>
+      <c r="AW5" s="19">
+        <f t="shared" ref="AW5:AW8" si="47">AS5+TIME(1,0,0)</f>
         <v>0.89166666666666639</v>
       </c>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19">
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19">
         <f>AV5+TIME(1,0,0)</f>
         <v>0.89861111111111081</v>
       </c>
-      <c r="BA5" s="19">
-        <f t="shared" ref="BA5:BA8" si="45">AX5+TIME(1,0,0)</f>
+      <c r="AZ5" s="19">
+        <f t="shared" ref="AZ5:AZ8" si="48">AW5+TIME(1,0,0)</f>
         <v>0.93333333333333302</v>
       </c>
+      <c r="BA5" s="19"/>
       <c r="BB5" s="19"/>
-      <c r="BC5" s="19"/>
+      <c r="BC5" s="19">
+        <v>1.9395833333333301</v>
+      </c>
       <c r="BD5" s="19">
-        <v>1.9395833333333301</v>
-      </c>
-      <c r="BE5" s="19">
         <v>0.97499999999999998</v>
       </c>
-      <c r="BF5" s="19"/>
-      <c r="BG5" s="19">
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19">
         <v>0.9819444444444444</v>
       </c>
-      <c r="BH5" s="19"/>
-      <c r="BI5" s="19">
+      <c r="BG5" s="19"/>
+      <c r="BH5" s="19">
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="18" customFormat="1">
+    <row r="6" spans="1:60">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10"/>
       <c r="C6" s="19">
         <v>0.2638888888888889</v>
       </c>
       <c r="D6" s="19">
         <v>0.30555555555555552</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
       <c r="G6" s="19">
         <v>0.31875000000000003</v>
       </c>
       <c r="H6" s="19">
         <v>0.34722222222222227</v>
       </c>
-      <c r="I6" s="10"/>
       <c r="J6" s="19">
         <v>0.36041666666666666</v>
       </c>
@@ -5874,163 +5721,154 @@
         <f>H6+TIME(1,0,0)</f>
         <v>0.38888888888888895</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
       <c r="N6" s="19">
-        <f>J6+TIME(1,0,0)</f>
+        <f t="shared" si="30"/>
         <v>0.40208333333333335</v>
       </c>
       <c r="O6" s="19">
-        <f>K6+TIME(1,0,0)</f>
+        <f t="shared" si="30"/>
         <v>0.43055555555555564</v>
       </c>
       <c r="P6" s="19"/>
       <c r="Q6" s="19">
-        <f>N6+TIME(1,0,0)</f>
+        <f t="shared" si="31"/>
         <v>0.44375000000000003</v>
       </c>
       <c r="R6" s="19">
-        <f>O6+TIME(1,0,0)</f>
+        <f t="shared" si="31"/>
         <v>0.47222222222222232</v>
       </c>
       <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19">
+      <c r="T6" s="19">
         <f>Q6+TIME(1,0,0)</f>
         <v>0.48541666666666672</v>
       </c>
-      <c r="V6" s="19">
-        <f t="shared" si="31"/>
+      <c r="U6" s="19">
+        <f t="shared" si="32"/>
         <v>0.51388888888888895</v>
       </c>
-      <c r="W6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19">
+        <f t="shared" si="33"/>
+        <v>0.52708333333333335</v>
+      </c>
       <c r="X6" s="19">
-        <f>U6+TIME(1,0,0)</f>
-        <v>0.52708333333333335</v>
-      </c>
-      <c r="Y6" s="19">
-        <f>V6+TIME(1,0,0)</f>
+        <f t="shared" si="33"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="Z6" s="10"/>
+      <c r="Z6" s="19">
+        <f t="shared" si="34"/>
+        <v>0.56874999999999998</v>
+      </c>
       <c r="AA6" s="19">
-        <f>X6+TIME(1,0,0)</f>
-        <v>0.56874999999999998</v>
-      </c>
-      <c r="AB6" s="19">
-        <f>Y6+TIME(1,0,0)</f>
+        <f t="shared" si="34"/>
         <v>0.59722222222222221</v>
       </c>
-      <c r="AC6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19">
+        <f t="shared" si="35"/>
+        <v>0.61041666666666661</v>
+      </c>
       <c r="AD6" s="19">
-        <f t="shared" si="32"/>
-        <v>0.61041666666666661</v>
-      </c>
-      <c r="AE6" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.63888888888888884</v>
       </c>
-      <c r="AF6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19">
+        <f t="shared" si="37"/>
+        <v>0.65208333333333324</v>
+      </c>
       <c r="AG6" s="19">
-        <f t="shared" si="34"/>
-        <v>0.65208333333333324</v>
-      </c>
-      <c r="AH6" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.68055555555555547</v>
       </c>
-      <c r="AI6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19">
+        <f t="shared" si="39"/>
+        <v>0.69374999999999987</v>
+      </c>
       <c r="AJ6" s="19">
-        <f t="shared" si="36"/>
-        <v>0.69374999999999987</v>
-      </c>
-      <c r="AK6" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.7222222222222221</v>
       </c>
-      <c r="AL6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19">
+        <f t="shared" si="41"/>
+        <v>0.7354166666666665</v>
+      </c>
       <c r="AM6" s="19">
-        <f t="shared" si="38"/>
-        <v>0.7354166666666665</v>
-      </c>
-      <c r="AN6" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.76388888888888873</v>
       </c>
-      <c r="AO6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19">
+        <f t="shared" si="43"/>
+        <v>0.77708333333333313</v>
+      </c>
       <c r="AP6" s="19">
-        <f t="shared" si="40"/>
-        <v>0.77708333333333313</v>
-      </c>
-      <c r="AQ6" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.80555555555555536</v>
       </c>
-      <c r="AR6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19">
+        <f t="shared" si="45"/>
+        <v>0.81874999999999976</v>
+      </c>
       <c r="AS6" s="19">
-        <f t="shared" si="42"/>
-        <v>0.81874999999999976</v>
-      </c>
-      <c r="AT6" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.84722222222222199</v>
       </c>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19">
-        <f>AS6+TIME(1,0,0)</f>
+      <c r="AT6" s="19"/>
+      <c r="AV6" s="23">
+        <f>AR6+TIME(1,0,0)</f>
         <v>0.86041666666666639</v>
       </c>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19">
-        <f t="shared" si="44"/>
+      <c r="AW6" s="19">
+        <f t="shared" si="47"/>
         <v>0.88888888888888862</v>
       </c>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19">
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="19">
         <f>AV6+TIME(1,0,0)</f>
         <v>0.90208333333333302</v>
       </c>
-      <c r="BA6" s="19">
-        <f t="shared" si="45"/>
+      <c r="AZ6" s="19">
+        <f t="shared" si="48"/>
         <v>0.93055555555555525</v>
       </c>
+      <c r="BA6" s="19"/>
       <c r="BB6" s="19"/>
-      <c r="BC6" s="19"/>
+      <c r="BC6" s="19">
+        <v>1.9437500000000001</v>
+      </c>
       <c r="BD6" s="19">
-        <v>1.9437500000000001</v>
-      </c>
-      <c r="BE6" s="19">
         <v>0.97222222222222221</v>
       </c>
-      <c r="BF6" s="19"/>
-      <c r="BG6" s="19">
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19">
         <v>0.98541666666666661</v>
       </c>
-      <c r="BH6" s="19"/>
-      <c r="BI6" s="19">
+      <c r="BG6" s="19"/>
+      <c r="BH6" s="19">
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:61" s="18" customFormat="1">
+    <row r="7" spans="1:60">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10"/>
       <c r="C7" s="19">
         <v>0.26319444444444445</v>
       </c>
       <c r="D7" s="19">
         <v>0.30486111111111108</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
       <c r="G7" s="19">
         <v>0.31944444444444448</v>
       </c>
       <c r="H7" s="19">
         <v>0.34652777777777799</v>
       </c>
-      <c r="I7" s="10"/>
       <c r="J7" s="19">
         <v>0.3611111111111111</v>
       </c>
@@ -6038,163 +5876,154 @@
         <f>H7+TIME(1,0,0)</f>
         <v>0.38819444444444468</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
       <c r="N7" s="19">
-        <f>J7+TIME(1,0,0)</f>
+        <f t="shared" si="30"/>
         <v>0.40277777777777779</v>
       </c>
       <c r="O7" s="19">
-        <f>K7+TIME(1,0,0)</f>
+        <f t="shared" si="30"/>
         <v>0.42986111111111136</v>
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="19">
-        <f>N7+TIME(1,0,0)</f>
+        <f t="shared" si="31"/>
         <v>0.44444444444444448</v>
       </c>
       <c r="R7" s="19">
-        <f>O7+TIME(1,0,0)</f>
+        <f t="shared" si="31"/>
         <v>0.47152777777777805</v>
       </c>
       <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19">
+      <c r="T7" s="19">
         <f>Q7+TIME(1,0,0)</f>
         <v>0.48611111111111116</v>
       </c>
-      <c r="V7" s="19">
-        <f t="shared" si="31"/>
+      <c r="U7" s="19">
+        <f t="shared" si="32"/>
         <v>0.51319444444444473</v>
       </c>
-      <c r="W7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19">
+        <f t="shared" si="33"/>
+        <v>0.52777777777777779</v>
+      </c>
       <c r="X7" s="19">
-        <f>U7+TIME(1,0,0)</f>
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="Y7" s="19">
-        <f>V7+TIME(1,0,0)</f>
+        <f t="shared" si="33"/>
         <v>0.55486111111111136</v>
       </c>
-      <c r="Z7" s="10"/>
+      <c r="Z7" s="19">
+        <f t="shared" si="34"/>
+        <v>0.56944444444444442</v>
+      </c>
       <c r="AA7" s="19">
-        <f>X7+TIME(1,0,0)</f>
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="AB7" s="19">
-        <f>Y7+TIME(1,0,0)</f>
+        <f t="shared" si="34"/>
         <v>0.59652777777777799</v>
       </c>
-      <c r="AC7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19">
+        <f t="shared" si="35"/>
+        <v>0.61111111111111105</v>
+      </c>
       <c r="AD7" s="19">
-        <f t="shared" si="32"/>
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AE7" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.63819444444444462</v>
       </c>
-      <c r="AF7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19">
+        <f t="shared" si="37"/>
+        <v>0.65277777777777768</v>
+      </c>
       <c r="AG7" s="19">
-        <f t="shared" si="34"/>
-        <v>0.65277777777777768</v>
-      </c>
-      <c r="AH7" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.67986111111111125</v>
       </c>
-      <c r="AI7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19">
+        <f t="shared" si="39"/>
+        <v>0.69444444444444431</v>
+      </c>
       <c r="AJ7" s="19">
-        <f t="shared" si="36"/>
-        <v>0.69444444444444431</v>
-      </c>
-      <c r="AK7" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.72152777777777788</v>
       </c>
-      <c r="AL7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19">
+        <f t="shared" si="41"/>
+        <v>0.73611111111111094</v>
+      </c>
       <c r="AM7" s="19">
-        <f t="shared" si="38"/>
-        <v>0.73611111111111094</v>
-      </c>
-      <c r="AN7" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.76319444444444451</v>
       </c>
-      <c r="AO7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19">
+        <f t="shared" si="43"/>
+        <v>0.77777777777777757</v>
+      </c>
       <c r="AP7" s="19">
-        <f t="shared" si="40"/>
-        <v>0.77777777777777757</v>
-      </c>
-      <c r="AQ7" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.80486111111111114</v>
       </c>
-      <c r="AR7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19">
+        <f t="shared" si="45"/>
+        <v>0.8194444444444442</v>
+      </c>
       <c r="AS7" s="19">
-        <f t="shared" si="42"/>
-        <v>0.8194444444444442</v>
-      </c>
-      <c r="AT7" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.84652777777777777</v>
       </c>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="19">
-        <f>AS7+TIME(1,0,0)</f>
+      <c r="AT7" s="19"/>
+      <c r="AV7" s="23">
+        <f>AR7+TIME(1,0,0)</f>
         <v>0.86111111111111083</v>
       </c>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="19">
-        <f t="shared" si="44"/>
+      <c r="AW7" s="19">
+        <f t="shared" si="47"/>
         <v>0.8881944444444444</v>
       </c>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="19">
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="19">
         <f>AV7+TIME(1,0,0)</f>
         <v>0.90277777777777746</v>
       </c>
-      <c r="BA7" s="19">
-        <f t="shared" si="45"/>
+      <c r="AZ7" s="19">
+        <f t="shared" si="48"/>
         <v>0.92986111111111103</v>
       </c>
+      <c r="BA7" s="19"/>
       <c r="BB7" s="19"/>
-      <c r="BC7" s="19"/>
+      <c r="BC7" s="19">
+        <v>1.9451388888888901</v>
+      </c>
       <c r="BD7" s="19">
-        <v>1.9451388888888901</v>
-      </c>
-      <c r="BE7" s="19">
         <v>0.97152777777777777</v>
       </c>
-      <c r="BF7" s="19"/>
-      <c r="BG7" s="19">
+      <c r="BE7" s="19"/>
+      <c r="BF7" s="19">
         <v>0.9868055555555556</v>
       </c>
-      <c r="BH7" s="19"/>
-      <c r="BI7" s="19">
+      <c r="BG7" s="19"/>
+      <c r="BH7" s="19">
         <v>2.8472222222222222E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:61" s="18" customFormat="1">
+    <row r="8" spans="1:60">
       <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10"/>
       <c r="C8" s="19">
         <v>0.25833333333333336</v>
       </c>
       <c r="D8" s="19">
         <v>0.3</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
       <c r="G8" s="19">
         <v>0.32500000000000001</v>
       </c>
       <c r="H8" s="19">
         <v>0.34166666666666701</v>
       </c>
-      <c r="I8" s="10"/>
       <c r="J8" s="19">
         <v>0.3666666666666667</v>
       </c>
@@ -6202,160 +6031,151 @@
         <f>H8+TIME(1,0,0)</f>
         <v>0.38333333333333369</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
       <c r="N8" s="19">
-        <f>J8+TIME(1,0,0)</f>
+        <f t="shared" si="30"/>
         <v>0.40833333333333338</v>
       </c>
       <c r="O8" s="19">
-        <f>K8+TIME(1,0,0)</f>
+        <f t="shared" si="30"/>
         <v>0.42500000000000038</v>
       </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="19">
-        <f>N8+TIME(1,0,0)</f>
+        <f t="shared" si="31"/>
         <v>0.45000000000000007</v>
       </c>
       <c r="R8" s="19">
-        <f>O8+TIME(1,0,0)</f>
+        <f t="shared" si="31"/>
         <v>0.46666666666666706</v>
       </c>
       <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19">
+      <c r="T8" s="19">
         <f>Q8+TIME(1,0,0)</f>
         <v>0.49166666666666675</v>
       </c>
-      <c r="V8" s="19">
-        <f t="shared" si="31"/>
+      <c r="U8" s="19">
+        <f t="shared" si="32"/>
         <v>0.50833333333333375</v>
       </c>
-      <c r="W8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19">
+        <f t="shared" si="33"/>
+        <v>0.53333333333333344</v>
+      </c>
       <c r="X8" s="19">
-        <f>U8+TIME(1,0,0)</f>
-        <v>0.53333333333333344</v>
-      </c>
-      <c r="Y8" s="19">
-        <f>V8+TIME(1,0,0)</f>
+        <f t="shared" si="33"/>
         <v>0.55000000000000038</v>
       </c>
-      <c r="Z8" s="10"/>
+      <c r="Z8" s="19">
+        <f t="shared" si="34"/>
+        <v>0.57500000000000007</v>
+      </c>
       <c r="AA8" s="19">
-        <f>X8+TIME(1,0,0)</f>
-        <v>0.57500000000000007</v>
-      </c>
-      <c r="AB8" s="19">
-        <f>Y8+TIME(1,0,0)</f>
+        <f t="shared" si="34"/>
         <v>0.59166666666666701</v>
       </c>
-      <c r="AC8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19">
+        <f t="shared" si="35"/>
+        <v>0.6166666666666667</v>
+      </c>
       <c r="AD8" s="19">
-        <f t="shared" si="32"/>
-        <v>0.6166666666666667</v>
-      </c>
-      <c r="AE8" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.63333333333333364</v>
       </c>
-      <c r="AF8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19">
+        <f t="shared" si="37"/>
+        <v>0.65833333333333333</v>
+      </c>
       <c r="AG8" s="19">
-        <f t="shared" si="34"/>
-        <v>0.65833333333333333</v>
-      </c>
-      <c r="AH8" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.67500000000000027</v>
       </c>
-      <c r="AI8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19">
+        <f t="shared" si="39"/>
+        <v>0.7</v>
+      </c>
       <c r="AJ8" s="19">
-        <f t="shared" si="36"/>
-        <v>0.7</v>
-      </c>
-      <c r="AK8" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.7166666666666669</v>
       </c>
-      <c r="AL8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19">
+        <f t="shared" si="41"/>
+        <v>0.74166666666666659</v>
+      </c>
       <c r="AM8" s="19">
-        <f t="shared" si="38"/>
-        <v>0.74166666666666659</v>
-      </c>
-      <c r="AN8" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.75833333333333353</v>
       </c>
-      <c r="AO8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19">
+        <f t="shared" si="43"/>
+        <v>0.78333333333333321</v>
+      </c>
       <c r="AP8" s="19">
-        <f t="shared" si="40"/>
-        <v>0.78333333333333321</v>
-      </c>
-      <c r="AQ8" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.80000000000000016</v>
       </c>
-      <c r="AR8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19">
+        <f t="shared" si="45"/>
+        <v>0.82499999999999984</v>
+      </c>
       <c r="AS8" s="19">
-        <f t="shared" si="42"/>
-        <v>0.82499999999999984</v>
-      </c>
-      <c r="AT8" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.84166666666666679</v>
       </c>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="19">
-        <f>AS8+TIME(1,0,0)</f>
+      <c r="AT8" s="19"/>
+      <c r="AV8" s="23">
+        <f>AR8+TIME(1,0,0)</f>
         <v>0.86666666666666647</v>
       </c>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="19">
-        <f t="shared" si="44"/>
+      <c r="AW8" s="19">
+        <f t="shared" si="47"/>
         <v>0.88333333333333341</v>
       </c>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="19">
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="19">
         <f>AV8+TIME(1,0,0)</f>
         <v>0.9083333333333331</v>
       </c>
-      <c r="BA8" s="19">
-        <f t="shared" si="45"/>
+      <c r="AZ8" s="19">
+        <f t="shared" si="48"/>
         <v>0.92500000000000004</v>
       </c>
+      <c r="BA8" s="19"/>
       <c r="BB8" s="19"/>
-      <c r="BC8" s="19"/>
+      <c r="BC8" s="19">
+        <v>1.95</v>
+      </c>
       <c r="BD8" s="19">
-        <v>1.95</v>
-      </c>
-      <c r="BE8" s="19">
         <v>0.96666666666666667</v>
       </c>
-      <c r="BF8" s="19"/>
-      <c r="BG8" s="19">
+      <c r="BE8" s="19"/>
+      <c r="BF8" s="19">
         <v>0.9916666666666667</v>
       </c>
-      <c r="BH8" s="19"/>
-      <c r="BI8" s="19">
+      <c r="BG8" s="19"/>
+      <c r="BH8" s="19">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:61" s="18" customFormat="1">
-      <c r="B9" s="10"/>
+    <row r="9" spans="1:60">
       <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
         <v>28</v>
       </c>
@@ -6363,8 +6183,6 @@
         <f>D9</f>
         <v>^</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
       <c r="N9" s="10" t="str">
         <f>G9</f>
         <v>v</v>
@@ -6373,7 +6191,6 @@
         <f>H9</f>
         <v>^</v>
       </c>
-      <c r="P9" s="10"/>
       <c r="Q9" s="10" t="str">
         <f>J9</f>
         <v>v</v>
@@ -6382,141 +6199,125 @@
         <f>K9</f>
         <v>^</v>
       </c>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10" t="str">
+      <c r="T9" s="10" t="str">
         <f>N9</f>
         <v>v</v>
       </c>
-      <c r="V9" s="10" t="str">
-        <f t="shared" ref="V9" si="46">O9</f>
+      <c r="U9" s="10" t="str">
+        <f t="shared" ref="U9" si="49">O9</f>
         <v>^</v>
       </c>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10" t="str">
+      <c r="W9" s="10" t="str">
         <f>Q9</f>
         <v>v</v>
       </c>
-      <c r="Y9" s="10" t="str">
+      <c r="X9" s="10" t="str">
         <f>R9</f>
         <v>^</v>
       </c>
-      <c r="Z9" s="10"/>
+      <c r="Z9" s="10" t="str">
+        <f t="shared" ref="Z9" si="50">T9</f>
+        <v>v</v>
+      </c>
       <c r="AA9" s="10" t="str">
-        <f t="shared" ref="AA9" si="47">U9</f>
+        <f t="shared" ref="AA9" si="51">U9</f>
+        <v>^</v>
+      </c>
+      <c r="AC9" s="10" t="str">
+        <f>W9</f>
         <v>v</v>
       </c>
-      <c r="AB9" s="10" t="str">
-        <f t="shared" ref="AB9" si="48">V9</f>
-        <v>^</v>
-      </c>
-      <c r="AC9" s="10"/>
       <c r="AD9" s="10" t="str">
         <f>X9</f>
+        <v>^</v>
+      </c>
+      <c r="AF9" s="10" t="str">
+        <f t="shared" ref="AF9" si="52">Z9</f>
         <v>v</v>
       </c>
-      <c r="AE9" s="10" t="str">
-        <f>Y9</f>
+      <c r="AG9" s="10" t="str">
+        <f t="shared" ref="AG9" si="53">AA9</f>
         <v>^</v>
       </c>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10" t="str">
-        <f t="shared" ref="AG9" si="49">AA9</f>
+      <c r="AI9" s="10" t="str">
+        <f t="shared" ref="AI9" si="54">AC9</f>
         <v>v</v>
       </c>
-      <c r="AH9" s="10" t="str">
-        <f t="shared" ref="AH9" si="50">AB9</f>
+      <c r="AJ9" s="10" t="str">
+        <f t="shared" ref="AJ9" si="55">AD9</f>
         <v>^</v>
       </c>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10" t="str">
-        <f t="shared" ref="AJ9" si="51">AD9</f>
+      <c r="AL9" s="10" t="str">
+        <f t="shared" ref="AL9" si="56">AF9</f>
         <v>v</v>
       </c>
-      <c r="AK9" s="10" t="str">
-        <f t="shared" ref="AK9" si="52">AE9</f>
+      <c r="AM9" s="10" t="str">
+        <f t="shared" ref="AM9" si="57">AG9</f>
         <v>^</v>
       </c>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10" t="str">
-        <f t="shared" ref="AM9" si="53">AG9</f>
+      <c r="AO9" s="10" t="str">
+        <f t="shared" ref="AO9" si="58">AI9</f>
         <v>v</v>
       </c>
-      <c r="AN9" s="10" t="str">
-        <f t="shared" ref="AN9" si="54">AH9</f>
+      <c r="AP9" s="10" t="str">
+        <f t="shared" ref="AP9" si="59">AJ9</f>
         <v>^</v>
       </c>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10" t="str">
-        <f t="shared" ref="AP9" si="55">AJ9</f>
+      <c r="AR9" s="10" t="str">
+        <f t="shared" ref="AR9" si="60">AL9</f>
         <v>v</v>
       </c>
-      <c r="AQ9" s="10" t="str">
-        <f t="shared" ref="AQ9" si="56">AK9</f>
+      <c r="AS9" s="10" t="str">
+        <f t="shared" ref="AS9" si="61">AM9</f>
         <v>^</v>
       </c>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10" t="str">
-        <f t="shared" ref="AS9" si="57">AM9</f>
+      <c r="AV9" s="22" t="str">
+        <f>AO9</f>
         <v>v</v>
       </c>
-      <c r="AT9" s="10" t="str">
-        <f t="shared" ref="AT9" si="58">AN9</f>
+      <c r="AW9" s="10" t="str">
+        <f t="shared" ref="AW9" si="62">AP9</f>
         <v>^</v>
       </c>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10" t="str">
-        <f t="shared" ref="AV9" si="59">AP9</f>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10" t="str">
+        <f>AR9</f>
         <v>v</v>
       </c>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10" t="str">
-        <f t="shared" ref="AX9" si="60">AQ9</f>
+      <c r="AZ9" s="10" t="str">
+        <f t="shared" ref="AZ9" si="63">AS9</f>
         <v>^</v>
       </c>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10" t="str">
-        <f>AS9</f>
-        <v>v</v>
-      </c>
-      <c r="BA9" s="10" t="str">
-        <f t="shared" ref="BA9" si="61">AT9</f>
-        <v>^</v>
-      </c>
+      <c r="BA9" s="10"/>
       <c r="BB9" s="10"/>
-      <c r="BC9" s="10"/>
+      <c r="BC9" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="BD9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="BF9" s="10"/>
-      <c r="BG9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="BH9" s="10"/>
-      <c r="BI9" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:61" s="18" customFormat="1">
-      <c r="B10" s="10"/>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG9" s="10"/>
+      <c r="BH9" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60">
       <c r="C10" s="10">
         <v>70719</v>
       </c>
       <c r="D10" s="10">
         <v>70723</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
       <c r="G10" s="10">
         <v>70716</v>
       </c>
       <c r="H10" s="10">
         <v>70727</v>
       </c>
-      <c r="I10" s="10"/>
       <c r="J10" s="10">
         <v>70720</v>
       </c>
@@ -6524,8 +6325,6 @@
         <f>H10+4</f>
         <v>70731</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
       <c r="N10" s="10">
         <f>J10+4</f>
         <v>70724</v>
@@ -6534,7 +6333,6 @@
         <f>K10+4</f>
         <v>70735</v>
       </c>
-      <c r="P10" s="10"/>
       <c r="Q10" s="10">
         <f>N10+4</f>
         <v>70728</v>
@@ -6543,179 +6341,121 @@
         <f>O10+4</f>
         <v>70739</v>
       </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10">
+      <c r="T10" s="10">
         <f>Q10+4</f>
         <v>70732</v>
       </c>
-      <c r="V10" s="10">
-        <f t="shared" ref="V10" si="62">R10+4</f>
+      <c r="U10" s="10">
+        <f t="shared" ref="U10" si="64">R10+4</f>
         <v>70743</v>
       </c>
-      <c r="W10" s="10"/>
+      <c r="W10" s="10">
+        <f>T10+4</f>
+        <v>70736</v>
+      </c>
       <c r="X10" s="10">
         <f>U10+4</f>
-        <v>70736</v>
-      </c>
-      <c r="Y10" s="10">
-        <f>V10+4</f>
         <v>70747</v>
       </c>
-      <c r="Z10" s="10"/>
+      <c r="Z10" s="10">
+        <f>W10+4</f>
+        <v>70740</v>
+      </c>
       <c r="AA10" s="10">
         <f>X10+4</f>
-        <v>70740</v>
-      </c>
-      <c r="AB10" s="10">
-        <f>Y10+4</f>
         <v>70751</v>
       </c>
-      <c r="AC10" s="10"/>
+      <c r="AC10" s="10">
+        <f t="shared" ref="AC10" si="65">Z10+4</f>
+        <v>70744</v>
+      </c>
       <c r="AD10" s="10">
-        <f t="shared" ref="AD10" si="63">AA10+4</f>
-        <v>70744</v>
-      </c>
-      <c r="AE10" s="10">
-        <f t="shared" ref="AE10" si="64">AB10+4</f>
+        <f t="shared" ref="AD10" si="66">AA10+4</f>
         <v>70755</v>
       </c>
-      <c r="AF10" s="10"/>
+      <c r="AF10" s="10">
+        <f t="shared" ref="AF10" si="67">AC10+4</f>
+        <v>70748</v>
+      </c>
       <c r="AG10" s="10">
-        <f t="shared" ref="AG10" si="65">AD10+4</f>
-        <v>70748</v>
-      </c>
-      <c r="AH10" s="10">
-        <f t="shared" ref="AH10" si="66">AE10+4</f>
+        <f t="shared" ref="AG10" si="68">AD10+4</f>
         <v>70759</v>
       </c>
-      <c r="AI10" s="10"/>
+      <c r="AI10" s="10">
+        <f t="shared" ref="AI10" si="69">AF10+4</f>
+        <v>70752</v>
+      </c>
       <c r="AJ10" s="10">
-        <f t="shared" ref="AJ10" si="67">AG10+4</f>
-        <v>70752</v>
-      </c>
-      <c r="AK10" s="10">
-        <f t="shared" ref="AK10" si="68">AH10+4</f>
+        <f t="shared" ref="AJ10" si="70">AG10+4</f>
         <v>70763</v>
       </c>
-      <c r="AL10" s="10"/>
+      <c r="AL10" s="10">
+        <f t="shared" ref="AL10" si="71">AI10+4</f>
+        <v>70756</v>
+      </c>
       <c r="AM10" s="10">
-        <f t="shared" ref="AM10" si="69">AJ10+4</f>
-        <v>70756</v>
-      </c>
-      <c r="AN10" s="10">
-        <f t="shared" ref="AN10" si="70">AK10+4</f>
+        <f t="shared" ref="AM10" si="72">AJ10+4</f>
         <v>70767</v>
       </c>
-      <c r="AO10" s="10"/>
+      <c r="AO10" s="10">
+        <f t="shared" ref="AO10" si="73">AL10+4</f>
+        <v>70760</v>
+      </c>
       <c r="AP10" s="10">
-        <f t="shared" ref="AP10" si="71">AM10+4</f>
-        <v>70760</v>
-      </c>
-      <c r="AQ10" s="10">
-        <f t="shared" ref="AQ10" si="72">AN10+4</f>
+        <f t="shared" ref="AP10" si="74">AM10+4</f>
         <v>70771</v>
       </c>
-      <c r="AR10" s="10"/>
+      <c r="AR10" s="10">
+        <f t="shared" ref="AR10" si="75">AO10+4</f>
+        <v>70764</v>
+      </c>
       <c r="AS10" s="10">
-        <f t="shared" ref="AS10" si="73">AP10+4</f>
-        <v>70764</v>
-      </c>
-      <c r="AT10" s="10">
-        <f t="shared" ref="AT10" si="74">AQ10+4</f>
+        <f t="shared" ref="AS10" si="76">AP10+4</f>
         <v>70775</v>
       </c>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10">
-        <f>AS10+4</f>
+      <c r="AV10" s="22">
+        <f>AR10+4</f>
         <v>70768</v>
       </c>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10">
-        <f t="shared" ref="AX10" si="75">AT10+4</f>
+      <c r="AW10" s="10">
+        <f t="shared" ref="AW10" si="77">AS10+4</f>
         <v>70779</v>
       </c>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="10">
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10">
         <f>AV10+4</f>
         <v>70772</v>
       </c>
-      <c r="BA10" s="10">
-        <f t="shared" ref="BA10" si="76">AX10+4</f>
+      <c r="AZ10" s="10">
+        <f t="shared" ref="AZ10" si="78">AW10+4</f>
         <v>70783</v>
       </c>
+      <c r="BA10" s="10"/>
       <c r="BB10" s="10"/>
-      <c r="BC10" s="10"/>
+      <c r="BC10" s="10">
+        <v>70776</v>
+      </c>
       <c r="BD10" s="10">
-        <v>70776</v>
-      </c>
-      <c r="BE10" s="10">
         <v>70787</v>
       </c>
-      <c r="BF10" s="10"/>
-      <c r="BG10" s="10">
+      <c r="BE10" s="10"/>
+      <c r="BF10" s="10">
         <v>70780</v>
       </c>
-      <c r="BH10" s="10"/>
-      <c r="BI10" s="10">
+      <c r="BG10" s="10"/>
+      <c r="BH10" s="10">
         <v>70784</v>
       </c>
     </row>
-    <row r="11" spans="1:61" s="18" customFormat="1">
-      <c r="B11" s="10"/>
+    <row r="11" spans="1:60">
       <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10" t="s">
-        <v>78</v>
+      <c r="AV11" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="AW11" s="10"/>
       <c r="AX11" s="10"/>
@@ -6723,75 +6463,28 @@
       <c r="AZ11" s="10"/>
       <c r="BA11" s="10"/>
       <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="BC11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD11" s="10"/>
       <c r="BE11" s="10"/>
-      <c r="BF11" s="10"/>
-      <c r="BG11" s="10" t="s">
+      <c r="BF11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="BH11" s="10"/>
-      <c r="BI11" s="10" t="s">
+      <c r="BG11" s="10"/>
+      <c r="BH11" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:61" s="18" customFormat="1">
-      <c r="B12" s="10"/>
+    <row r="12" spans="1:60">
       <c r="C12" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10">
-        <v>71626</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10" t="s">
-        <v>79</v>
+      <c r="AV12" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="AW12" s="10"/>
       <c r="AX12" s="10"/>
@@ -6799,71 +6492,22 @@
       <c r="AZ12" s="10"/>
       <c r="BA12" s="10"/>
       <c r="BB12" s="10"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="BC12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD12" s="10"/>
       <c r="BE12" s="10"/>
-      <c r="BF12" s="10"/>
-      <c r="BG12" s="10" t="s">
+      <c r="BF12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BH12" s="10"/>
-      <c r="BI12" s="10" t="s">
+      <c r="BG12" s="10"/>
+      <c r="BH12" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:61" s="18" customFormat="1">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="10" t="s">
-        <v>94</v>
+    <row r="13" spans="1:60">
+      <c r="AV13" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="AW13" s="10"/>
       <c r="AX13" s="10"/>
@@ -6871,949 +6515,725 @@
       <c r="AZ13" s="10"/>
       <c r="BA13" s="10"/>
       <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="BC13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD13" s="10"/>
       <c r="BE13" s="10"/>
       <c r="BF13" s="10"/>
       <c r="BG13" s="10"/>
-      <c r="BH13" s="10"/>
-    </row>
-    <row r="14" spans="1:61" s="18" customFormat="1">
+    </row>
+    <row r="14" spans="1:60">
       <c r="B14" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AG14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AH14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AI14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AJ14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AM14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AN14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AO14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AP14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AQ14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AR14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AS14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AT14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AU14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AV14" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AW14" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AY14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AZ14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="BA14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="BB14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="BC14" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="BD14" s="10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="BE14" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="BF14" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="BG14" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="BH14" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI14" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:61" s="18" customFormat="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60">
       <c r="B16" s="10">
         <v>1617</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
       <c r="E16" s="10">
         <v>1614</v>
       </c>
       <c r="F16" s="10">
         <v>1625</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
       <c r="I16" s="10">
         <v>1618</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
       <c r="L16" s="10">
         <v>1622</v>
       </c>
       <c r="M16" s="10">
         <v>1633</v>
       </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
       <c r="P16" s="10">
         <v>1626</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
       <c r="S16" s="10">
-        <v>1630</v>
-      </c>
-      <c r="T16" s="10">
         <v>1641</v>
       </c>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10">
+      <c r="V16" s="10">
         <v>1634</v>
       </c>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10">
+      <c r="Y16" s="10">
         <v>1649</v>
       </c>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10">
+      <c r="AB16" s="10">
         <v>1642</v>
       </c>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10">
+      <c r="AE16" s="10">
         <v>1657</v>
       </c>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10">
+      <c r="AH16" s="10">
         <v>1650</v>
       </c>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10">
+      <c r="AK16" s="10">
         <v>1665</v>
       </c>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10">
+      <c r="AN16" s="10">
         <v>1658</v>
       </c>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10">
+      <c r="AQ16" s="10">
         <v>1673</v>
       </c>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10">
+      <c r="AT16" s="10">
         <v>1666</v>
       </c>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10">
+      <c r="AU16" s="22">
         <v>1677</v>
       </c>
-      <c r="AY16" s="10">
+      <c r="AX16" s="10">
         <v>1681</v>
       </c>
+      <c r="BA16" s="10">
+        <v>1674</v>
+      </c>
       <c r="BB16" s="10">
-        <v>1674</v>
-      </c>
-      <c r="BC16" s="10">
         <v>1685</v>
       </c>
-      <c r="BF16" s="10">
+      <c r="BE16" s="10">
         <v>1689</v>
       </c>
-      <c r="BH16" s="10">
+      <c r="BG16" s="10">
         <v>1682</v>
       </c>
     </row>
-    <row r="17" spans="1:60" s="18" customFormat="1">
+    <row r="17" spans="1:59">
       <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
       <c r="L17" s="10" t="s">
         <v>28</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
       <c r="P17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
       <c r="S17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10" t="s">
+      <c r="V17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10" t="s">
+      <c r="AB17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10" t="s">
+      <c r="AH17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10" t="s">
+      <c r="AN17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="10" t="s">
+      <c r="AT17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AY17" s="10" t="s">
+      <c r="AX17" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="BA17" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="BB17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="BF17" s="10" t="s">
+      <c r="BE17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="BH17" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:60" s="18" customFormat="1">
+      <c r="BG17" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59">
       <c r="A18" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="19">
         <v>0.24583333333333335</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
       <c r="E18" s="19">
         <v>0.29583333333333334</v>
       </c>
       <c r="F18" s="19">
         <v>0.32847222222222222</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
       <c r="I18" s="19">
         <v>0.33749999999999997</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
       <c r="L18" s="19">
         <v>0.37916666666666698</v>
       </c>
       <c r="M18" s="19">
         <v>0.41180555555555598</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
       <c r="P18" s="19">
         <v>0.420833333333333</v>
       </c>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
       <c r="S18" s="19">
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="T18" s="19">
         <v>0.49513888888888902</v>
       </c>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="19">
+      <c r="V18" s="19">
         <v>0.50416666666666599</v>
       </c>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="19">
+      <c r="Y18" s="19">
         <v>0.57847222222222305</v>
       </c>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="19">
+      <c r="AB18" s="19">
         <v>0.58749999999999902</v>
       </c>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="19">
+      <c r="AE18" s="19">
         <v>0.66180555555555698</v>
       </c>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="19">
+      <c r="AH18" s="19">
         <v>0.67083333333333295</v>
       </c>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="19">
+      <c r="AK18" s="19">
         <v>0.74513888888889102</v>
       </c>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="19">
+      <c r="AN18" s="19">
         <v>0.75416666666666599</v>
       </c>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="19">
+      <c r="AQ18" s="19">
         <v>0.82847222222222505</v>
       </c>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="19">
+      <c r="AR18" s="19"/>
+      <c r="AT18" s="19">
         <v>0.83749999999999902</v>
       </c>
-      <c r="AV18" s="10"/>
-      <c r="AW18" s="19">
+      <c r="AU18" s="23">
         <v>0.87013888888889201</v>
       </c>
-      <c r="AY18" s="19">
+      <c r="AX18" s="19">
         <v>0.91180555555555898</v>
       </c>
+      <c r="BA18" s="19">
+        <v>0.92083333333333195</v>
+      </c>
       <c r="BB18" s="19">
-        <v>0.92083333333333195</v>
-      </c>
-      <c r="BC18" s="19">
         <v>0.95347222222222605</v>
       </c>
-      <c r="BF18" s="19">
+      <c r="BE18" s="19">
         <v>0.99513888888888891</v>
       </c>
-      <c r="BH18" s="19">
+      <c r="BG18" s="19">
         <v>1.00416666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:60" s="18" customFormat="1">
+    <row r="19" spans="1:59">
       <c r="A19" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="19">
         <v>0.24305555555555555</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
       <c r="E19" s="19">
         <v>0.29791666666666666</v>
       </c>
       <c r="F19" s="19">
         <v>0.3263888888888889</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
       <c r="I19" s="19">
         <v>0.33958333333333335</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
       <c r="L19" s="19">
         <v>0.38124999999999998</v>
       </c>
       <c r="M19" s="19">
         <v>0.40972222222222199</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
       <c r="P19" s="19">
         <v>0.422916666666667</v>
       </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
       <c r="S19" s="19">
-        <v>0.46458333333333401</v>
-      </c>
-      <c r="T19" s="19">
         <v>0.49305555555555503</v>
       </c>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="19">
+      <c r="V19" s="19">
         <v>0.50624999999999998</v>
       </c>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="19">
+      <c r="Y19" s="19">
         <v>0.57638888888888895</v>
       </c>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="19">
+      <c r="AB19" s="19">
         <v>0.58958333333333401</v>
       </c>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="19">
+      <c r="AE19" s="19">
         <v>0.65972222222222299</v>
       </c>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="19">
+      <c r="AH19" s="19">
         <v>0.67291666666666705</v>
       </c>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="19">
+      <c r="AK19" s="19">
         <v>0.74305555555555702</v>
       </c>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
-      <c r="AO19" s="19">
+      <c r="AN19" s="19">
         <v>0.75625000000000098</v>
       </c>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="19">
+      <c r="AQ19" s="19">
         <v>0.82638888888889095</v>
       </c>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="19">
+      <c r="AR19" s="19"/>
+      <c r="AT19" s="19">
         <v>0.83958333333333401</v>
       </c>
-      <c r="AV19" s="10"/>
-      <c r="AW19" s="19">
+      <c r="AU19" s="23">
         <v>0.86805555555555802</v>
       </c>
-      <c r="AY19" s="19">
+      <c r="AX19" s="19">
         <v>0.90972222222222499</v>
       </c>
+      <c r="BA19" s="19">
+        <v>0.92291666666666705</v>
+      </c>
       <c r="BB19" s="19">
-        <v>0.92291666666666705</v>
-      </c>
-      <c r="BC19" s="19">
         <v>0.95138888888889195</v>
       </c>
-      <c r="BF19" s="19">
+      <c r="BE19" s="19">
         <v>0.99305555555555547</v>
       </c>
-      <c r="BH19" s="19">
+      <c r="BG19" s="19">
         <v>1.0062500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:60" s="18" customFormat="1">
+    <row r="20" spans="1:59">
       <c r="A20" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="19">
         <v>0.24236111111111111</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
       <c r="E20" s="19">
         <v>0.2986111111111111</v>
       </c>
       <c r="F20" s="19">
         <v>0.32569444444444445</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
       <c r="I20" s="19">
         <v>0.34027777777777773</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
       <c r="L20" s="19">
         <v>0.38194444444444398</v>
       </c>
       <c r="M20" s="19">
         <v>0.40902777777777799</v>
       </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
       <c r="P20" s="19">
         <v>0.42361111111111099</v>
       </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
       <c r="S20" s="19">
-        <v>0.46527777777777801</v>
-      </c>
-      <c r="T20" s="19">
         <v>0.49236111111111103</v>
       </c>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="19">
+      <c r="V20" s="19">
         <v>0.50694444444444398</v>
       </c>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="19">
+      <c r="Y20" s="19">
         <v>0.57569444444444495</v>
       </c>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="19">
+      <c r="AB20" s="19">
         <v>0.59027777777777701</v>
       </c>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="19">
+      <c r="AE20" s="19">
         <v>0.65902777777777899</v>
       </c>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="19">
+      <c r="AH20" s="19">
         <v>0.67361111111111105</v>
       </c>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="19">
+      <c r="AK20" s="19">
         <v>0.74236111111111303</v>
       </c>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="19">
+      <c r="AN20" s="19">
         <v>0.75694444444444398</v>
       </c>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="19">
+      <c r="AQ20" s="19">
         <v>0.82569444444444695</v>
       </c>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="19">
+      <c r="AR20" s="19"/>
+      <c r="AT20" s="19">
         <v>0.84027777777777701</v>
       </c>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="19">
+      <c r="AU20" s="23">
         <v>0.86736111111111402</v>
       </c>
-      <c r="AY20" s="19">
+      <c r="AX20" s="19">
         <v>0.90902777777778099</v>
       </c>
+      <c r="BA20" s="19">
+        <v>0.92361111111111005</v>
+      </c>
       <c r="BB20" s="19">
-        <v>0.92361111111111005</v>
-      </c>
-      <c r="BC20" s="19">
         <v>0.95069444444444795</v>
       </c>
-      <c r="BF20" s="19">
+      <c r="BE20" s="19">
         <v>0.99236111111111114</v>
       </c>
-      <c r="BH20" s="19">
+      <c r="BG20" s="19">
         <v>1.00694444444444</v>
       </c>
     </row>
-    <row r="21" spans="1:60" s="18" customFormat="1">
+    <row r="21" spans="1:59">
       <c r="A21" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="19">
         <v>0.23750000000000002</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
       <c r="E21" s="19">
         <v>0.30416666666666664</v>
       </c>
       <c r="F21" s="19">
         <v>0.32083333333333336</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
       <c r="I21" s="19">
         <v>0.34583333333333338</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
       <c r="L21" s="19">
         <v>0.38750000000000001</v>
       </c>
       <c r="M21" s="19">
         <v>0.40416666666666701</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
       <c r="P21" s="19">
         <v>0.42916666666666697</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
       <c r="S21" s="19">
-        <v>0.47083333333333399</v>
-      </c>
-      <c r="T21" s="19">
         <v>0.48749999999999999</v>
       </c>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="19">
+      <c r="V21" s="19">
         <v>0.51250000000000095</v>
       </c>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="19">
+      <c r="Y21" s="19">
         <v>0.57083333333333397</v>
       </c>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="19">
+      <c r="AB21" s="19">
         <v>0.59583333333333399</v>
       </c>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="19">
+      <c r="AE21" s="19">
         <v>0.65416666666666801</v>
       </c>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="19">
+      <c r="AH21" s="19">
         <v>0.67916666666666803</v>
       </c>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="19">
+      <c r="AK21" s="19">
         <v>0.73750000000000204</v>
       </c>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="19">
+      <c r="AN21" s="19">
         <v>0.76250000000000095</v>
       </c>
-      <c r="AP21" s="10"/>
-      <c r="AQ21" s="10"/>
-      <c r="AR21" s="19">
+      <c r="AQ21" s="19">
         <v>0.82083333333333597</v>
       </c>
-      <c r="AS21" s="19"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="19">
+      <c r="AR21" s="19"/>
+      <c r="AT21" s="19">
         <v>0.84583333333333499</v>
       </c>
-      <c r="AV21" s="10"/>
-      <c r="AW21" s="19">
+      <c r="AU21" s="23">
         <v>0.86250000000000304</v>
       </c>
-      <c r="AY21" s="19">
+      <c r="AX21" s="19">
         <v>0.90416666666667</v>
       </c>
+      <c r="BA21" s="19">
+        <v>0.92916666666666803</v>
+      </c>
       <c r="BB21" s="19">
-        <v>0.92916666666666803</v>
-      </c>
-      <c r="BC21" s="19">
         <v>0.94583333333333697</v>
       </c>
-      <c r="BF21" s="19">
+      <c r="BE21" s="19">
         <v>0.98749999999999993</v>
       </c>
-      <c r="BH21" s="19">
+      <c r="BG21" s="19">
         <v>1.0125</v>
       </c>
     </row>
-    <row r="22" spans="1:60" s="18" customFormat="1">
+    <row r="22" spans="1:59">
       <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
       <c r="L22" s="10" t="s">
         <v>28</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
       <c r="P22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
       <c r="S22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10" t="s">
+      <c r="V22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10" t="s">
+      <c r="AB22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10" t="s">
+      <c r="AH22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10" t="s">
+      <c r="AN22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV22" s="10"/>
-      <c r="AW22" s="10" t="s">
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="22"/>
+      <c r="AT22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU22" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AY22" s="10" t="s">
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="24"/>
+      <c r="AX22" s="22" t="s">
         <v>6</v>
       </c>
+      <c r="AY22" s="24"/>
+      <c r="AZ22" s="24"/>
+      <c r="BA22" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="BB22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="BF22" s="10" t="s">
+      <c r="BE22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="BH22" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:60" s="18" customFormat="1">
+      <c r="BG22" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59">
       <c r="B23" s="10">
         <v>71617</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
       <c r="E23" s="10">
         <v>71614</v>
       </c>
       <c r="F23" s="10">
         <v>71625</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
       <c r="I23" s="10">
         <v>80108</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
       <c r="L23" s="10">
         <f>L16+70000</f>
         <v>71622</v>
@@ -7822,635 +7242,315 @@
         <f>M16+70000</f>
         <v>71633</v>
       </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
       <c r="P23" s="10">
         <f>P16+70000</f>
         <v>71626</v>
       </c>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
       <c r="S23" s="10">
         <f>S16+70000</f>
-        <v>71630</v>
-      </c>
-      <c r="T23" s="10">
-        <f>T16+70000</f>
         <v>71641</v>
       </c>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10">
-        <f>W16+70000</f>
+      <c r="V23" s="10">
+        <f>V16+70000</f>
         <v>71634</v>
       </c>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10">
-        <f>Z16+70000</f>
+      <c r="Y23" s="10">
+        <f>Y16+70000</f>
         <v>71649</v>
       </c>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10">
-        <f>AC16+70000</f>
+      <c r="AB23" s="10">
+        <f>AB16+70000</f>
         <v>71642</v>
       </c>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10">
-        <f>AF16+70000</f>
+      <c r="AE23" s="10">
+        <f>AE16+70000</f>
         <v>71657</v>
       </c>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10">
-        <f>AI16+70000</f>
+      <c r="AH23" s="10">
+        <f>AH16+70000</f>
         <v>71650</v>
       </c>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10">
-        <f>AL16+70000</f>
+      <c r="AK23" s="10">
+        <f>AK16+70000</f>
         <v>71665</v>
       </c>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10">
-        <f>AO16+70000</f>
+      <c r="AN23" s="10">
+        <f>AN16+70000</f>
         <v>71658</v>
       </c>
-      <c r="AP23" s="10"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10">
-        <f>AR16+70000</f>
+      <c r="AQ23" s="10">
+        <f>AQ16+70000</f>
         <v>71673</v>
       </c>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="10">
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="22"/>
+      <c r="AT23" s="22">
+        <f>AT16+70000</f>
+        <v>71666</v>
+      </c>
+      <c r="AU23" s="22">
         <f>AU16+70000</f>
-        <v>71666</v>
-      </c>
-      <c r="AV23" s="10"/>
-      <c r="AW23" s="10">
-        <f>AW16+70000</f>
         <v>71677</v>
       </c>
-      <c r="AY23" s="10">
-        <f>AY16+70000</f>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="24"/>
+      <c r="AX23" s="22">
+        <f>AX16+70000</f>
         <v>71681</v>
+      </c>
+      <c r="AY23" s="24"/>
+      <c r="AZ23" s="24"/>
+      <c r="BA23" s="10">
+        <f>BA16+70000</f>
+        <v>71674</v>
       </c>
       <c r="BB23" s="10">
         <f>BB16+70000</f>
-        <v>71674</v>
-      </c>
-      <c r="BC23" s="10">
-        <f>BC16+70000</f>
         <v>71685</v>
       </c>
-      <c r="BF23" s="10">
-        <f>BF16+70000</f>
+      <c r="BE23" s="10">
+        <f>BE16+70000</f>
         <v>71689</v>
       </c>
-      <c r="BH23" s="10">
-        <f>BH16+70000</f>
+      <c r="BG23" s="10">
+        <f>BG16+70000</f>
         <v>71682</v>
       </c>
     </row>
-    <row r="24" spans="1:60" s="18" customFormat="1">
+    <row r="24" spans="1:59">
       <c r="B24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
-      <c r="AP24" s="10"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV24" s="10"/>
-      <c r="AW24" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX24" s="10"/>
-      <c r="AZ24" s="10"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="21"/>
+      <c r="AU24" s="21"/>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="22"/>
+      <c r="AX24" s="24"/>
+      <c r="AY24" s="22"/>
+      <c r="AZ24" s="22"/>
       <c r="BA24" s="10"/>
       <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
-      <c r="BE24" s="10"/>
-      <c r="BF24" s="10" t="s">
+      <c r="BD24" s="10"/>
+      <c r="BE24" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="BG24" s="10"/>
-      <c r="BH24" s="10" t="s">
+      <c r="BF24" s="10"/>
+      <c r="BG24" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:60" s="18" customFormat="1">
+    <row r="25" spans="1:59">
       <c r="B25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10">
-        <v>70728</v>
-      </c>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y25" s="10">
+      <c r="Q25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R25" s="10">
         <v>221</v>
       </c>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE25" s="10">
+      <c r="W25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="X25" s="10">
         <v>221</v>
       </c>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK25" s="10">
+      <c r="AC25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD25" s="10">
         <v>221</v>
       </c>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
-      <c r="AP25" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ25" s="10">
+      <c r="AI25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ25" s="10">
         <v>221</v>
       </c>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV25" s="10"/>
-      <c r="AW25" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX25" s="10"/>
-      <c r="AZ25" s="10"/>
+      <c r="AO25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP25" s="10">
+        <v>221</v>
+      </c>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="22"/>
+      <c r="AT25" s="21"/>
+      <c r="AU25" s="21"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="22"/>
+      <c r="AX25" s="24"/>
+      <c r="AY25" s="22"/>
+      <c r="AZ25" s="22"/>
       <c r="BA25" s="10"/>
       <c r="BB25" s="10"/>
-      <c r="BC25" s="10"/>
-      <c r="BE25" s="10"/>
-      <c r="BF25" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG25" s="10"/>
-      <c r="BH25" s="10" t="s">
+      <c r="BD25" s="10"/>
+      <c r="BE25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF25" s="10"/>
+      <c r="BG25" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:60" s="18" customFormat="1">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+    <row r="26" spans="1:59">
       <c r="I26" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:60" s="18" customFormat="1">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="AR26" s="22"/>
+      <c r="AS26" s="22"/>
+      <c r="AT26" s="22"/>
+      <c r="AU26" s="22"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="22"/>
+      <c r="AX26" s="22"/>
+      <c r="AY26" s="24"/>
+      <c r="AZ26" s="24"/>
+    </row>
+    <row r="27" spans="1:59">
       <c r="I27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="10"/>
-      <c r="AP27" s="10"/>
-      <c r="AQ27" s="10"/>
-      <c r="AR27" s="10"/>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="10"/>
-      <c r="AU27" s="10"/>
-      <c r="AV27" s="10"/>
-      <c r="AW27" s="10"/>
-    </row>
-    <row r="28" spans="1:60" s="18" customFormat="1">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="22"/>
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="22"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="24"/>
+      <c r="AX27" s="24"/>
+      <c r="AY27" s="24"/>
+      <c r="AZ27" s="24"/>
+    </row>
+    <row r="28" spans="1:59">
       <c r="I28" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
-      <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
-      <c r="AS28" s="10"/>
-      <c r="AT28" s="10"/>
-      <c r="AU28" s="10"/>
-      <c r="AV28" s="10"/>
-      <c r="AW28" s="10"/>
-    </row>
-    <row r="30" spans="1:60" s="18" customFormat="1">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="24"/>
+      <c r="AX28" s="24"/>
+      <c r="AY28" s="24"/>
+      <c r="AZ28" s="24"/>
+    </row>
+    <row r="29" spans="1:59">
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="24"/>
+      <c r="AX29" s="24"/>
+      <c r="AY29" s="24"/>
+      <c r="AZ29" s="24"/>
+    </row>
+    <row r="30" spans="1:59">
       <c r="I30" s="19"/>
-      <c r="J30" s="10"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="10"/>
       <c r="M30" s="19"/>
-      <c r="N30" s="10"/>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
-      <c r="Q30" s="10"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="10"/>
+      <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
-      <c r="AJ30" s="10"/>
-      <c r="AK30" s="10"/>
-      <c r="AL30" s="10"/>
-      <c r="AM30" s="10"/>
-      <c r="AN30" s="10"/>
-      <c r="AO30" s="10"/>
-      <c r="AP30" s="10"/>
-      <c r="AQ30" s="10"/>
-      <c r="AR30" s="10"/>
-      <c r="AS30" s="10"/>
-      <c r="AT30" s="10"/>
-      <c r="AU30" s="10"/>
-      <c r="AV30" s="10"/>
-      <c r="AW30" s="10"/>
-    </row>
-    <row r="31" spans="1:60" s="18" customFormat="1">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="24"/>
+      <c r="AX30" s="24"/>
+      <c r="AY30" s="24"/>
+      <c r="AZ30" s="24"/>
+    </row>
+    <row r="31" spans="1:59">
       <c r="I31" s="19"/>
-      <c r="J31" s="10"/>
       <c r="K31" s="19"/>
-      <c r="L31" s="10"/>
       <c r="M31" s="19"/>
-      <c r="N31" s="10"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
-      <c r="Q31" s="10"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="10"/>
+      <c r="U31" s="19"/>
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="10"/>
-      <c r="AI31" s="10"/>
-      <c r="AJ31" s="10"/>
-      <c r="AK31" s="10"/>
-      <c r="AL31" s="10"/>
-      <c r="AM31" s="10"/>
-      <c r="AN31" s="10"/>
-      <c r="AO31" s="10"/>
-      <c r="AP31" s="10"/>
-      <c r="AQ31" s="10"/>
-      <c r="AR31" s="10"/>
-      <c r="AS31" s="10"/>
-      <c r="AT31" s="10"/>
-      <c r="AU31" s="10"/>
-      <c r="AV31" s="10"/>
-      <c r="AW31" s="10"/>
-    </row>
-    <row r="32" spans="1:60" s="18" customFormat="1">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="22"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="24"/>
+      <c r="AX31" s="24"/>
+      <c r="AY31" s="24"/>
+      <c r="AZ31" s="24"/>
+    </row>
+    <row r="32" spans="1:59">
       <c r="I32" s="19"/>
-      <c r="J32" s="10"/>
       <c r="K32" s="19"/>
-      <c r="L32" s="10"/>
       <c r="M32" s="19"/>
-      <c r="N32" s="10"/>
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
-      <c r="Q32" s="10"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="10"/>
+      <c r="U32" s="19"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="10"/>
-      <c r="AI32" s="10"/>
-      <c r="AJ32" s="10"/>
-      <c r="AK32" s="10"/>
-      <c r="AL32" s="10"/>
-      <c r="AM32" s="10"/>
-      <c r="AN32" s="10"/>
-      <c r="AO32" s="10"/>
-      <c r="AP32" s="10"/>
-      <c r="AQ32" s="10"/>
-      <c r="AR32" s="10"/>
-      <c r="AS32" s="10"/>
-      <c r="AT32" s="10"/>
-      <c r="AU32" s="10"/>
-      <c r="AV32" s="10"/>
-      <c r="AW32" s="10"/>
-    </row>
-    <row r="33" spans="2:49" s="18" customFormat="1">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="AR32" s="22"/>
+      <c r="AS32" s="22"/>
+      <c r="AT32" s="22"/>
+      <c r="AU32" s="22"/>
+      <c r="AV32" s="22"/>
+      <c r="AW32" s="24"/>
+      <c r="AX32" s="24"/>
+      <c r="AY32" s="24"/>
+      <c r="AZ32" s="24"/>
+    </row>
+    <row r="33" spans="9:52">
       <c r="I33" s="19"/>
-      <c r="J33" s="10"/>
       <c r="K33" s="19"/>
-      <c r="L33" s="10"/>
       <c r="M33" s="19"/>
-      <c r="N33" s="10"/>
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
-      <c r="Q33" s="10"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="10"/>
+      <c r="U33" s="19"/>
       <c r="V33" s="19"/>
       <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="10"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
-      <c r="AP33" s="10"/>
-      <c r="AQ33" s="10"/>
-      <c r="AR33" s="10"/>
-      <c r="AS33" s="10"/>
-      <c r="AT33" s="10"/>
-      <c r="AU33" s="10"/>
-      <c r="AV33" s="10"/>
-      <c r="AW33" s="10"/>
+      <c r="AR33" s="22"/>
+      <c r="AS33" s="22"/>
+      <c r="AT33" s="22"/>
+      <c r="AU33" s="22"/>
+      <c r="AV33" s="22"/>
+      <c r="AW33" s="24"/>
+      <c r="AX33" s="24"/>
+      <c r="AY33" s="24"/>
+      <c r="AZ33" s="24"/>
+    </row>
+    <row r="34" spans="9:52">
+      <c r="AR34" s="22"/>
+      <c r="AS34" s="22"/>
+      <c r="AT34" s="22"/>
+      <c r="AU34" s="22"/>
+      <c r="AV34" s="22"/>
+      <c r="AW34" s="24"/>
+      <c r="AX34" s="24"/>
+      <c r="AY34" s="24"/>
+      <c r="AZ34" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>